--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>0.7999999999999972</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>25</v>
+      </c>
       <c r="L12" t="n">
         <v>11.96</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>0.8999999999999968</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>25</v>
+      </c>
       <c r="L13" t="n">
         <v>11.99</v>
       </c>
@@ -1007,7 +1011,9 @@
       <c r="J14" t="n">
         <v>0.8999999999999968</v>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L14" t="n">
         <v>12.01</v>
       </c>
@@ -1052,7 +1058,9 @@
       <c r="J15" t="n">
         <v>0.9999999999999964</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>25</v>
+      </c>
       <c r="L15" t="n">
         <v>12.03</v>
       </c>
@@ -1097,7 +1105,9 @@
       <c r="J16" t="n">
         <v>1.099999999999996</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>50</v>
+      </c>
       <c r="L16" t="n">
         <v>12.05999999999999</v>
       </c>
@@ -1142,7 +1152,9 @@
       <c r="J17" t="n">
         <v>1.099999999999996</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>42.85714285714285</v>
+      </c>
       <c r="L17" t="n">
         <v>12.09999999999999</v>
       </c>
@@ -1187,7 +1199,9 @@
       <c r="J18" t="n">
         <v>1.099999999999996</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>20</v>
+      </c>
       <c r="L18" t="n">
         <v>12.12999999999999</v>
       </c>
@@ -1232,7 +1246,9 @@
       <c r="J19" t="n">
         <v>1.099999999999996</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>50</v>
+      </c>
       <c r="L19" t="n">
         <v>12.13999999999999</v>
       </c>
@@ -1277,7 +1293,9 @@
       <c r="J20" t="n">
         <v>1.099999999999996</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>50</v>
+      </c>
       <c r="L20" t="n">
         <v>12.15999999999999</v>
       </c>
@@ -1322,7 +1340,9 @@
       <c r="J21" t="n">
         <v>1.099999999999996</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L21" t="n">
         <v>12.17999999999999</v>
       </c>
@@ -1369,7 +1389,9 @@
       <c r="J22" t="n">
         <v>1.099999999999996</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
       <c r="L22" t="n">
         <v>12.18999999999999</v>
       </c>
@@ -1417,7 +1439,7 @@
         <v>1.099999999999996</v>
       </c>
       <c r="K23" t="n">
-        <v>27.27272727272727</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
         <v>12.18999999999999</v>
@@ -1466,7 +1488,7 @@
         <v>1.099999999999996</v>
       </c>
       <c r="K24" t="n">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="L24" t="n">
         <v>12.18999999999999</v>
@@ -1515,7 +1537,7 @@
         <v>1.199999999999996</v>
       </c>
       <c r="K25" t="n">
-        <v>20</v>
+        <v>-100</v>
       </c>
       <c r="L25" t="n">
         <v>12.18999999999999</v>
@@ -1564,7 +1586,7 @@
         <v>1.499999999999996</v>
       </c>
       <c r="K26" t="n">
-        <v>38.46153846153855</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L26" t="n">
         <v>12.20999999999999</v>
@@ -1613,7 +1635,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K27" t="n">
-        <v>19.99999999999995</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L27" t="n">
         <v>12.19999999999999</v>
@@ -1662,7 +1684,7 @@
         <v>1.799999999999997</v>
       </c>
       <c r="K28" t="n">
-        <v>14.28571428571425</v>
+        <v>-14.28571428571421</v>
       </c>
       <c r="L28" t="n">
         <v>12.18999999999999</v>
@@ -1711,7 +1733,7 @@
         <v>1.999999999999998</v>
       </c>
       <c r="K29" t="n">
-        <v>14.28571428571436</v>
+        <v>11.11111111111124</v>
       </c>
       <c r="L29" t="n">
         <v>12.19999999999999</v>
@@ -1760,7 +1782,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>6.666666666666635</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L30" t="n">
         <v>12.18999999999999</v>
@@ -1809,7 +1831,7 @@
         <v>2.199999999999999</v>
       </c>
       <c r="K31" t="n">
-        <v>6.666666666666635</v>
+        <v>-9.090909090909033</v>
       </c>
       <c r="L31" t="n">
         <v>12.17999999999999</v>
@@ -1860,7 +1882,7 @@
         <v>2.299999999999999</v>
       </c>
       <c r="K32" t="n">
-        <v>6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>12.17999999999999</v>
@@ -1911,7 +1933,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K33" t="n">
-        <v>-6.666666666666635</v>
+        <v>-7.69230769230765</v>
       </c>
       <c r="L33" t="n">
         <v>12.16999999999999</v>
@@ -1962,7 +1984,7 @@
         <v>2.399999999999999</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>12.15999999999999</v>
@@ -2013,7 +2035,7 @@
         <v>2.499999999999998</v>
       </c>
       <c r="K35" t="n">
-        <v>-6.666666666666635</v>
+        <v>-39.99999999999996</v>
       </c>
       <c r="L35" t="n">
         <v>12.14999999999999</v>
@@ -2064,7 +2086,7 @@
         <v>2.599999999999998</v>
       </c>
       <c r="K36" t="n">
-        <v>-6.666666666666635</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>12.11999999999999</v>
@@ -2115,7 +2137,7 @@
         <v>2.699999999999998</v>
       </c>
       <c r="K37" t="n">
-        <v>-12.49999999999994</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L37" t="n">
         <v>12.10999999999999</v>
@@ -2166,7 +2188,7 @@
         <v>2.799999999999997</v>
       </c>
       <c r="K38" t="n">
-        <v>-5.882352941176446</v>
+        <v>-25.00000000000017</v>
       </c>
       <c r="L38" t="n">
         <v>12.10999999999999</v>
@@ -2217,7 +2239,7 @@
         <v>2.899999999999997</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L39" t="n">
         <v>12.09999999999999</v>
@@ -2268,7 +2290,7 @@
         <v>2.899999999999997</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L40" t="n">
         <v>12.10999999999999</v>
@@ -2370,7 +2392,7 @@
         <v>2.999999999999996</v>
       </c>
       <c r="K42" t="n">
-        <v>-5.263157894736822</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>12.10999999999999</v>
@@ -2421,7 +2443,7 @@
         <v>3.199999999999998</v>
       </c>
       <c r="K43" t="n">
-        <v>4.761904761904826</v>
+        <v>25.00000000000017</v>
       </c>
       <c r="L43" t="n">
         <v>12.12999999999999</v>
@@ -2472,7 +2494,7 @@
         <v>3.299999999999999</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L44" t="n">
         <v>12.13999999999999</v>
@@ -2574,7 +2596,7 @@
         <v>3.499999999999998</v>
       </c>
       <c r="K46" t="n">
-        <v>-10.00000000000004</v>
+        <v>24.99999999999989</v>
       </c>
       <c r="L46" t="n">
         <v>12.15999999999999</v>
@@ -2625,7 +2647,7 @@
         <v>3.499999999999998</v>
       </c>
       <c r="K47" t="n">
-        <v>5.882352941176446</v>
+        <v>14.28571428571421</v>
       </c>
       <c r="L47" t="n">
         <v>12.17999999999999</v>
@@ -2676,7 +2698,7 @@
         <v>3.6</v>
       </c>
       <c r="K48" t="n">
-        <v>11.11111111111116</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L48" t="n">
         <v>12.19999999999999</v>
@@ -2727,7 +2749,7 @@
         <v>3.6</v>
       </c>
       <c r="K49" t="n">
-        <v>0</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L49" t="n">
         <v>12.20999999999999</v>
@@ -2778,7 +2800,7 @@
         <v>3.6</v>
       </c>
       <c r="K50" t="n">
-        <v>14.28571428571436</v>
+        <v>14.28571428571443</v>
       </c>
       <c r="L50" t="n">
         <v>12.21999999999999</v>
@@ -2829,7 +2851,7 @@
         <v>3.699999999999999</v>
       </c>
       <c r="K51" t="n">
-        <v>20.00000000000005</v>
+        <v>42.85714285714278</v>
       </c>
       <c r="L51" t="n">
         <v>12.23999999999999</v>
@@ -2880,7 +2902,7 @@
         <v>3.699999999999999</v>
       </c>
       <c r="K52" t="n">
-        <v>14.28571428571436</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L52" t="n">
         <v>12.26999999999999</v>
@@ -2931,7 +2953,7 @@
         <v>3.799999999999999</v>
       </c>
       <c r="K53" t="n">
-        <v>28.57142857142859</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L53" t="n">
         <v>12.28999999999999</v>
@@ -2982,7 +3004,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K54" t="n">
-        <v>20.00000000000005</v>
+        <v>60.00000000000014</v>
       </c>
       <c r="L54" t="n">
         <v>12.30999999999999</v>
@@ -3033,7 +3055,7 @@
         <v>3.899999999999999</v>
       </c>
       <c r="K55" t="n">
-        <v>28.57142857142859</v>
+        <v>50.00000000000022</v>
       </c>
       <c r="L55" t="n">
         <v>12.33999999999999</v>
@@ -3084,7 +3106,7 @@
         <v>3.999999999999998</v>
       </c>
       <c r="K56" t="n">
-        <v>14.28571428571436</v>
+        <v>20.00000000000028</v>
       </c>
       <c r="L56" t="n">
         <v>12.34999999999999</v>
@@ -3135,7 +3157,7 @@
         <v>4.099999999999998</v>
       </c>
       <c r="K57" t="n">
-        <v>28.57142857142859</v>
+        <v>20</v>
       </c>
       <c r="L57" t="n">
         <v>12.36999999999999</v>
@@ -3186,7 +3208,7 @@
         <v>4.199999999999998</v>
       </c>
       <c r="K58" t="n">
-        <v>14.28571428571436</v>
+        <v>0</v>
       </c>
       <c r="L58" t="n">
         <v>12.36999999999999</v>
@@ -3237,7 +3259,7 @@
         <v>4.399999999999997</v>
       </c>
       <c r="K59" t="n">
-        <v>20.00000000000005</v>
+        <v>25</v>
       </c>
       <c r="L59" t="n">
         <v>12.38999999999999</v>
@@ -3288,7 +3310,7 @@
         <v>4.599999999999996</v>
       </c>
       <c r="K60" t="n">
-        <v>5.882352941176556</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L60" t="n">
         <v>12.38999999999999</v>
@@ -3339,7 +3361,7 @@
         <v>4.599999999999996</v>
       </c>
       <c r="K61" t="n">
-        <v>5.882352941176556</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L61" t="n">
         <v>12.37999999999999</v>
@@ -3390,7 +3412,7 @@
         <v>4.599999999999996</v>
       </c>
       <c r="K62" t="n">
-        <v>12.50000000000007</v>
+        <v>-25</v>
       </c>
       <c r="L62" t="n">
         <v>12.36999999999999</v>
@@ -3441,7 +3463,7 @@
         <v>4.699999999999996</v>
       </c>
       <c r="K63" t="n">
-        <v>6.666666666666651</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>12.35999999999999</v>
@@ -3492,7 +3514,7 @@
         <v>4.899999999999997</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>-20.00000000000014</v>
       </c>
       <c r="L64" t="n">
         <v>12.33999999999999</v>
@@ -3543,7 +3565,7 @@
         <v>4.999999999999998</v>
       </c>
       <c r="K65" t="n">
-        <v>12.50000000000007</v>
+        <v>0</v>
       </c>
       <c r="L65" t="n">
         <v>12.32999999999999</v>
@@ -3594,7 +3616,7 @@
         <v>4.999999999999998</v>
       </c>
       <c r="K66" t="n">
-        <v>6.666666666666761</v>
+        <v>-11.11111111111107</v>
       </c>
       <c r="L66" t="n">
         <v>12.32999999999999</v>
@@ -3645,7 +3667,7 @@
         <v>4.999999999999998</v>
       </c>
       <c r="K67" t="n">
-        <v>6.666666666666761</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>12.31999999999999</v>
@@ -3696,7 +3718,7 @@
         <v>4.999999999999998</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-33.33333333333314</v>
       </c>
       <c r="L68" t="n">
         <v>12.31999999999999</v>
@@ -3849,7 +3871,7 @@
         <v>5.099999999999998</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>19.99999999999986</v>
       </c>
       <c r="L71" t="n">
         <v>12.30999999999999</v>
@@ -3951,7 +3973,7 @@
         <v>5.199999999999998</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="L73" t="n">
         <v>12.32999999999999</v>
@@ -4002,7 +4024,7 @@
         <v>5.299999999999997</v>
       </c>
       <c r="K74" t="n">
-        <v>14.28571428571425</v>
+        <v>100</v>
       </c>
       <c r="L74" t="n">
         <v>12.36999999999999</v>
@@ -4053,7 +4075,7 @@
         <v>5.399999999999997</v>
       </c>
       <c r="K75" t="n">
-        <v>6.666666666666651</v>
+        <v>50</v>
       </c>
       <c r="L75" t="n">
         <v>12.38999999999999</v>
@@ -4104,7 +4126,7 @@
         <v>5.399999999999997</v>
       </c>
       <c r="K76" t="n">
-        <v>14.28571428571425</v>
+        <v>50</v>
       </c>
       <c r="L76" t="n">
         <v>12.40999999999999</v>
@@ -4155,7 +4177,7 @@
         <v>5.499999999999996</v>
       </c>
       <c r="K77" t="n">
-        <v>14.28571428571425</v>
+        <v>60</v>
       </c>
       <c r="L77" t="n">
         <v>12.43999999999999</v>
@@ -4206,7 +4228,7 @@
         <v>5.599999999999996</v>
       </c>
       <c r="K78" t="n">
-        <v>14.28571428571425</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L78" t="n">
         <v>12.45999999999999</v>
@@ -4257,7 +4279,7 @@
         <v>5.599999999999996</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L79" t="n">
         <v>12.47999999999999</v>
@@ -4308,7 +4330,7 @@
         <v>5.599999999999996</v>
       </c>
       <c r="K80" t="n">
-        <v>19.99999999999993</v>
+        <v>20</v>
       </c>
       <c r="L80" t="n">
         <v>12.49999999999998</v>
@@ -4359,7 +4381,7 @@
         <v>5.599999999999996</v>
       </c>
       <c r="K81" t="n">
-        <v>19.99999999999993</v>
+        <v>20</v>
       </c>
       <c r="L81" t="n">
         <v>12.50999999999998</v>
@@ -4410,7 +4432,7 @@
         <v>5.599999999999996</v>
       </c>
       <c r="K82" t="n">
-        <v>19.99999999999993</v>
+        <v>0</v>
       </c>
       <c r="L82" t="n">
         <v>12.51999999999998</v>
@@ -4461,7 +4483,7 @@
         <v>5.599999999999996</v>
       </c>
       <c r="K83" t="n">
-        <v>11.11111111111107</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L83" t="n">
         <v>12.51999999999998</v>
@@ -4512,7 +4534,7 @@
         <v>5.599999999999996</v>
       </c>
       <c r="K84" t="n">
-        <v>42.857142857143</v>
+        <v>0</v>
       </c>
       <c r="L84" t="n">
         <v>12.50999999999998</v>
@@ -4563,7 +4585,7 @@
         <v>5.599999999999996</v>
       </c>
       <c r="K85" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L85" t="n">
         <v>12.50999999999998</v>
@@ -4614,7 +4636,7 @@
         <v>5.599999999999996</v>
       </c>
       <c r="K86" t="n">
-        <v>33.33333333333333</v>
+        <v>-100</v>
       </c>
       <c r="L86" t="n">
         <v>12.50999999999998</v>
@@ -4665,7 +4687,7 @@
         <v>5.699999999999996</v>
       </c>
       <c r="K87" t="n">
-        <v>14.28571428571428</v>
+        <v>-100</v>
       </c>
       <c r="L87" t="n">
         <v>12.48999999999998</v>
@@ -4716,7 +4738,7 @@
         <v>5.799999999999995</v>
       </c>
       <c r="K88" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L88" t="n">
         <v>12.48999999999998</v>
@@ -4767,7 +4789,7 @@
         <v>5.799999999999995</v>
       </c>
       <c r="K89" t="n">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L89" t="n">
         <v>12.48999999999998</v>
@@ -4869,7 +4891,7 @@
         <v>5.999999999999995</v>
       </c>
       <c r="K91" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L91" t="n">
         <v>12.49999999999998</v>
@@ -4920,7 +4942,7 @@
         <v>5.999999999999995</v>
       </c>
       <c r="K92" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L92" t="n">
         <v>12.49999999999998</v>
@@ -5022,7 +5044,7 @@
         <v>6.099999999999994</v>
       </c>
       <c r="K94" t="n">
-        <v>-25</v>
+        <v>-20</v>
       </c>
       <c r="L94" t="n">
         <v>12.48999999999998</v>
@@ -5073,7 +5095,7 @@
         <v>6.299999999999994</v>
       </c>
       <c r="K95" t="n">
-        <v>11.11111111111111</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L95" t="n">
         <v>12.49999999999998</v>
@@ -5124,7 +5146,7 @@
         <v>6.299999999999994</v>
       </c>
       <c r="K96" t="n">
-        <v>11.11111111111111</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L96" t="n">
         <v>12.50999999999998</v>
@@ -5175,7 +5197,7 @@
         <v>6.299999999999994</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L97" t="n">
         <v>12.52999999999998</v>
@@ -5277,7 +5299,7 @@
         <v>6.399999999999993</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>-20</v>
       </c>
       <c r="L99" t="n">
         <v>12.52999999999998</v>
@@ -5481,7 +5503,7 @@
         <v>6.399999999999993</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L103" t="n">
         <v>12.51999999999998</v>
@@ -5532,7 +5554,7 @@
         <v>6.499999999999993</v>
       </c>
       <c r="K104" t="n">
-        <v>-11.11111111111111</v>
+        <v>-100</v>
       </c>
       <c r="L104" t="n">
         <v>12.51999999999998</v>
@@ -5583,7 +5605,7 @@
         <v>6.599999999999993</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L105" t="n">
         <v>12.50999999999998</v>
@@ -5634,7 +5656,7 @@
         <v>6.599999999999993</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L106" t="n">
         <v>12.49999999999998</v>
@@ -5685,7 +5707,7 @@
         <v>6.699999999999992</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L107" t="n">
         <v>12.47999999999998</v>
@@ -5838,7 +5860,7 @@
         <v>6.799999999999992</v>
       </c>
       <c r="K110" t="n">
-        <v>-11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L110" t="n">
         <v>12.47999999999998</v>
@@ -5940,7 +5962,7 @@
         <v>6.899999999999991</v>
       </c>
       <c r="K112" t="n">
-        <v>-11.11111111111111</v>
+        <v>-20</v>
       </c>
       <c r="L112" t="n">
         <v>12.46999999999998</v>
@@ -5991,7 +6013,7 @@
         <v>6.999999999999991</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L113" t="n">
         <v>12.46999999999998</v>
@@ -6042,7 +6064,7 @@
         <v>6.999999999999991</v>
       </c>
       <c r="K114" t="n">
-        <v>11.11111111111111</v>
+        <v>0</v>
       </c>
       <c r="L114" t="n">
         <v>12.47999999999998</v>
@@ -6093,7 +6115,7 @@
         <v>6.999999999999991</v>
       </c>
       <c r="K115" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L115" t="n">
         <v>12.47999999999998</v>
@@ -6144,7 +6166,7 @@
         <v>7.099999999999991</v>
       </c>
       <c r="K116" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L116" t="n">
         <v>12.46999999999998</v>
@@ -6195,7 +6217,7 @@
         <v>7.099999999999991</v>
       </c>
       <c r="K117" t="n">
-        <v>-25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L117" t="n">
         <v>12.46999999999998</v>
@@ -6246,7 +6268,7 @@
         <v>7.099999999999991</v>
       </c>
       <c r="K118" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L118" t="n">
         <v>12.45999999999998</v>
@@ -6297,7 +6319,7 @@
         <v>7.099999999999991</v>
       </c>
       <c r="K119" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L119" t="n">
         <v>12.44999999999999</v>
@@ -6348,7 +6370,7 @@
         <v>7.099999999999991</v>
       </c>
       <c r="K120" t="n">
-        <v>-14.28571428571428</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L120" t="n">
         <v>12.43999999999999</v>
@@ -6399,7 +6421,7 @@
         <v>7.099999999999991</v>
       </c>
       <c r="K121" t="n">
-        <v>-14.28571428571428</v>
+        <v>0</v>
       </c>
       <c r="L121" t="n">
         <v>12.42999999999999</v>
@@ -6450,7 +6472,7 @@
         <v>7.19999999999999</v>
       </c>
       <c r="K122" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L122" t="n">
         <v>12.41999999999999</v>
@@ -6501,7 +6523,7 @@
         <v>7.19999999999999</v>
       </c>
       <c r="K123" t="n">
-        <v>-25</v>
+        <v>-100</v>
       </c>
       <c r="L123" t="n">
         <v>12.39999999999999</v>
@@ -6552,7 +6574,7 @@
         <v>7.299999999999992</v>
       </c>
       <c r="K124" t="n">
-        <v>-25.00000000000017</v>
+        <v>-100</v>
       </c>
       <c r="L124" t="n">
         <v>12.36999999999999</v>

--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S124"/>
+  <dimension ref="A1:M103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -481,19 +451,19 @@
         <v>11.89</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
-      </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K2" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -520,23 +490,23 @@
         <v>11.88666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -563,23 +533,23 @@
         <v>11.88333333333333</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+        <v>12</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -606,23 +576,19 @@
         <v>11.88</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K5" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -649,23 +615,23 @@
         <v>11.87666666666667</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K6" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -692,23 +658,23 @@
         <v>11.87166666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -735,23 +701,19 @@
         <v>11.87</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3999999999999986</v>
-      </c>
-      <c r="K8" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -778,23 +740,23 @@
         <v>11.87166666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
-        <v>0.1999999999999993</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.5999999999999979</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+        <v>12</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -821,23 +783,23 @@
         <v>11.87166666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
-        <v>0.09999999999999964</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6999999999999975</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+        <v>12</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -867,22 +829,12 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.6999999999999975</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -912,24 +864,12 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0.7999999999999972</v>
-      </c>
-      <c r="K12" t="n">
-        <v>25</v>
-      </c>
-      <c r="L12" t="n">
-        <v>11.96</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -959,24 +899,12 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.8999999999999968</v>
-      </c>
-      <c r="K13" t="n">
-        <v>25</v>
-      </c>
-      <c r="L13" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1006,24 +934,12 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.8999999999999968</v>
-      </c>
-      <c r="K14" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L14" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1053,24 +969,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0.9999999999999964</v>
-      </c>
-      <c r="K15" t="n">
-        <v>25</v>
-      </c>
-      <c r="L15" t="n">
-        <v>12.03</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,24 +1004,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1.099999999999996</v>
-      </c>
-      <c r="K16" t="n">
-        <v>50</v>
-      </c>
-      <c r="L16" t="n">
-        <v>12.05999999999999</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1147,24 +1039,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J17" t="n">
-        <v>1.099999999999996</v>
-      </c>
-      <c r="K17" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L17" t="n">
-        <v>12.09999999999999</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1194,24 +1074,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1.099999999999996</v>
-      </c>
-      <c r="K18" t="n">
-        <v>20</v>
-      </c>
-      <c r="L18" t="n">
-        <v>12.12999999999999</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1241,24 +1109,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J19" t="n">
-        <v>1.099999999999996</v>
-      </c>
-      <c r="K19" t="n">
-        <v>50</v>
-      </c>
-      <c r="L19" t="n">
-        <v>12.13999999999999</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,24 +1144,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1.099999999999996</v>
-      </c>
-      <c r="K20" t="n">
-        <v>50</v>
-      </c>
-      <c r="L20" t="n">
-        <v>12.15999999999999</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1335,26 +1179,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.099999999999996</v>
-      </c>
-      <c r="K21" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L21" t="n">
-        <v>12.17999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>12.06</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1384,26 +1214,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1.099999999999996</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>12.18999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>12.07499999999999</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1433,26 +1249,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J23" t="n">
-        <v>1.099999999999996</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>12.18999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>12.08999999999999</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1482,26 +1284,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1.099999999999996</v>
-      </c>
-      <c r="K24" t="n">
-        <v>100</v>
-      </c>
-      <c r="L24" t="n">
-        <v>12.18999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>12.09999999999999</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1531,26 +1319,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1.199999999999996</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L25" t="n">
-        <v>12.18999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>12.10999999999999</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1580,26 +1354,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.499999999999996</v>
-      </c>
-      <c r="K26" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L26" t="n">
-        <v>12.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>12.13499999999999</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1629,26 +1389,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L27" t="n">
-        <v>12.19999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>12.14999999999999</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1678,26 +1424,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.799999999999997</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-14.28571428571421</v>
-      </c>
-      <c r="L28" t="n">
-        <v>12.18999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>12.15999999999999</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1727,26 +1459,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J29" t="n">
-        <v>1.999999999999998</v>
-      </c>
-      <c r="K29" t="n">
-        <v>11.11111111111124</v>
-      </c>
-      <c r="L29" t="n">
-        <v>12.19999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>12.16999999999999</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1776,26 +1494,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J30" t="n">
-        <v>2.199999999999999</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-9.090909090909033</v>
-      </c>
-      <c r="L30" t="n">
-        <v>12.18999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>12.17499999999999</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1825,28 +1529,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J31" t="n">
-        <v>2.199999999999999</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-9.090909090909033</v>
-      </c>
-      <c r="L31" t="n">
-        <v>12.17999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>12.17999999999999</v>
-      </c>
-      <c r="N31" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1876,28 +1564,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J32" t="n">
-        <v>2.299999999999999</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>12.17999999999999</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>12.18499999999999</v>
-      </c>
-      <c r="N32" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1927,28 +1599,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J33" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-7.69230769230765</v>
-      </c>
-      <c r="L33" t="n">
-        <v>12.16999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>12.17999999999999</v>
-      </c>
-      <c r="N33" t="n">
-        <v>12.11666666666667</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1978,28 +1634,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J34" t="n">
-        <v>2.399999999999999</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>12.15999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>12.17499999999999</v>
-      </c>
-      <c r="N34" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2029,28 +1669,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J35" t="n">
-        <v>2.499999999999998</v>
-      </c>
-      <c r="K35" t="n">
-        <v>-39.99999999999996</v>
-      </c>
-      <c r="L35" t="n">
-        <v>12.14999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>12.16999999999999</v>
-      </c>
-      <c r="N35" t="n">
-        <v>12.12333333333334</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2080,28 +1704,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J36" t="n">
-        <v>2.599999999999998</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>12.11999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>12.16499999999999</v>
-      </c>
-      <c r="N36" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,28 +1739,12 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.09999999999999964</v>
-      </c>
-      <c r="J37" t="n">
-        <v>2.699999999999998</v>
-      </c>
-      <c r="K37" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L37" t="n">
-        <v>12.10999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>12.15499999999999</v>
-      </c>
-      <c r="N37" t="n">
-        <v>12.13666666666667</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2182,28 +1774,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J38" t="n">
-        <v>2.799999999999997</v>
-      </c>
-      <c r="K38" t="n">
-        <v>-25.00000000000017</v>
-      </c>
-      <c r="L38" t="n">
-        <v>12.10999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>12.14999999999999</v>
-      </c>
-      <c r="N38" t="n">
-        <v>12.14333333333334</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,28 +1809,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J39" t="n">
-        <v>2.899999999999997</v>
-      </c>
-      <c r="K39" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L39" t="n">
-        <v>12.09999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>12.14999999999999</v>
-      </c>
-      <c r="N39" t="n">
-        <v>12.14666666666667</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2284,28 +1844,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J40" t="n">
-        <v>2.899999999999997</v>
-      </c>
-      <c r="K40" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L40" t="n">
-        <v>12.10999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>12.14999999999999</v>
-      </c>
-      <c r="N40" t="n">
-        <v>12.15333333333334</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2335,28 +1879,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J41" t="n">
-        <v>2.899999999999997</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>12.11999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>12.14999999999999</v>
-      </c>
-      <c r="N41" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2386,28 +1914,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J42" t="n">
-        <v>2.999999999999996</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>12.10999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>12.14499999999999</v>
-      </c>
-      <c r="N42" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,28 +1949,12 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J43" t="n">
-        <v>3.199999999999998</v>
-      </c>
-      <c r="K43" t="n">
-        <v>25.00000000000017</v>
-      </c>
-      <c r="L43" t="n">
-        <v>12.12999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="N43" t="n">
-        <v>12.16333333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2488,28 +1984,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J44" t="n">
-        <v>3.299999999999999</v>
-      </c>
-      <c r="K44" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L44" t="n">
-        <v>12.13999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="N44" t="n">
-        <v>12.16333333333334</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2539,28 +2019,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.1999999999999993</v>
-      </c>
-      <c r="J45" t="n">
-        <v>3.399999999999999</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>12.14999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="N45" t="n">
-        <v>12.16333333333334</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2590,28 +2054,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J46" t="n">
-        <v>3.499999999999998</v>
-      </c>
-      <c r="K46" t="n">
-        <v>24.99999999999989</v>
-      </c>
-      <c r="L46" t="n">
-        <v>12.15999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>12.13999999999999</v>
-      </c>
-      <c r="N46" t="n">
-        <v>12.16333333333334</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2641,28 +2089,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J47" t="n">
-        <v>3.499999999999998</v>
-      </c>
-      <c r="K47" t="n">
-        <v>14.28571428571421</v>
-      </c>
-      <c r="L47" t="n">
-        <v>12.17999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>12.14499999999999</v>
-      </c>
-      <c r="N47" t="n">
-        <v>12.16333333333334</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2692,28 +2124,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K48" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L48" t="n">
-        <v>12.19999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>12.15499999999999</v>
-      </c>
-      <c r="N48" t="n">
-        <v>12.16666666666667</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2743,28 +2159,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J49" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K49" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L49" t="n">
-        <v>12.20999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>12.15499999999999</v>
-      </c>
-      <c r="N49" t="n">
-        <v>12.17000000000001</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2794,28 +2194,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J50" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="K50" t="n">
-        <v>14.28571428571443</v>
-      </c>
-      <c r="L50" t="n">
-        <v>12.21999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>12.165</v>
-      </c>
-      <c r="N50" t="n">
-        <v>12.17333333333334</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2845,28 +2229,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J51" t="n">
-        <v>3.699999999999999</v>
-      </c>
-      <c r="K51" t="n">
-        <v>42.85714285714278</v>
-      </c>
-      <c r="L51" t="n">
-        <v>12.23999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="N51" t="n">
-        <v>12.18000000000001</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2896,28 +2264,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J52" t="n">
-        <v>3.699999999999999</v>
-      </c>
-      <c r="K52" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L52" t="n">
-        <v>12.26999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="N52" t="n">
-        <v>12.18666666666667</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2947,28 +2299,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J53" t="n">
-        <v>3.799999999999999</v>
-      </c>
-      <c r="K53" t="n">
-        <v>60.00000000000014</v>
-      </c>
-      <c r="L53" t="n">
-        <v>12.28999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>12.21</v>
-      </c>
-      <c r="N53" t="n">
-        <v>12.19666666666667</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2998,28 +2334,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J54" t="n">
-        <v>3.899999999999999</v>
-      </c>
-      <c r="K54" t="n">
-        <v>60.00000000000014</v>
-      </c>
-      <c r="L54" t="n">
-        <v>12.30999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>12.225</v>
-      </c>
-      <c r="N54" t="n">
-        <v>12.20333333333334</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3049,28 +2369,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.899999999999999</v>
-      </c>
-      <c r="K55" t="n">
-        <v>50.00000000000022</v>
-      </c>
-      <c r="L55" t="n">
-        <v>12.33999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>12.245</v>
-      </c>
-      <c r="N55" t="n">
-        <v>12.21333333333334</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3100,28 +2404,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J56" t="n">
-        <v>3.999999999999998</v>
-      </c>
-      <c r="K56" t="n">
-        <v>20.00000000000028</v>
-      </c>
-      <c r="L56" t="n">
-        <v>12.34999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>12.255</v>
-      </c>
-      <c r="N56" t="n">
-        <v>12.21000000000001</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3151,28 +2439,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J57" t="n">
-        <v>4.099999999999998</v>
-      </c>
-      <c r="K57" t="n">
-        <v>20</v>
-      </c>
-      <c r="L57" t="n">
-        <v>12.36999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>12.275</v>
-      </c>
-      <c r="N57" t="n">
-        <v>12.22</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3202,28 +2474,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J58" t="n">
-        <v>4.199999999999998</v>
-      </c>
-      <c r="K58" t="n">
-        <v>0</v>
-      </c>
-      <c r="L58" t="n">
-        <v>12.36999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>12.285</v>
-      </c>
-      <c r="N58" t="n">
-        <v>12.22666666666667</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3253,28 +2509,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J59" t="n">
-        <v>4.399999999999997</v>
-      </c>
-      <c r="K59" t="n">
-        <v>25</v>
-      </c>
-      <c r="L59" t="n">
-        <v>12.38999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="N59" t="n">
-        <v>12.23333333333334</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,28 +2544,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J60" t="n">
-        <v>4.599999999999996</v>
-      </c>
-      <c r="K60" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L60" t="n">
-        <v>12.38999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>12.305</v>
-      </c>
-      <c r="N60" t="n">
-        <v>12.24</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3355,28 +2579,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J61" t="n">
-        <v>4.599999999999996</v>
-      </c>
-      <c r="K61" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L61" t="n">
-        <v>12.37999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>12.31000000000001</v>
-      </c>
-      <c r="N61" t="n">
-        <v>12.24666666666667</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3406,28 +2614,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J62" t="n">
-        <v>4.599999999999996</v>
-      </c>
-      <c r="K62" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L62" t="n">
-        <v>12.36999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>12.32000000000001</v>
-      </c>
-      <c r="N62" t="n">
-        <v>12.25</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,28 +2649,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J63" t="n">
-        <v>4.699999999999996</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>12.35999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>12.32500000000001</v>
-      </c>
-      <c r="N63" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3508,28 +2684,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J64" t="n">
-        <v>4.899999999999997</v>
-      </c>
-      <c r="K64" t="n">
-        <v>-20.00000000000014</v>
-      </c>
-      <c r="L64" t="n">
-        <v>12.33999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>12.32500000000001</v>
-      </c>
-      <c r="N64" t="n">
-        <v>12.26333333333333</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3559,28 +2719,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J65" t="n">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="K65" t="n">
-        <v>0</v>
-      </c>
-      <c r="L65" t="n">
-        <v>12.32999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>12.33500000000001</v>
-      </c>
-      <c r="N65" t="n">
-        <v>12.27333333333334</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3610,28 +2754,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J66" t="n">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="K66" t="n">
-        <v>-11.11111111111107</v>
-      </c>
-      <c r="L66" t="n">
-        <v>12.32999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>12.34000000000001</v>
-      </c>
-      <c r="N66" t="n">
-        <v>12.28</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3661,28 +2789,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J67" t="n">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>12.31999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>12.34500000000001</v>
-      </c>
-      <c r="N67" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3712,28 +2824,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J68" t="n">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="K68" t="n">
-        <v>-33.33333333333314</v>
-      </c>
-      <c r="L68" t="n">
-        <v>12.31999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>12.34500000000001</v>
-      </c>
-      <c r="N68" t="n">
-        <v>12.29666666666667</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3763,28 +2859,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J69" t="n">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="K69" t="n">
-        <v>0</v>
-      </c>
-      <c r="L69" t="n">
-        <v>12.29999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>12.34500000000001</v>
-      </c>
-      <c r="N69" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3814,28 +2894,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J70" t="n">
-        <v>4.999999999999998</v>
-      </c>
-      <c r="K70" t="n">
-        <v>0</v>
-      </c>
-      <c r="L70" t="n">
-        <v>12.29999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>12.34500000000001</v>
-      </c>
-      <c r="N70" t="n">
-        <v>12.30333333333334</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3865,28 +2929,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J71" t="n">
-        <v>5.099999999999998</v>
-      </c>
-      <c r="K71" t="n">
-        <v>19.99999999999986</v>
-      </c>
-      <c r="L71" t="n">
-        <v>12.30999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>12.34500000000001</v>
-      </c>
-      <c r="N71" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3916,28 +2964,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J72" t="n">
-        <v>5.099999999999998</v>
-      </c>
-      <c r="K72" t="n">
-        <v>0</v>
-      </c>
-      <c r="L72" t="n">
-        <v>12.31999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>12.34500000000001</v>
-      </c>
-      <c r="N72" t="n">
-        <v>12.32</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3967,28 +2999,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J73" t="n">
-        <v>5.199999999999998</v>
-      </c>
-      <c r="K73" t="n">
-        <v>100</v>
-      </c>
-      <c r="L73" t="n">
-        <v>12.32999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>12.345</v>
-      </c>
-      <c r="N73" t="n">
-        <v>12.32666666666667</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,28 +3034,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J74" t="n">
-        <v>5.299999999999997</v>
-      </c>
-      <c r="K74" t="n">
-        <v>100</v>
-      </c>
-      <c r="L74" t="n">
-        <v>12.36999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>12.35500000000001</v>
-      </c>
-      <c r="N74" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4069,28 +3069,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J75" t="n">
-        <v>5.399999999999997</v>
-      </c>
-      <c r="K75" t="n">
-        <v>50</v>
-      </c>
-      <c r="L75" t="n">
-        <v>12.38999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>12.36000000000001</v>
-      </c>
-      <c r="N75" t="n">
-        <v>12.35333333333333</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4120,28 +3104,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J76" t="n">
-        <v>5.399999999999997</v>
-      </c>
-      <c r="K76" t="n">
-        <v>50</v>
-      </c>
-      <c r="L76" t="n">
-        <v>12.40999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>12.37000000000001</v>
-      </c>
-      <c r="N76" t="n">
-        <v>12.36333333333334</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,28 +3139,12 @@
         <v>0</v>
       </c>
       <c r="I77" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J77" t="n">
-        <v>5.499999999999996</v>
-      </c>
-      <c r="K77" t="n">
-        <v>60</v>
-      </c>
-      <c r="L77" t="n">
-        <v>12.43999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>12.38000000000001</v>
-      </c>
-      <c r="N77" t="n">
-        <v>12.37666666666667</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4222,28 +3174,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J78" t="n">
-        <v>5.599999999999996</v>
-      </c>
-      <c r="K78" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L78" t="n">
-        <v>12.45999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>12.39000000000001</v>
-      </c>
-      <c r="N78" t="n">
-        <v>12.38333333333333</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4273,28 +3209,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J79" t="n">
-        <v>5.599999999999996</v>
-      </c>
-      <c r="K79" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L79" t="n">
-        <v>12.47999999999999</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>12.39000000000001</v>
-      </c>
-      <c r="N79" t="n">
-        <v>12.39</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4324,28 +3244,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J80" t="n">
-        <v>5.599999999999996</v>
-      </c>
-      <c r="K80" t="n">
-        <v>20</v>
-      </c>
-      <c r="L80" t="n">
-        <v>12.49999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>12.40000000000001</v>
-      </c>
-      <c r="N80" t="n">
-        <v>12.39666666666667</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4375,28 +3279,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J81" t="n">
-        <v>5.599999999999996</v>
-      </c>
-      <c r="K81" t="n">
-        <v>20</v>
-      </c>
-      <c r="L81" t="n">
-        <v>12.50999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>12.41000000000001</v>
-      </c>
-      <c r="N81" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4426,28 +3314,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J82" t="n">
-        <v>5.599999999999996</v>
-      </c>
-      <c r="K82" t="n">
-        <v>0</v>
-      </c>
-      <c r="L82" t="n">
-        <v>12.51999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>12.42000000000001</v>
-      </c>
-      <c r="N82" t="n">
-        <v>12.40333333333334</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4477,28 +3349,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J83" t="n">
-        <v>5.599999999999996</v>
-      </c>
-      <c r="K83" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L83" t="n">
-        <v>12.51999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>12.425</v>
-      </c>
-      <c r="N83" t="n">
-        <v>12.40333333333334</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4528,28 +3384,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J84" t="n">
-        <v>5.599999999999996</v>
-      </c>
-      <c r="K84" t="n">
-        <v>0</v>
-      </c>
-      <c r="L84" t="n">
-        <v>12.50999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>12.44000000000001</v>
-      </c>
-      <c r="N84" t="n">
-        <v>12.40666666666667</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4579,28 +3419,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J85" t="n">
-        <v>5.599999999999996</v>
-      </c>
-      <c r="K85" t="n">
-        <v>0</v>
-      </c>
-      <c r="L85" t="n">
-        <v>12.50999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>12.45000000000001</v>
-      </c>
-      <c r="N85" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4630,28 +3454,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J86" t="n">
-        <v>5.599999999999996</v>
-      </c>
-      <c r="K86" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L86" t="n">
-        <v>12.50999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="N86" t="n">
-        <v>12.41666666666667</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4681,28 +3489,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J87" t="n">
-        <v>5.699999999999996</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L87" t="n">
-        <v>12.48999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>12.465</v>
-      </c>
-      <c r="N87" t="n">
-        <v>12.41666666666667</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,28 +3524,12 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J88" t="n">
-        <v>5.799999999999995</v>
-      </c>
-      <c r="K88" t="n">
-        <v>0</v>
-      </c>
-      <c r="L88" t="n">
-        <v>12.48999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>12.475</v>
-      </c>
-      <c r="N88" t="n">
-        <v>12.42333333333334</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4783,28 +3559,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J89" t="n">
-        <v>5.799999999999995</v>
-      </c>
-      <c r="K89" t="n">
-        <v>0</v>
-      </c>
-      <c r="L89" t="n">
-        <v>12.48999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>12.485</v>
-      </c>
-      <c r="N89" t="n">
-        <v>12.42333333333334</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4834,28 +3594,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J90" t="n">
-        <v>5.899999999999995</v>
-      </c>
-      <c r="K90" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L90" t="n">
-        <v>12.49999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N90" t="n">
-        <v>12.43333333333334</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4885,28 +3629,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J91" t="n">
-        <v>5.999999999999995</v>
-      </c>
-      <c r="K91" t="n">
-        <v>0</v>
-      </c>
-      <c r="L91" t="n">
-        <v>12.49999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>12.505</v>
-      </c>
-      <c r="N91" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,28 +3664,12 @@
         <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J92" t="n">
-        <v>5.999999999999995</v>
-      </c>
-      <c r="K92" t="n">
-        <v>0</v>
-      </c>
-      <c r="L92" t="n">
-        <v>12.49999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="N92" t="n">
-        <v>12.44666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4987,28 +3699,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J93" t="n">
-        <v>5.999999999999995</v>
-      </c>
-      <c r="K93" t="n">
-        <v>0</v>
-      </c>
-      <c r="L93" t="n">
-        <v>12.49999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="N93" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5038,28 +3734,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>6.099999999999994</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L94" t="n">
-        <v>12.48999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N94" t="n">
-        <v>12.45666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5089,28 +3769,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J95" t="n">
-        <v>6.299999999999994</v>
-      </c>
-      <c r="K95" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L95" t="n">
-        <v>12.49999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>12.505</v>
-      </c>
-      <c r="N95" t="n">
-        <v>12.46666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5140,28 +3804,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J96" t="n">
-        <v>6.299999999999994</v>
-      </c>
-      <c r="K96" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L96" t="n">
-        <v>12.50999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="N96" t="n">
-        <v>12.47666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5191,28 +3839,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>0.6999999999999993</v>
-      </c>
-      <c r="J97" t="n">
-        <v>6.299999999999994</v>
-      </c>
-      <c r="K97" t="n">
-        <v>20</v>
-      </c>
-      <c r="L97" t="n">
-        <v>12.52999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="N97" t="n">
-        <v>12.48666666666667</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5242,28 +3874,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J98" t="n">
-        <v>6.399999999999993</v>
-      </c>
-      <c r="K98" t="n">
-        <v>0</v>
-      </c>
-      <c r="L98" t="n">
-        <v>12.52999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="N98" t="n">
-        <v>12.49333333333334</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,28 +3909,12 @@
         <v>0</v>
       </c>
       <c r="I99" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J99" t="n">
-        <v>6.399999999999993</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L99" t="n">
-        <v>12.52999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="N99" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5344,28 +3944,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J100" t="n">
-        <v>6.399999999999993</v>
-      </c>
-      <c r="K100" t="n">
-        <v>0</v>
-      </c>
-      <c r="L100" t="n">
-        <v>12.51999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="N100" t="n">
-        <v>12.50666666666667</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5395,28 +3979,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J101" t="n">
-        <v>6.399999999999993</v>
-      </c>
-      <c r="K101" t="n">
-        <v>0</v>
-      </c>
-      <c r="L101" t="n">
-        <v>12.51999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="N101" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5446,28 +4014,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J102" t="n">
-        <v>6.399999999999993</v>
-      </c>
-      <c r="K102" t="n">
-        <v>0</v>
-      </c>
-      <c r="L102" t="n">
-        <v>12.51999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="N102" t="n">
-        <v>12.51333333333334</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5497,1099 +4049,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J103" t="n">
-        <v>6.399999999999993</v>
-      </c>
-      <c r="K103" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L103" t="n">
-        <v>12.51999999999998</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="N103" t="n">
-        <v>12.51333333333334</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C104" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D104" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E104" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F104" t="n">
-        <v>10</v>
-      </c>
-      <c r="G104" t="n">
-        <v>12.42333333333334</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>6.499999999999993</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L104" t="n">
-        <v>12.51999999999998</v>
-      </c>
-      <c r="M104" t="n">
-        <v>12.505</v>
-      </c>
-      <c r="N104" t="n">
-        <v>12.50666666666667</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E105" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F105" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G105" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J105" t="n">
-        <v>6.599999999999993</v>
-      </c>
-      <c r="K105" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L105" t="n">
-        <v>12.50999999999998</v>
-      </c>
-      <c r="M105" t="n">
-        <v>12.505</v>
-      </c>
-      <c r="N105" t="n">
-        <v>12.50666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C106" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D106" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E106" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F106" t="n">
-        <v>4180</v>
-      </c>
-      <c r="G106" t="n">
-        <v>12.435</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J106" t="n">
-        <v>6.599999999999993</v>
-      </c>
-      <c r="K106" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L106" t="n">
-        <v>12.49999999999998</v>
-      </c>
-      <c r="M106" t="n">
-        <v>12.505</v>
-      </c>
-      <c r="N106" t="n">
-        <v>12.50666666666667</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C107" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D107" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E107" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F107" t="n">
-        <v>10</v>
-      </c>
-      <c r="G107" t="n">
-        <v>12.43833333333333</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J107" t="n">
-        <v>6.699999999999992</v>
-      </c>
-      <c r="K107" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L107" t="n">
-        <v>12.47999999999998</v>
-      </c>
-      <c r="M107" t="n">
-        <v>12.505</v>
-      </c>
-      <c r="N107" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F108" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G108" t="n">
-        <v>12.44166666666667</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J108" t="n">
-        <v>6.799999999999992</v>
-      </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>12.47999999999998</v>
-      </c>
-      <c r="M108" t="n">
-        <v>12.505</v>
-      </c>
-      <c r="N108" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="C109" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D109" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="E109" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F109" t="n">
-        <v>4270</v>
-      </c>
-      <c r="G109" t="n">
-        <v>12.445</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J109" t="n">
-        <v>6.799999999999992</v>
-      </c>
-      <c r="K109" t="n">
-        <v>0</v>
-      </c>
-      <c r="L109" t="n">
-        <v>12.47999999999998</v>
-      </c>
-      <c r="M109" t="n">
-        <v>12.505</v>
-      </c>
-      <c r="N109" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F110" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G110" t="n">
-        <v>12.44833333333334</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J110" t="n">
-        <v>6.799999999999992</v>
-      </c>
-      <c r="K110" t="n">
-        <v>0</v>
-      </c>
-      <c r="L110" t="n">
-        <v>12.47999999999998</v>
-      </c>
-      <c r="M110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N110" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F111" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G111" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J111" t="n">
-        <v>6.799999999999992</v>
-      </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>12.47999999999998</v>
-      </c>
-      <c r="M111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N111" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C112" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D112" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E112" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F112" t="n">
-        <v>20</v>
-      </c>
-      <c r="G112" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J112" t="n">
-        <v>6.899999999999991</v>
-      </c>
-      <c r="K112" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L112" t="n">
-        <v>12.46999999999998</v>
-      </c>
-      <c r="M112" t="n">
-        <v>12.495</v>
-      </c>
-      <c r="N112" t="n">
-        <v>12.49666666666667</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E113" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F113" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G113" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J113" t="n">
-        <v>6.999999999999991</v>
-      </c>
-      <c r="K113" t="n">
-        <v>20</v>
-      </c>
-      <c r="L113" t="n">
-        <v>12.46999999999998</v>
-      </c>
-      <c r="M113" t="n">
-        <v>12.495</v>
-      </c>
-      <c r="N113" t="n">
-        <v>12.49666666666667</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F114" t="n">
-        <v>4170</v>
-      </c>
-      <c r="G114" t="n">
-        <v>12.45166666666667</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J114" t="n">
-        <v>6.999999999999991</v>
-      </c>
-      <c r="K114" t="n">
-        <v>0</v>
-      </c>
-      <c r="L114" t="n">
-        <v>12.47999999999998</v>
-      </c>
-      <c r="M114" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="N114" t="n">
-        <v>12.49666666666667</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E115" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F115" t="n">
-        <v>12460</v>
-      </c>
-      <c r="G115" t="n">
-        <v>12.45333333333334</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0.5999999999999996</v>
-      </c>
-      <c r="J115" t="n">
-        <v>6.999999999999991</v>
-      </c>
-      <c r="K115" t="n">
-        <v>0</v>
-      </c>
-      <c r="L115" t="n">
-        <v>12.47999999999998</v>
-      </c>
-      <c r="M115" t="n">
-        <v>12.495</v>
-      </c>
-      <c r="N115" t="n">
-        <v>12.49666666666667</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C116" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D116" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E116" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F116" t="n">
-        <v>10</v>
-      </c>
-      <c r="G116" t="n">
-        <v>12.45500000000001</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J116" t="n">
-        <v>7.099999999999991</v>
-      </c>
-      <c r="K116" t="n">
-        <v>0</v>
-      </c>
-      <c r="L116" t="n">
-        <v>12.46999999999998</v>
-      </c>
-      <c r="M116" t="n">
-        <v>12.485</v>
-      </c>
-      <c r="N116" t="n">
-        <v>12.49333333333333</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C117" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D117" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E117" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F117" t="n">
-        <v>2995.9406</v>
-      </c>
-      <c r="G117" t="n">
-        <v>12.45500000000001</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J117" t="n">
-        <v>7.099999999999991</v>
-      </c>
-      <c r="K117" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L117" t="n">
-        <v>12.46999999999998</v>
-      </c>
-      <c r="M117" t="n">
-        <v>12.475</v>
-      </c>
-      <c r="N117" t="n">
-        <v>12.49333333333333</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C118" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D118" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E118" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F118" t="n">
-        <v>50000</v>
-      </c>
-      <c r="G118" t="n">
-        <v>12.45666666666667</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J118" t="n">
-        <v>7.099999999999991</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L118" t="n">
-        <v>12.45999999999998</v>
-      </c>
-      <c r="M118" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="N118" t="n">
-        <v>12.49</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C119" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D119" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E119" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F119" t="n">
-        <v>10</v>
-      </c>
-      <c r="G119" t="n">
-        <v>12.45500000000001</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J119" t="n">
-        <v>7.099999999999991</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L119" t="n">
-        <v>12.44999999999999</v>
-      </c>
-      <c r="M119" t="n">
-        <v>12.465</v>
-      </c>
-      <c r="N119" t="n">
-        <v>12.48666666666667</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C120" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D120" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E120" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F120" t="n">
-        <v>1000</v>
-      </c>
-      <c r="G120" t="n">
-        <v>12.45666666666667</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J120" t="n">
-        <v>7.099999999999991</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L120" t="n">
-        <v>12.43999999999999</v>
-      </c>
-      <c r="M120" t="n">
-        <v>12.46</v>
-      </c>
-      <c r="N120" t="n">
-        <v>12.48</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="D121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E121" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="F121" t="n">
-        <v>558.6731</v>
-      </c>
-      <c r="G121" t="n">
-        <v>12.45833333333334</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>7.099999999999991</v>
-      </c>
-      <c r="K121" t="n">
-        <v>0</v>
-      </c>
-      <c r="L121" t="n">
-        <v>12.42999999999999</v>
-      </c>
-      <c r="M121" t="n">
-        <v>12.455</v>
-      </c>
-      <c r="N121" t="n">
-        <v>12.47666666666666</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C122" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D122" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E122" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F122" t="n">
-        <v>13763.9074</v>
-      </c>
-      <c r="G122" t="n">
-        <v>12.45833333333334</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J122" t="n">
-        <v>7.19999999999999</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L122" t="n">
-        <v>12.41999999999999</v>
-      </c>
-      <c r="M122" t="n">
-        <v>12.445</v>
-      </c>
-      <c r="N122" t="n">
-        <v>12.47</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C123" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="D123" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E123" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="F123" t="n">
-        <v>13000</v>
-      </c>
-      <c r="G123" t="n">
-        <v>12.45666666666667</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0.4000000000000004</v>
-      </c>
-      <c r="J123" t="n">
-        <v>7.19999999999999</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L123" t="n">
-        <v>12.39999999999999</v>
-      </c>
-      <c r="M123" t="n">
-        <v>12.435</v>
-      </c>
-      <c r="N123" t="n">
-        <v>12.46333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="C124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="D124" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E124" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="F124" t="n">
-        <v>224021</v>
-      </c>
-      <c r="G124" t="n">
-        <v>12.45666666666667</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0.2999999999999989</v>
-      </c>
-      <c r="J124" t="n">
-        <v>7.299999999999992</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-100</v>
-      </c>
-      <c r="L124" t="n">
-        <v>12.36999999999999</v>
-      </c>
-      <c r="M124" t="n">
-        <v>12.425</v>
-      </c>
-      <c r="N124" t="n">
-        <v>12.45666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -456,12 +456,8 @@
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K2" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,104 +486,96 @@
         <v>11.88666666666667</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>12</v>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12</v>
+      </c>
+      <c r="F4" t="n">
+        <v>12</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.88333333333333</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>11.9</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K4" t="n">
         <v>11.9</v>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="L4" t="inlineStr"/>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>12</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>12</v>
-      </c>
-      <c r="F4" t="n">
-        <v>12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11.88333333333333</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C5" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E5" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G5" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -658,22 +646,14 @@
         <v>11.87166666666667</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +681,13 @@
         <v>11.87</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K8" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +716,14 @@
         <v>11.87166666666667</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>12</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +751,14 @@
         <v>11.87166666666667</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>12</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -1284,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
@@ -1319,7 +1279,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
@@ -1459,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
@@ -1564,7 +1524,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
@@ -3556,13 +3516,17 @@
         <v>12.32833333333334</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K89" t="n">
+        <v>12.5</v>
+      </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3591,14 +3555,22 @@
         <v>12.33666666666667</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="K90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3626,14 +3598,22 @@
         <v>12.34333333333334</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="K91" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>

--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M103"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,25 +433,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F2" t="n">
-        <v>10</v>
+        <v>253.4166</v>
       </c>
       <c r="G2" t="n">
-        <v>11.89</v>
+        <v>11.89333333333334</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>11.9</v>
       </c>
       <c r="F3" t="n">
-        <v>37869.7999</v>
+        <v>10</v>
       </c>
       <c r="G3" t="n">
-        <v>11.88666666666667</v>
+        <v>11.89</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -503,35 +503,31 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D4" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E4" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F4" t="n">
-        <v>12</v>
+        <v>37869.7999</v>
       </c>
       <c r="G4" t="n">
-        <v>11.88333333333333</v>
+        <v>11.88666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.9</v>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
@@ -542,40 +538,32 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F5" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G5" t="n">
-        <v>11.88</v>
+        <v>11.88333333333333</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>12</v>
-      </c>
-      <c r="K5" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -597,28 +585,20 @@
         <v>11.9</v>
       </c>
       <c r="F6" t="n">
-        <v>68607.5107</v>
+        <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>11.87666666666667</v>
+        <v>11.88</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -628,22 +608,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C7" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D7" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E7" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F7" t="n">
-        <v>10</v>
+        <v>68607.5107</v>
       </c>
       <c r="G7" t="n">
-        <v>11.87166666666667</v>
+        <v>11.87666666666667</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -663,22 +643,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C8" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D8" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E8" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F8" t="n">
-        <v>165232.1497</v>
+        <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>11.87</v>
+        <v>11.87166666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -698,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D9" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E9" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F9" t="n">
-        <v>164695.2194</v>
+        <v>165232.1497</v>
       </c>
       <c r="G9" t="n">
-        <v>11.87166666666667</v>
+        <v>11.87</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -736,16 +716,16 @@
         <v>12</v>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D10" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E10" t="n">
         <v>12</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>164695.2194</v>
       </c>
       <c r="G10" t="n">
         <v>11.87166666666667</v>
@@ -780,10 +760,10 @@
         <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>8437.2474</v>
+        <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>11.87</v>
+        <v>11.87166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -803,22 +783,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>15127.2509</v>
+        <v>8437.2474</v>
       </c>
       <c r="G12" t="n">
-        <v>11.87166666666667</v>
+        <v>11.87</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -838,22 +818,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E13" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F13" t="n">
-        <v>225953.1906</v>
+        <v>15127.2509</v>
       </c>
       <c r="G13" t="n">
-        <v>11.875</v>
+        <v>11.87166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -885,10 +865,10 @@
         <v>12.2</v>
       </c>
       <c r="F14" t="n">
-        <v>1421.5574</v>
+        <v>225953.1906</v>
       </c>
       <c r="G14" t="n">
-        <v>11.88</v>
+        <v>11.875</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -908,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E15" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F15" t="n">
-        <v>35583.8808</v>
+        <v>1421.5574</v>
       </c>
       <c r="G15" t="n">
-        <v>11.88333333333333</v>
+        <v>11.88</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -943,22 +923,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C16" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D16" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E16" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F16" t="n">
-        <v>40983.6065</v>
+        <v>35583.8808</v>
       </c>
       <c r="G16" t="n">
-        <v>11.88833333333334</v>
+        <v>11.88333333333333</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -990,10 +970,10 @@
         <v>12.2</v>
       </c>
       <c r="F17" t="n">
-        <v>7883.1252</v>
+        <v>40983.6065</v>
       </c>
       <c r="G17" t="n">
-        <v>11.89333333333334</v>
+        <v>11.88833333333334</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1025,10 +1005,10 @@
         <v>12.2</v>
       </c>
       <c r="F18" t="n">
-        <v>50</v>
+        <v>7883.1252</v>
       </c>
       <c r="G18" t="n">
-        <v>11.89833333333334</v>
+        <v>11.89333333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1048,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C19" t="n">
         <v>12.2</v>
       </c>
       <c r="D19" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E19" t="n">
         <v>12.2</v>
       </c>
       <c r="F19" t="n">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="G19" t="n">
-        <v>11.90500000000001</v>
+        <v>11.89833333333334</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1083,28 +1063,28 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C20" t="n">
         <v>12.2</v>
       </c>
       <c r="D20" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E20" t="n">
         <v>12.2</v>
       </c>
       <c r="F20" t="n">
-        <v>2600</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>11.91333333333334</v>
+        <v>11.90500000000001</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
@@ -1130,10 +1110,10 @@
         <v>12.2</v>
       </c>
       <c r="F21" t="n">
-        <v>10</v>
+        <v>2600</v>
       </c>
       <c r="G21" t="n">
-        <v>11.91833333333334</v>
+        <v>11.91333333333334</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1165,16 +1145,16 @@
         <v>12.2</v>
       </c>
       <c r="F22" t="n">
-        <v>3361.3444</v>
+        <v>10</v>
       </c>
       <c r="G22" t="n">
-        <v>11.92500000000001</v>
+        <v>11.91833333333334</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
@@ -1200,10 +1180,10 @@
         <v>12.2</v>
       </c>
       <c r="F23" t="n">
-        <v>10</v>
+        <v>3361.3444</v>
       </c>
       <c r="G23" t="n">
-        <v>11.92666666666668</v>
+        <v>11.92500000000001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1235,10 +1215,10 @@
         <v>12.2</v>
       </c>
       <c r="F24" t="n">
-        <v>30000</v>
+        <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>11.93166666666668</v>
+        <v>11.92666666666668</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1261,19 +1241,19 @@
         <v>12.2</v>
       </c>
       <c r="C25" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D25" t="n">
         <v>12.2</v>
       </c>
       <c r="E25" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F25" t="n">
-        <v>45995.1533</v>
+        <v>30000</v>
       </c>
       <c r="G25" t="n">
-        <v>11.93500000000001</v>
+        <v>11.93166666666668</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1293,22 +1273,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C26" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D26" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E26" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F26" t="n">
-        <v>241.9354</v>
+        <v>45995.1533</v>
       </c>
       <c r="G26" t="n">
-        <v>11.94333333333335</v>
+        <v>11.93500000000001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1328,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="C27" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="D27" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E27" t="n">
-        <v>12.1</v>
+        <v>12.4</v>
       </c>
       <c r="F27" t="n">
-        <v>20</v>
+        <v>241.9354</v>
       </c>
       <c r="G27" t="n">
-        <v>11.94666666666668</v>
+        <v>11.94333333333335</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1375,16 +1355,16 @@
         <v>12.1</v>
       </c>
       <c r="F28" t="n">
-        <v>174518.1842</v>
+        <v>20</v>
       </c>
       <c r="G28" t="n">
-        <v>11.95000000000001</v>
+        <v>11.94666666666668</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
@@ -1398,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C29" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D29" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E29" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F29" t="n">
-        <v>11</v>
+        <v>174518.1842</v>
       </c>
       <c r="G29" t="n">
-        <v>11.95666666666668</v>
+        <v>11.95000000000001</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1433,22 +1413,22 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="C30" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="D30" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="E30" t="n">
-        <v>12.1</v>
+        <v>12.3</v>
       </c>
       <c r="F30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G30" t="n">
-        <v>11.96000000000001</v>
+        <v>11.95666666666668</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1480,10 +1460,10 @@
         <v>12.1</v>
       </c>
       <c r="F31" t="n">
-        <v>40890.395</v>
+        <v>10</v>
       </c>
       <c r="G31" t="n">
-        <v>11.96500000000001</v>
+        <v>11.96000000000001</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1503,22 +1483,22 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C32" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D32" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E32" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F32" t="n">
-        <v>6147.6229</v>
+        <v>40890.395</v>
       </c>
       <c r="G32" t="n">
-        <v>11.97166666666668</v>
+        <v>11.96500000000001</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1538,22 +1518,22 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C33" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D33" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E33" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F33" t="n">
-        <v>91124.0831</v>
+        <v>6147.6229</v>
       </c>
       <c r="G33" t="n">
-        <v>11.97833333333335</v>
+        <v>11.97166666666668</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1585,10 +1565,10 @@
         <v>12.1</v>
       </c>
       <c r="F34" t="n">
-        <v>810</v>
+        <v>91124.0831</v>
       </c>
       <c r="G34" t="n">
-        <v>11.98166666666668</v>
+        <v>11.97833333333335</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -1608,22 +1588,22 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C35" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D35" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E35" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F35" t="n">
-        <v>10</v>
+        <v>810</v>
       </c>
       <c r="G35" t="n">
-        <v>11.98666666666668</v>
+        <v>11.98166666666668</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -1643,22 +1623,22 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E36" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F36" t="n">
-        <v>63891.157</v>
+        <v>10</v>
       </c>
       <c r="G36" t="n">
-        <v>11.99333333333335</v>
+        <v>11.98666666666668</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1678,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="C37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="D37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="E37" t="n">
-        <v>12</v>
+        <v>12.1</v>
       </c>
       <c r="F37" t="n">
-        <v>10</v>
+        <v>63891.157</v>
       </c>
       <c r="G37" t="n">
-        <v>11.99500000000002</v>
+        <v>11.99333333333335</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1713,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E38" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F38" t="n">
-        <v>2783.6387</v>
+        <v>10</v>
       </c>
       <c r="G38" t="n">
-        <v>12.00166666666668</v>
+        <v>11.99500000000002</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1748,22 +1728,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E39" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F39" t="n">
-        <v>118</v>
+        <v>2783.6387</v>
       </c>
       <c r="G39" t="n">
-        <v>12.00833333333335</v>
+        <v>12.00166666666668</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1795,19 +1775,23 @@
         <v>12.2</v>
       </c>
       <c r="F40" t="n">
-        <v>4658.5901</v>
+        <v>118</v>
       </c>
       <c r="G40" t="n">
-        <v>12.01500000000002</v>
+        <v>12.00833333333335</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K40" t="n">
+        <v>12.1</v>
+      </c>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
@@ -1830,10 +1814,10 @@
         <v>12.2</v>
       </c>
       <c r="F41" t="n">
-        <v>16393.4426</v>
+        <v>4658.5901</v>
       </c>
       <c r="G41" t="n">
-        <v>12.02333333333335</v>
+        <v>12.01500000000002</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1842,8 +1826,14 @@
         <v>0</v>
       </c>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1853,22 +1843,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C42" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D42" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E42" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F42" t="n">
-        <v>10</v>
+        <v>16393.4426</v>
       </c>
       <c r="G42" t="n">
-        <v>12.03000000000002</v>
+        <v>12.02333333333335</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1877,8 +1867,14 @@
         <v>0</v>
       </c>
       <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1888,22 +1884,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C43" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D43" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E43" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F43" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G43" t="n">
-        <v>12.03666666666668</v>
+        <v>12.03000000000002</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1923,22 +1919,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C44" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="D44" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="E44" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F44" t="n">
-        <v>29440.4918</v>
+        <v>11</v>
       </c>
       <c r="G44" t="n">
-        <v>12.04333333333335</v>
+        <v>12.03666666666668</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1958,22 +1954,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E45" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F45" t="n">
-        <v>10</v>
+        <v>29440.4918</v>
       </c>
       <c r="G45" t="n">
-        <v>12.05000000000002</v>
+        <v>12.04333333333335</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1993,31 +1989,35 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C46" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D46" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E46" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F46" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>12.05500000000002</v>
+        <v>12.05000000000002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="K46" t="n">
+        <v>12.2</v>
+      </c>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
@@ -2040,20 +2040,28 @@
         <v>12.2</v>
       </c>
       <c r="F47" t="n">
-        <v>49175.4019</v>
+        <v>11</v>
       </c>
       <c r="G47" t="n">
-        <v>12.06166666666669</v>
+        <v>12.05500000000002</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K47" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2063,22 +2071,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C48" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D48" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E48" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F48" t="n">
-        <v>3889.2804</v>
+        <v>49175.4019</v>
       </c>
       <c r="G48" t="n">
-        <v>12.06833333333335</v>
+        <v>12.06166666666669</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2087,8 +2095,14 @@
         <v>0</v>
       </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2110,10 +2124,10 @@
         <v>12.3</v>
       </c>
       <c r="F49" t="n">
-        <v>23626.275</v>
+        <v>3889.2804</v>
       </c>
       <c r="G49" t="n">
-        <v>12.07500000000002</v>
+        <v>12.06833333333335</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2139,16 +2153,16 @@
         <v>12.3</v>
       </c>
       <c r="D50" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E50" t="n">
         <v>12.3</v>
       </c>
       <c r="F50" t="n">
-        <v>121224.7617</v>
+        <v>23626.275</v>
       </c>
       <c r="G50" t="n">
-        <v>12.08333333333335</v>
+        <v>12.07500000000002</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2168,22 +2182,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C51" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D51" t="n">
         <v>12.4</v>
       </c>
       <c r="E51" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F51" t="n">
-        <v>8064.516</v>
+        <v>121224.7617</v>
       </c>
       <c r="G51" t="n">
-        <v>12.09166666666669</v>
+        <v>12.08333333333335</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2215,10 +2229,10 @@
         <v>12.4</v>
       </c>
       <c r="F52" t="n">
-        <v>102419.3549</v>
+        <v>8064.516</v>
       </c>
       <c r="G52" t="n">
-        <v>12.10166666666669</v>
+        <v>12.09166666666669</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2238,22 +2252,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E53" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F53" t="n">
-        <v>4400</v>
+        <v>102419.3549</v>
       </c>
       <c r="G53" t="n">
-        <v>12.11000000000002</v>
+        <v>12.10166666666669</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2273,22 +2287,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C54" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D54" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E54" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F54" t="n">
-        <v>6290.3225</v>
+        <v>4400</v>
       </c>
       <c r="G54" t="n">
-        <v>12.12000000000002</v>
+        <v>12.11000000000002</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2320,10 +2334,10 @@
         <v>12.4</v>
       </c>
       <c r="F55" t="n">
-        <v>14395.1806</v>
+        <v>6290.3225</v>
       </c>
       <c r="G55" t="n">
-        <v>12.12833333333336</v>
+        <v>12.12000000000002</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2343,22 +2357,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C56" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D56" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E56" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F56" t="n">
-        <v>10</v>
+        <v>14395.1806</v>
       </c>
       <c r="G56" t="n">
-        <v>12.13333333333335</v>
+        <v>12.12833333333336</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2378,22 +2392,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C57" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D57" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E57" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F57" t="n">
-        <v>16129.0321</v>
+        <v>10</v>
       </c>
       <c r="G57" t="n">
-        <v>12.14000000000002</v>
+        <v>12.13333333333335</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2413,22 +2427,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="C58" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="D58" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="E58" t="n">
-        <v>12.3</v>
+        <v>12.4</v>
       </c>
       <c r="F58" t="n">
-        <v>10</v>
+        <v>16129.0321</v>
       </c>
       <c r="G58" t="n">
-        <v>12.14833333333335</v>
+        <v>12.14000000000002</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2448,22 +2462,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C59" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D59" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E59" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F59" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G59" t="n">
-        <v>12.16000000000002</v>
+        <v>12.14833333333335</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2483,22 +2497,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="C60" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="D60" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="E60" t="n">
-        <v>12.3</v>
+        <v>12.5</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="G60" t="n">
-        <v>12.16833333333335</v>
+        <v>12.16000000000002</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2530,10 +2544,10 @@
         <v>12.3</v>
       </c>
       <c r="F61" t="n">
-        <v>316301.1625</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>12.17333333333335</v>
+        <v>12.16833333333335</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2565,10 +2579,10 @@
         <v>12.3</v>
       </c>
       <c r="F62" t="n">
-        <v>800.0232</v>
+        <v>316301.1625</v>
       </c>
       <c r="G62" t="n">
-        <v>12.18000000000002</v>
+        <v>12.17333333333335</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2591,19 +2605,19 @@
         <v>12.3</v>
       </c>
       <c r="C63" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D63" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E63" t="n">
         <v>12.3</v>
       </c>
       <c r="F63" t="n">
-        <v>152904.5253</v>
+        <v>800.0232</v>
       </c>
       <c r="G63" t="n">
-        <v>12.18833333333335</v>
+        <v>12.18000000000002</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2623,22 +2637,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="C64" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="D64" t="n">
-        <v>12.2</v>
+        <v>12.4</v>
       </c>
       <c r="E64" t="n">
-        <v>12.2</v>
+        <v>12.3</v>
       </c>
       <c r="F64" t="n">
-        <v>4370</v>
+        <v>152904.5253</v>
       </c>
       <c r="G64" t="n">
-        <v>12.19166666666669</v>
+        <v>12.18833333333335</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2658,22 +2672,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C65" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D65" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E65" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F65" t="n">
-        <v>40650.40650406504</v>
+        <v>4370</v>
       </c>
       <c r="G65" t="n">
-        <v>12.19833333333335</v>
+        <v>12.19166666666669</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2705,10 +2719,10 @@
         <v>12.3</v>
       </c>
       <c r="F66" t="n">
-        <v>242229.8577</v>
+        <v>40650.40650406504</v>
       </c>
       <c r="G66" t="n">
-        <v>12.20500000000002</v>
+        <v>12.19833333333335</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2740,10 +2754,10 @@
         <v>12.3</v>
       </c>
       <c r="F67" t="n">
-        <v>17600</v>
+        <v>242229.8577</v>
       </c>
       <c r="G67" t="n">
-        <v>12.21333333333335</v>
+        <v>12.20500000000002</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2775,10 +2789,10 @@
         <v>12.3</v>
       </c>
       <c r="F68" t="n">
-        <v>8180.0813</v>
+        <v>17600</v>
       </c>
       <c r="G68" t="n">
-        <v>12.22000000000002</v>
+        <v>12.21333333333335</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2810,10 +2824,10 @@
         <v>12.3</v>
       </c>
       <c r="F69" t="n">
-        <v>10500</v>
+        <v>8180.0813</v>
       </c>
       <c r="G69" t="n">
-        <v>12.22333333333335</v>
+        <v>12.22000000000002</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2845,10 +2859,10 @@
         <v>12.3</v>
       </c>
       <c r="F70" t="n">
-        <v>609.5934</v>
+        <v>10500</v>
       </c>
       <c r="G70" t="n">
-        <v>12.22833333333335</v>
+        <v>12.22333333333335</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2871,19 +2885,19 @@
         <v>12.3</v>
       </c>
       <c r="C71" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D71" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E71" t="n">
         <v>12.3</v>
       </c>
       <c r="F71" t="n">
-        <v>771172.48</v>
+        <v>609.5934</v>
       </c>
       <c r="G71" t="n">
-        <v>12.23500000000002</v>
+        <v>12.22833333333335</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2903,7 +2917,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C72" t="n">
         <v>12.4</v>
@@ -2912,13 +2926,13 @@
         <v>12.4</v>
       </c>
       <c r="E72" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F72" t="n">
-        <v>4400</v>
+        <v>771172.48</v>
       </c>
       <c r="G72" t="n">
-        <v>12.24000000000002</v>
+        <v>12.23500000000002</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2938,22 +2952,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C73" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D73" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E73" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F73" t="n">
-        <v>188919.5574</v>
+        <v>4400</v>
       </c>
       <c r="G73" t="n">
-        <v>12.24500000000002</v>
+        <v>12.24000000000002</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2973,22 +2987,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C74" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D74" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E74" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F74" t="n">
-        <v>73849.8412</v>
+        <v>188919.5574</v>
       </c>
       <c r="G74" t="n">
-        <v>12.25166666666668</v>
+        <v>12.24500000000002</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3008,22 +3022,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C75" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D75" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E75" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>73849.8412</v>
       </c>
       <c r="G75" t="n">
-        <v>12.25833333333335</v>
+        <v>12.25166666666668</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3055,10 +3069,10 @@
         <v>12.5</v>
       </c>
       <c r="F76" t="n">
-        <v>54414.189</v>
+        <v>10</v>
       </c>
       <c r="G76" t="n">
-        <v>12.26333333333335</v>
+        <v>12.25833333333335</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3078,22 +3092,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C77" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D77" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E77" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F77" t="n">
-        <v>40983.6064</v>
+        <v>54414.189</v>
       </c>
       <c r="G77" t="n">
-        <v>12.27000000000001</v>
+        <v>12.26333333333335</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3113,22 +3127,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C78" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D78" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E78" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F78" t="n">
-        <v>10</v>
+        <v>40983.6064</v>
       </c>
       <c r="G78" t="n">
-        <v>12.27500000000001</v>
+        <v>12.27000000000001</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3160,10 +3174,10 @@
         <v>12.5</v>
       </c>
       <c r="F79" t="n">
-        <v>5598.6407</v>
+        <v>10</v>
       </c>
       <c r="G79" t="n">
-        <v>12.28000000000001</v>
+        <v>12.27500000000001</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3195,10 +3209,10 @@
         <v>12.5</v>
       </c>
       <c r="F80" t="n">
-        <v>2459.336</v>
+        <v>5598.6407</v>
       </c>
       <c r="G80" t="n">
-        <v>12.28500000000001</v>
+        <v>12.28000000000001</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3230,10 +3244,10 @@
         <v>12.5</v>
       </c>
       <c r="F81" t="n">
-        <v>4215.9262</v>
+        <v>2459.336</v>
       </c>
       <c r="G81" t="n">
-        <v>12.29000000000001</v>
+        <v>12.28500000000001</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3265,10 +3279,10 @@
         <v>12.5</v>
       </c>
       <c r="F82" t="n">
-        <v>16220.1729</v>
+        <v>4215.9262</v>
       </c>
       <c r="G82" t="n">
-        <v>12.29500000000001</v>
+        <v>12.29000000000001</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3300,10 +3314,10 @@
         <v>12.5</v>
       </c>
       <c r="F83" t="n">
-        <v>6014.524</v>
+        <v>16220.1729</v>
       </c>
       <c r="G83" t="n">
-        <v>12.30000000000001</v>
+        <v>12.29500000000001</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3335,10 +3349,10 @@
         <v>12.5</v>
       </c>
       <c r="F84" t="n">
-        <v>2500</v>
+        <v>6014.524</v>
       </c>
       <c r="G84" t="n">
-        <v>12.30500000000001</v>
+        <v>12.30000000000001</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3370,10 +3384,10 @@
         <v>12.5</v>
       </c>
       <c r="F85" t="n">
-        <v>44332.7434</v>
+        <v>2500</v>
       </c>
       <c r="G85" t="n">
-        <v>12.31166666666667</v>
+        <v>12.30500000000001</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3405,10 +3419,10 @@
         <v>12.5</v>
       </c>
       <c r="F86" t="n">
-        <v>19989.0263</v>
+        <v>44332.7434</v>
       </c>
       <c r="G86" t="n">
-        <v>12.31333333333334</v>
+        <v>12.31166666666667</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3428,22 +3442,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C87" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D87" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E87" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F87" t="n">
-        <v>10</v>
+        <v>19989.0263</v>
       </c>
       <c r="G87" t="n">
-        <v>12.31833333333334</v>
+        <v>12.31333333333334</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3463,22 +3477,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E88" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F88" t="n">
-        <v>8790</v>
+        <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>12.32500000000001</v>
+        <v>12.31833333333334</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3510,23 +3524,19 @@
         <v>12.5</v>
       </c>
       <c r="F89" t="n">
-        <v>9717.7557</v>
+        <v>8790</v>
       </c>
       <c r="G89" t="n">
-        <v>12.32833333333334</v>
+        <v>12.32500000000001</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K89" t="n">
-        <v>12.5</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
@@ -3537,40 +3547,32 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C90" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="D90" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E90" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="F90" t="n">
-        <v>212.5444</v>
+        <v>9717.7557</v>
       </c>
       <c r="G90" t="n">
-        <v>12.33666666666667</v>
+        <v>12.32833333333334</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="K90" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3580,40 +3582,32 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C91" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D91" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E91" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F91" t="n">
-        <v>8330</v>
+        <v>212.5444</v>
       </c>
       <c r="G91" t="n">
-        <v>12.34333333333334</v>
+        <v>12.33666666666667</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="K91" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3638,7 +3632,7 @@
         <v>8330</v>
       </c>
       <c r="G92" t="n">
-        <v>12.34833333333334</v>
+        <v>12.34333333333334</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3673,7 +3667,7 @@
         <v>8330</v>
       </c>
       <c r="G93" t="n">
-        <v>12.35500000000001</v>
+        <v>12.34833333333334</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3693,22 +3687,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E94" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F94" t="n">
-        <v>10</v>
+        <v>8330</v>
       </c>
       <c r="G94" t="n">
-        <v>12.36000000000001</v>
+        <v>12.35500000000001</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3728,22 +3722,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="C95" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="D95" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="E95" t="n">
-        <v>12.6</v>
+        <v>12.4</v>
       </c>
       <c r="F95" t="n">
-        <v>48.3333</v>
+        <v>10</v>
       </c>
       <c r="G95" t="n">
-        <v>12.37000000000001</v>
+        <v>12.36000000000001</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3775,10 +3769,10 @@
         <v>12.6</v>
       </c>
       <c r="F96" t="n">
-        <v>207</v>
+        <v>48.3333</v>
       </c>
       <c r="G96" t="n">
-        <v>12.37833333333334</v>
+        <v>12.37000000000001</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3810,10 +3804,10 @@
         <v>12.6</v>
       </c>
       <c r="F97" t="n">
-        <v>74.6825</v>
+        <v>207</v>
       </c>
       <c r="G97" t="n">
-        <v>12.38833333333334</v>
+        <v>12.37833333333334</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3833,22 +3827,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="C98" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D98" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E98" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="F98" t="n">
-        <v>10</v>
+        <v>74.6825</v>
       </c>
       <c r="G98" t="n">
-        <v>12.39500000000001</v>
+        <v>12.38833333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3880,10 +3874,10 @@
         <v>12.5</v>
       </c>
       <c r="F99" t="n">
-        <v>10019</v>
+        <v>10</v>
       </c>
       <c r="G99" t="n">
-        <v>12.40000000000001</v>
+        <v>12.39500000000001</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3915,10 +3909,10 @@
         <v>12.5</v>
       </c>
       <c r="F100" t="n">
-        <v>17590</v>
+        <v>10019</v>
       </c>
       <c r="G100" t="n">
-        <v>12.405</v>
+        <v>12.40000000000001</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3950,10 +3944,10 @@
         <v>12.5</v>
       </c>
       <c r="F101" t="n">
-        <v>4170</v>
+        <v>17590</v>
       </c>
       <c r="G101" t="n">
-        <v>12.41</v>
+        <v>12.405</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3988,7 +3982,7 @@
         <v>4170</v>
       </c>
       <c r="G102" t="n">
-        <v>12.41666666666667</v>
+        <v>12.41</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4008,7 +4002,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C103" t="n">
         <v>12.5</v>
@@ -4017,13 +4011,13 @@
         <v>12.5</v>
       </c>
       <c r="E103" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F103" t="n">
-        <v>4180</v>
+        <v>4170</v>
       </c>
       <c r="G103" t="n">
-        <v>12.42000000000001</v>
+        <v>12.41666666666667</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4038,6 +4032,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C104" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D104" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E104" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F104" t="n">
+        <v>4180</v>
+      </c>
+      <c r="G104" t="n">
+        <v>12.42000000000001</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:N114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>253.4166</v>
       </c>
       <c r="G2" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="H2" t="n">
         <v>11.89333333333334</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,25 @@
         <v>10</v>
       </c>
       <c r="G3" t="n">
+        <v>11.88666666666667</v>
+      </c>
+      <c r="H3" t="n">
         <v>11.89</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12</v>
+      </c>
+      <c r="L3" t="n">
+        <v>12</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -521,15 +536,26 @@
         <v>11.88666666666667</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>11.88666666666667</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L4" t="n">
+        <v>12</v>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +579,29 @@
         <v>12</v>
       </c>
       <c r="G5" t="n">
+        <v>11.89333333333334</v>
+      </c>
+      <c r="H5" t="n">
         <v>11.88333333333333</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L5" t="n">
+        <v>12</v>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +625,21 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H6" t="n">
         <v>11.88</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +663,25 @@
         <v>68607.5107</v>
       </c>
       <c r="G7" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H7" t="n">
         <v>11.87666666666667</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L7" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +705,27 @@
         <v>10</v>
       </c>
       <c r="G8" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="H8" t="n">
         <v>11.87166666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="L8" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +749,29 @@
         <v>165232.1497</v>
       </c>
       <c r="G9" t="n">
+        <v>11.89333333333334</v>
+      </c>
+      <c r="H9" t="n">
         <v>11.87</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +795,25 @@
         <v>164695.2194</v>
       </c>
       <c r="G10" t="n">
+        <v>11.91333333333333</v>
+      </c>
+      <c r="H10" t="n">
         <v>11.87166666666667</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L10" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +837,27 @@
         <v>10</v>
       </c>
       <c r="G11" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="H11" t="n">
         <v>11.87166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="L11" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +881,27 @@
         <v>8437.2474</v>
       </c>
       <c r="G12" t="n">
+        <v>11.92</v>
+      </c>
+      <c r="H12" t="n">
         <v>11.87</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="L12" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +925,21 @@
         <v>15127.2509</v>
       </c>
       <c r="G13" t="n">
+        <v>11.92666666666667</v>
+      </c>
+      <c r="H13" t="n">
         <v>11.87166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +963,21 @@
         <v>225953.1906</v>
       </c>
       <c r="G14" t="n">
+        <v>11.95333333333333</v>
+      </c>
+      <c r="H14" t="n">
         <v>11.875</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +1001,21 @@
         <v>1421.5574</v>
       </c>
       <c r="G15" t="n">
+        <v>11.98</v>
+      </c>
+      <c r="H15" t="n">
         <v>11.88</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +1039,21 @@
         <v>35583.8808</v>
       </c>
       <c r="G16" t="n">
+        <v>12</v>
+      </c>
+      <c r="H16" t="n">
         <v>11.88333333333333</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1077,21 @@
         <v>40983.6065</v>
       </c>
       <c r="G17" t="n">
+        <v>12.01333333333333</v>
+      </c>
+      <c r="H17" t="n">
         <v>11.88833333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1115,21 @@
         <v>7883.1252</v>
       </c>
       <c r="G18" t="n">
+        <v>12.03333333333333</v>
+      </c>
+      <c r="H18" t="n">
         <v>11.89333333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1153,21 @@
         <v>50</v>
       </c>
       <c r="G19" t="n">
+        <v>12.05333333333333</v>
+      </c>
+      <c r="H19" t="n">
         <v>11.89833333333334</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1191,21 @@
         <v>22</v>
       </c>
       <c r="G20" t="n">
+        <v>12.06666666666666</v>
+      </c>
+      <c r="H20" t="n">
         <v>11.90500000000001</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1229,21 @@
         <v>2600</v>
       </c>
       <c r="G21" t="n">
+        <v>12.08666666666666</v>
+      </c>
+      <c r="H21" t="n">
         <v>11.91333333333334</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1267,21 @@
         <v>10</v>
       </c>
       <c r="G22" t="n">
+        <v>12.10666666666666</v>
+      </c>
+      <c r="H22" t="n">
         <v>11.91833333333334</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1305,21 @@
         <v>3361.3444</v>
       </c>
       <c r="G23" t="n">
+        <v>12.13333333333332</v>
+      </c>
+      <c r="H23" t="n">
         <v>11.92500000000001</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1343,21 @@
         <v>10</v>
       </c>
       <c r="G24" t="n">
+        <v>12.15333333333332</v>
+      </c>
+      <c r="H24" t="n">
         <v>11.92666666666668</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1381,21 @@
         <v>30000</v>
       </c>
       <c r="G25" t="n">
+        <v>12.15999999999999</v>
+      </c>
+      <c r="H25" t="n">
         <v>11.93166666666668</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1419,21 @@
         <v>45995.1533</v>
       </c>
       <c r="G26" t="n">
+        <v>12.16666666666665</v>
+      </c>
+      <c r="H26" t="n">
         <v>11.93500000000001</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1457,21 @@
         <v>241.9354</v>
       </c>
       <c r="G27" t="n">
+        <v>12.19333333333332</v>
+      </c>
+      <c r="H27" t="n">
         <v>11.94333333333335</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1495,21 @@
         <v>20</v>
       </c>
       <c r="G28" t="n">
+        <v>12.19333333333332</v>
+      </c>
+      <c r="H28" t="n">
         <v>11.94666666666668</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1533,21 @@
         <v>174518.1842</v>
       </c>
       <c r="G29" t="n">
+        <v>12.18666666666665</v>
+      </c>
+      <c r="H29" t="n">
         <v>11.95000000000001</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1571,21 @@
         <v>11</v>
       </c>
       <c r="G30" t="n">
+        <v>12.19333333333332</v>
+      </c>
+      <c r="H30" t="n">
         <v>11.95666666666668</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1609,21 @@
         <v>10</v>
       </c>
       <c r="G31" t="n">
+        <v>12.19333333333332</v>
+      </c>
+      <c r="H31" t="n">
         <v>11.96000000000001</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1647,21 @@
         <v>40890.395</v>
       </c>
       <c r="G32" t="n">
+        <v>12.18666666666666</v>
+      </c>
+      <c r="H32" t="n">
         <v>11.96500000000001</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1685,21 @@
         <v>6147.6229</v>
       </c>
       <c r="G33" t="n">
+        <v>12.18666666666666</v>
+      </c>
+      <c r="H33" t="n">
         <v>11.97166666666668</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1723,21 @@
         <v>91124.0831</v>
       </c>
       <c r="G34" t="n">
+        <v>12.17999999999999</v>
+      </c>
+      <c r="H34" t="n">
         <v>11.97833333333335</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1761,21 @@
         <v>810</v>
       </c>
       <c r="G35" t="n">
+        <v>12.17333333333332</v>
+      </c>
+      <c r="H35" t="n">
         <v>11.98166666666668</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1799,21 @@
         <v>10</v>
       </c>
       <c r="G36" t="n">
+        <v>12.15999999999999</v>
+      </c>
+      <c r="H36" t="n">
         <v>11.98666666666668</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1837,21 @@
         <v>63891.157</v>
       </c>
       <c r="G37" t="n">
+        <v>12.15333333333333</v>
+      </c>
+      <c r="H37" t="n">
         <v>11.99333333333335</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1875,21 @@
         <v>10</v>
       </c>
       <c r="G38" t="n">
+        <v>12.13999999999999</v>
+      </c>
+      <c r="H38" t="n">
         <v>11.99500000000002</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1913,21 @@
         <v>2783.6387</v>
       </c>
       <c r="G39" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H39" t="n">
         <v>12.00166666666668</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,22 +1951,21 @@
         <v>118</v>
       </c>
       <c r="G40" t="n">
+        <v>12.13333333333333</v>
+      </c>
+      <c r="H40" t="n">
         <v>12.00833333333335</v>
       </c>
-      <c r="H40" t="n">
-        <v>1</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K40" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1817,24 +1989,21 @@
         <v>4658.5901</v>
       </c>
       <c r="G41" t="n">
+        <v>12.13999999999999</v>
+      </c>
+      <c r="H41" t="n">
         <v>12.01500000000002</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1858,24 +2027,21 @@
         <v>16393.4426</v>
       </c>
       <c r="G42" t="n">
+        <v>12.12666666666666</v>
+      </c>
+      <c r="H42" t="n">
         <v>12.02333333333335</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1899,18 +2065,21 @@
         <v>10</v>
       </c>
       <c r="G43" t="n">
+        <v>12.12666666666666</v>
+      </c>
+      <c r="H43" t="n">
         <v>12.03000000000002</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1934,18 +2103,21 @@
         <v>11</v>
       </c>
       <c r="G44" t="n">
+        <v>12.13999999999999</v>
+      </c>
+      <c r="H44" t="n">
         <v>12.03666666666668</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1969,18 +2141,21 @@
         <v>29440.4918</v>
       </c>
       <c r="G45" t="n">
+        <v>12.13333333333332</v>
+      </c>
+      <c r="H45" t="n">
         <v>12.04333333333335</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2004,22 +2179,21 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
+        <v>12.13333333333332</v>
+      </c>
+      <c r="H46" t="n">
         <v>12.05000000000002</v>
       </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="K46" t="n">
-        <v>12.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2043,26 +2217,21 @@
         <v>11</v>
       </c>
       <c r="G47" t="n">
+        <v>12.13999999999999</v>
+      </c>
+      <c r="H47" t="n">
         <v>12.05500000000002</v>
       </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K47" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2086,24 +2255,21 @@
         <v>49175.4019</v>
       </c>
       <c r="G48" t="n">
+        <v>12.13999999999999</v>
+      </c>
+      <c r="H48" t="n">
         <v>12.06166666666669</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2127,18 +2293,21 @@
         <v>3889.2804</v>
       </c>
       <c r="G49" t="n">
+        <v>12.15333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>12.06833333333335</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2162,18 +2331,21 @@
         <v>23626.275</v>
       </c>
       <c r="G50" t="n">
+        <v>12.16666666666666</v>
+      </c>
+      <c r="H50" t="n">
         <v>12.07500000000002</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2197,18 +2369,21 @@
         <v>121224.7617</v>
       </c>
       <c r="G51" t="n">
+        <v>12.18666666666666</v>
+      </c>
+      <c r="H51" t="n">
         <v>12.08333333333335</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2232,18 +2407,21 @@
         <v>8064.516</v>
       </c>
       <c r="G52" t="n">
+        <v>12.20666666666666</v>
+      </c>
+      <c r="H52" t="n">
         <v>12.09166666666669</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2267,18 +2445,21 @@
         <v>102419.3549</v>
       </c>
       <c r="G53" t="n">
+        <v>12.23333333333333</v>
+      </c>
+      <c r="H53" t="n">
         <v>12.10166666666669</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2302,18 +2483,21 @@
         <v>4400</v>
       </c>
       <c r="G54" t="n">
+        <v>12.25999999999999</v>
+      </c>
+      <c r="H54" t="n">
         <v>12.11000000000002</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2337,18 +2521,21 @@
         <v>6290.3225</v>
       </c>
       <c r="G55" t="n">
+        <v>12.27333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>12.12000000000002</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2372,18 +2559,21 @@
         <v>14395.1806</v>
       </c>
       <c r="G56" t="n">
+        <v>12.28666666666666</v>
+      </c>
+      <c r="H56" t="n">
         <v>12.12833333333336</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2407,18 +2597,21 @@
         <v>10</v>
       </c>
       <c r="G57" t="n">
+        <v>12.29333333333333</v>
+      </c>
+      <c r="H57" t="n">
         <v>12.13333333333335</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2442,18 +2635,21 @@
         <v>16129.0321</v>
       </c>
       <c r="G58" t="n">
+        <v>12.31333333333333</v>
+      </c>
+      <c r="H58" t="n">
         <v>12.14000000000002</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2477,18 +2673,21 @@
         <v>10</v>
       </c>
       <c r="G59" t="n">
+        <v>12.31333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>12.14833333333335</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2512,18 +2711,21 @@
         <v>100</v>
       </c>
       <c r="G60" t="n">
+        <v>12.33333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>12.16000000000002</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2547,18 +2749,21 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
+        <v>12.34666666666667</v>
+      </c>
+      <c r="H61" t="n">
         <v>12.16833333333335</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,18 +2787,21 @@
         <v>316301.1625</v>
       </c>
       <c r="G62" t="n">
+        <v>12.35333333333334</v>
+      </c>
+      <c r="H62" t="n">
         <v>12.17333333333335</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2617,18 +2825,21 @@
         <v>800.0232</v>
       </c>
       <c r="G63" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H63" t="n">
         <v>12.18000000000002</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2652,18 +2863,21 @@
         <v>152904.5253</v>
       </c>
       <c r="G64" t="n">
+        <v>12.36666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>12.18833333333335</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2687,18 +2901,21 @@
         <v>4370</v>
       </c>
       <c r="G65" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H65" t="n">
         <v>12.19166666666669</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2722,18 +2939,21 @@
         <v>40650.40650406504</v>
       </c>
       <c r="G66" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H66" t="n">
         <v>12.19833333333335</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2757,18 +2977,21 @@
         <v>242229.8577</v>
       </c>
       <c r="G67" t="n">
+        <v>12.35333333333334</v>
+      </c>
+      <c r="H67" t="n">
         <v>12.20500000000002</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,18 +3015,21 @@
         <v>17600</v>
       </c>
       <c r="G68" t="n">
+        <v>12.34666666666667</v>
+      </c>
+      <c r="H68" t="n">
         <v>12.21333333333335</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2827,18 +3053,21 @@
         <v>8180.0813</v>
       </c>
       <c r="G69" t="n">
+        <v>12.33333333333334</v>
+      </c>
+      <c r="H69" t="n">
         <v>12.22000000000002</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2862,18 +3091,21 @@
         <v>10500</v>
       </c>
       <c r="G70" t="n">
+        <v>12.32666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>12.22333333333335</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2897,18 +3129,21 @@
         <v>609.5934</v>
       </c>
       <c r="G71" t="n">
+        <v>12.32</v>
+      </c>
+      <c r="H71" t="n">
         <v>12.22833333333335</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2932,18 +3167,21 @@
         <v>771172.48</v>
       </c>
       <c r="G72" t="n">
+        <v>12.32666666666667</v>
+      </c>
+      <c r="H72" t="n">
         <v>12.23500000000002</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2967,18 +3205,21 @@
         <v>4400</v>
       </c>
       <c r="G73" t="n">
+        <v>12.32666666666667</v>
+      </c>
+      <c r="H73" t="n">
         <v>12.24000000000002</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3002,18 +3243,21 @@
         <v>188919.5574</v>
       </c>
       <c r="G74" t="n">
+        <v>12.34</v>
+      </c>
+      <c r="H74" t="n">
         <v>12.24500000000002</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3037,18 +3281,21 @@
         <v>73849.8412</v>
       </c>
       <c r="G75" t="n">
+        <v>12.34666666666667</v>
+      </c>
+      <c r="H75" t="n">
         <v>12.25166666666668</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3072,18 +3319,21 @@
         <v>10</v>
       </c>
       <c r="G76" t="n">
+        <v>12.36</v>
+      </c>
+      <c r="H76" t="n">
         <v>12.25833333333335</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3107,18 +3357,21 @@
         <v>54414.189</v>
       </c>
       <c r="G77" t="n">
+        <v>12.37333333333333</v>
+      </c>
+      <c r="H77" t="n">
         <v>12.26333333333335</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3142,18 +3395,21 @@
         <v>40983.6064</v>
       </c>
       <c r="G78" t="n">
+        <v>12.39333333333333</v>
+      </c>
+      <c r="H78" t="n">
         <v>12.27000000000001</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3177,18 +3433,21 @@
         <v>10</v>
       </c>
       <c r="G79" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="H79" t="n">
         <v>12.27500000000001</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3212,18 +3471,21 @@
         <v>5598.6407</v>
       </c>
       <c r="G80" t="n">
+        <v>12.42</v>
+      </c>
+      <c r="H80" t="n">
         <v>12.28000000000001</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3247,18 +3509,21 @@
         <v>2459.336</v>
       </c>
       <c r="G81" t="n">
+        <v>12.43333333333333</v>
+      </c>
+      <c r="H81" t="n">
         <v>12.28500000000001</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3282,18 +3547,21 @@
         <v>4215.9262</v>
       </c>
       <c r="G82" t="n">
+        <v>12.44666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>12.29000000000001</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3317,18 +3585,21 @@
         <v>16220.1729</v>
       </c>
       <c r="G83" t="n">
+        <v>12.46</v>
+      </c>
+      <c r="H83" t="n">
         <v>12.29500000000001</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3352,18 +3623,21 @@
         <v>6014.524</v>
       </c>
       <c r="G84" t="n">
+        <v>12.47333333333333</v>
+      </c>
+      <c r="H84" t="n">
         <v>12.30000000000001</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3387,18 +3661,21 @@
         <v>2500</v>
       </c>
       <c r="G85" t="n">
+        <v>12.48666666666666</v>
+      </c>
+      <c r="H85" t="n">
         <v>12.30500000000001</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>1</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3422,18 +3699,21 @@
         <v>44332.7434</v>
       </c>
       <c r="G86" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H86" t="n">
         <v>12.31166666666667</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>1</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3457,18 +3737,21 @@
         <v>19989.0263</v>
       </c>
       <c r="G87" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H87" t="n">
         <v>12.31333333333334</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3492,18 +3775,21 @@
         <v>10</v>
       </c>
       <c r="G88" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H88" t="n">
         <v>12.31833333333334</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3527,18 +3813,21 @@
         <v>8790</v>
       </c>
       <c r="G89" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H89" t="n">
         <v>12.32500000000001</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>1</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3562,18 +3851,21 @@
         <v>9717.7557</v>
       </c>
       <c r="G90" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H90" t="n">
         <v>12.32833333333334</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>1</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3597,18 +3889,21 @@
         <v>212.5444</v>
       </c>
       <c r="G91" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H91" t="n">
         <v>12.33666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>1</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3632,18 +3927,21 @@
         <v>8330</v>
       </c>
       <c r="G92" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H92" t="n">
         <v>12.34333333333334</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>1</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3667,18 +3965,21 @@
         <v>8330</v>
       </c>
       <c r="G93" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H93" t="n">
         <v>12.34833333333334</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>1</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3702,18 +4003,21 @@
         <v>8330</v>
       </c>
       <c r="G94" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H94" t="n">
         <v>12.35500000000001</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>1</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3737,18 +4041,21 @@
         <v>10</v>
       </c>
       <c r="G95" t="n">
+        <v>12.49333333333333</v>
+      </c>
+      <c r="H95" t="n">
         <v>12.36000000000001</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3772,18 +4079,21 @@
         <v>48.3333</v>
       </c>
       <c r="G96" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H96" t="n">
         <v>12.37000000000001</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3807,18 +4117,21 @@
         <v>207</v>
       </c>
       <c r="G97" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>12.37833333333334</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>1</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3842,18 +4155,21 @@
         <v>74.6825</v>
       </c>
       <c r="G98" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H98" t="n">
         <v>12.38833333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3877,18 +4193,21 @@
         <v>10</v>
       </c>
       <c r="G99" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H99" t="n">
         <v>12.39500000000001</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,18 +4231,21 @@
         <v>10019</v>
       </c>
       <c r="G100" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H100" t="n">
         <v>12.40000000000001</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>1</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3947,18 +4269,21 @@
         <v>17590</v>
       </c>
       <c r="G101" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H101" t="n">
         <v>12.405</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>1</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3982,18 +4307,21 @@
         <v>4170</v>
       </c>
       <c r="G102" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>12.41</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>1</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4017,18 +4345,21 @@
         <v>4170</v>
       </c>
       <c r="G103" t="n">
+        <v>12.51999999999999</v>
+      </c>
+      <c r="H103" t="n">
         <v>12.41666666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>1</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4052,18 +4383,401 @@
         <v>4180</v>
       </c>
       <c r="G104" t="n">
+        <v>12.51999999999999</v>
+      </c>
+      <c r="H104" t="n">
         <v>12.42000000000001</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>1</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C105" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D105" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E105" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F105" t="n">
+        <v>10</v>
+      </c>
+      <c r="G105" t="n">
+        <v>12.51333333333333</v>
+      </c>
+      <c r="H105" t="n">
+        <v>12.42333333333334</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>1</v>
+      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C106" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D106" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E106" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G106" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H106" t="n">
+        <v>12.43</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1</v>
+      </c>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D107" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E107" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F107" t="n">
+        <v>4180</v>
+      </c>
+      <c r="G107" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H107" t="n">
+        <v>12.435</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1</v>
+      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E108" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F108" t="n">
+        <v>10</v>
+      </c>
+      <c r="G108" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H108" t="n">
+        <v>12.43833333333333</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1</v>
+      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C109" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D109" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E109" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F109" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G109" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H109" t="n">
+        <v>12.44166666666667</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1</v>
+      </c>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C110" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D110" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E110" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F110" t="n">
+        <v>4270</v>
+      </c>
+      <c r="G110" t="n">
+        <v>12.50666666666666</v>
+      </c>
+      <c r="H110" t="n">
+        <v>12.445</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1</v>
+      </c>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F111" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G111" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="H111" t="n">
+        <v>12.44833333333334</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E112" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F112" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G112" t="n">
+        <v>12.49333333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C113" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D113" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E113" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F113" t="n">
+        <v>20</v>
+      </c>
+      <c r="G113" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="H113" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C114" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D114" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E114" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F114" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G114" t="n">
+        <v>12.48</v>
+      </c>
+      <c r="H114" t="n">
+        <v>12.45</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1</v>
+      </c>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N114"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,40 +394,35 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>MA60</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -438,36 +433,33 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C2" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D2" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E2" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F2" t="n">
-        <v>253.4166</v>
+        <v>702.1494</v>
       </c>
       <c r="G2" t="n">
-        <v>11.88</v>
+        <v>-467740.5337435799</v>
       </c>
       <c r="H2" t="n">
-        <v>11.89333333333334</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -476,40 +468,37 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C3" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D3" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E3" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F3" t="n">
-        <v>10</v>
+        <v>1297.8506</v>
       </c>
       <c r="G3" t="n">
-        <v>11.88666666666667</v>
+        <v>-469038.3843435799</v>
       </c>
       <c r="H3" t="n">
-        <v>11.89</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>11.8</v>
       </c>
       <c r="K3" t="n">
-        <v>12</v>
-      </c>
-      <c r="L3" t="n">
-        <v>12</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -530,32 +519,29 @@
         <v>11.9</v>
       </c>
       <c r="F4" t="n">
-        <v>37869.7999</v>
+        <v>1379.5126</v>
       </c>
       <c r="G4" t="n">
-        <v>11.88666666666667</v>
+        <v>-467658.8717435799</v>
       </c>
       <c r="H4" t="n">
-        <v>11.88666666666667</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="K4" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L4" t="n">
-        <v>12</v>
-      </c>
-      <c r="M4" t="inlineStr">
+        <v>11.8</v>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -564,44 +550,39 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D5" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E5" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F5" t="n">
-        <v>12</v>
+        <v>43011.5571</v>
       </c>
       <c r="G5" t="n">
-        <v>11.89333333333334</v>
+        <v>-510670.4288435799</v>
       </c>
       <c r="H5" t="n">
-        <v>11.88333333333333</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L5" t="n">
-        <v>12</v>
-      </c>
-      <c r="M5" t="inlineStr">
+        <v>11.8</v>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="N5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -610,36 +591,33 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C6" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D6" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E6" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>11.9</v>
+        <v>-510670.4288435799</v>
       </c>
       <c r="H6" t="n">
-        <v>11.88</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -660,28 +638,21 @@
         <v>11.9</v>
       </c>
       <c r="F7" t="n">
-        <v>68607.5107</v>
+        <v>2500</v>
       </c>
       <c r="G7" t="n">
-        <v>11.9</v>
+        <v>-508170.4288435799</v>
       </c>
       <c r="H7" t="n">
-        <v>11.87666666666667</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L7" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -690,42 +661,33 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C8" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D8" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E8" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F8" t="n">
         <v>10</v>
       </c>
       <c r="G8" t="n">
-        <v>11.9</v>
+        <v>-508180.4288435799</v>
       </c>
       <c r="H8" t="n">
-        <v>11.87166666666667</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -734,44 +696,33 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C9" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D9" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E9" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F9" t="n">
-        <v>165232.1497</v>
+        <v>61135.5683</v>
       </c>
       <c r="G9" t="n">
-        <v>11.89333333333334</v>
+        <v>-447044.8605435799</v>
       </c>
       <c r="H9" t="n">
-        <v>11.87</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L9" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -780,40 +731,33 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C10" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D10" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E10" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F10" t="n">
-        <v>164695.2194</v>
+        <v>6345.7876</v>
       </c>
       <c r="G10" t="n">
-        <v>11.91333333333333</v>
+        <v>-447044.8605435799</v>
       </c>
       <c r="H10" t="n">
-        <v>11.87166666666667</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L10" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -822,42 +766,33 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C11" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D11" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E11" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F11" t="n">
         <v>10</v>
       </c>
       <c r="G11" t="n">
-        <v>11.92</v>
+        <v>-447054.8605435799</v>
       </c>
       <c r="H11" t="n">
-        <v>11.87166666666667</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -866,42 +801,33 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C12" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E12" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F12" t="n">
-        <v>8437.2474</v>
+        <v>1368.6728</v>
       </c>
       <c r="G12" t="n">
-        <v>11.92</v>
+        <v>-447054.8605435799</v>
       </c>
       <c r="H12" t="n">
-        <v>11.87</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="N12" t="n">
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -910,36 +836,33 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C13" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D13" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E13" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F13" t="n">
-        <v>15127.2509</v>
+        <v>4705.3781</v>
       </c>
       <c r="G13" t="n">
-        <v>11.92666666666667</v>
+        <v>-442349.4824435799</v>
       </c>
       <c r="H13" t="n">
-        <v>11.87166666666667</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
+      <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="n">
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -948,36 +871,33 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C14" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D14" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E14" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F14" t="n">
-        <v>225953.1906</v>
+        <v>3140</v>
       </c>
       <c r="G14" t="n">
-        <v>11.95333333333333</v>
+        <v>-445489.4824435799</v>
       </c>
       <c r="H14" t="n">
-        <v>11.875</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="n">
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -986,36 +906,33 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="C15" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="D15" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="E15" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="F15" t="n">
-        <v>1421.5574</v>
+        <v>10</v>
       </c>
       <c r="G15" t="n">
-        <v>11.98</v>
+        <v>-445499.4824435799</v>
       </c>
       <c r="H15" t="n">
-        <v>11.88</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
+      <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="n">
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1024,36 +941,33 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C16" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D16" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E16" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F16" t="n">
-        <v>35583.8808</v>
+        <v>11</v>
       </c>
       <c r="G16" t="n">
-        <v>12</v>
+        <v>-445488.4824435799</v>
       </c>
       <c r="H16" t="n">
-        <v>11.88333333333333</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
+      <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="n">
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1062,36 +976,33 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C17" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D17" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E17" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F17" t="n">
-        <v>40983.6065</v>
+        <v>10</v>
       </c>
       <c r="G17" t="n">
-        <v>12.01333333333333</v>
+        <v>-445498.4824435799</v>
       </c>
       <c r="H17" t="n">
-        <v>11.88833333333334</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="n">
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1100,36 +1011,33 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C18" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D18" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E18" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F18" t="n">
-        <v>7883.1252</v>
+        <v>6569.8065</v>
       </c>
       <c r="G18" t="n">
-        <v>12.03333333333333</v>
+        <v>-438928.6759435799</v>
       </c>
       <c r="H18" t="n">
-        <v>11.89333333333334</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
+      <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="n">
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1138,36 +1046,33 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C19" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D19" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E19" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F19" t="n">
-        <v>50</v>
+        <v>29569.1604</v>
       </c>
       <c r="G19" t="n">
-        <v>12.05333333333333</v>
+        <v>-438928.6759435799</v>
       </c>
       <c r="H19" t="n">
-        <v>11.89833333333334</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="n">
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1176,36 +1081,33 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="C20" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D20" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E20" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F20" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G20" t="n">
-        <v>12.06666666666666</v>
+        <v>-438938.6759435799</v>
       </c>
       <c r="H20" t="n">
-        <v>11.90500000000001</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="n">
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1214,36 +1116,33 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C21" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D21" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E21" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F21" t="n">
-        <v>2600</v>
+        <v>48146.8396</v>
       </c>
       <c r="G21" t="n">
-        <v>12.08666666666666</v>
+        <v>-390791.8363435799</v>
       </c>
       <c r="H21" t="n">
-        <v>11.91333333333334</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr"/>
-      <c r="N21" t="n">
+      <c r="M21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1252,36 +1151,33 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C22" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D22" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E22" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F22" t="n">
-        <v>10</v>
+        <v>3367.5764</v>
       </c>
       <c r="G22" t="n">
-        <v>12.10666666666666</v>
+        <v>-394159.4127435799</v>
       </c>
       <c r="H22" t="n">
-        <v>11.91833333333334</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
+      <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="inlineStr"/>
-      <c r="N22" t="n">
+      <c r="M22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1290,36 +1186,33 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C23" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D23" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E23" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F23" t="n">
-        <v>3361.3444</v>
+        <v>7098.375</v>
       </c>
       <c r="G23" t="n">
-        <v>12.13333333333332</v>
+        <v>-387061.0377435799</v>
       </c>
       <c r="H23" t="n">
-        <v>11.92500000000001</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
+      <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="inlineStr"/>
-      <c r="N23" t="n">
+      <c r="M23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1328,36 +1221,33 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C24" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D24" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E24" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F24" t="n">
         <v>10</v>
       </c>
       <c r="G24" t="n">
-        <v>12.15333333333332</v>
+        <v>-387071.0377435799</v>
       </c>
       <c r="H24" t="n">
-        <v>11.92666666666668</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
+      <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
+      <c r="M24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1366,36 +1256,33 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C25" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D25" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E25" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F25" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G25" t="n">
-        <v>12.15999999999999</v>
+        <v>-337071.0377435799</v>
       </c>
       <c r="H25" t="n">
-        <v>11.93166666666668</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
+      <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
+      <c r="M25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1404,36 +1291,33 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C26" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D26" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E26" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F26" t="n">
-        <v>45995.1533</v>
+        <v>168.175</v>
       </c>
       <c r="G26" t="n">
-        <v>12.16666666666665</v>
+        <v>-336902.86274358</v>
       </c>
       <c r="H26" t="n">
-        <v>11.93500000000001</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
+      <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="inlineStr"/>
-      <c r="N26" t="n">
+      <c r="M26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1442,36 +1326,33 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="C27" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="D27" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="E27" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="F27" t="n">
-        <v>241.9354</v>
+        <v>34468.4708</v>
       </c>
       <c r="G27" t="n">
-        <v>12.19333333333332</v>
+        <v>-336902.86274358</v>
       </c>
       <c r="H27" t="n">
-        <v>11.94333333333335</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
+      <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="inlineStr"/>
-      <c r="N27" t="n">
+      <c r="M27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,36 +1361,33 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C28" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E28" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F28" t="n">
-        <v>20</v>
+        <v>8143.7121</v>
       </c>
       <c r="G28" t="n">
-        <v>12.19333333333332</v>
+        <v>-345046.57484358</v>
       </c>
       <c r="H28" t="n">
-        <v>11.94666666666668</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
+      <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
+      <c r="M28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1518,36 +1396,33 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C29" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D29" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E29" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F29" t="n">
-        <v>174518.1842</v>
+        <v>5000.0001</v>
       </c>
       <c r="G29" t="n">
-        <v>12.18666666666665</v>
+        <v>-345046.57484358</v>
       </c>
       <c r="H29" t="n">
-        <v>11.95000000000001</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
+      <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr"/>
-      <c r="N29" t="n">
+      <c r="M29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1556,36 +1431,33 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="C30" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="D30" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E30" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="F30" t="n">
-        <v>11</v>
+        <v>4500</v>
       </c>
       <c r="G30" t="n">
-        <v>12.19333333333332</v>
+        <v>-345046.57484358</v>
       </c>
       <c r="H30" t="n">
-        <v>11.95666666666668</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr"/>
-      <c r="N30" t="n">
+      <c r="M30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1594,36 +1466,33 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C31" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D31" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E31" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F31" t="n">
-        <v>10</v>
+        <v>253.4166</v>
       </c>
       <c r="G31" t="n">
-        <v>12.19333333333332</v>
+        <v>-344793.15824358</v>
       </c>
       <c r="H31" t="n">
-        <v>11.96000000000001</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
+      <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="inlineStr"/>
-      <c r="N31" t="n">
+      <c r="M31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1632,36 +1501,33 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C32" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D32" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E32" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F32" t="n">
-        <v>40890.395</v>
+        <v>10</v>
       </c>
       <c r="G32" t="n">
-        <v>12.18666666666666</v>
+        <v>-344803.15824358</v>
       </c>
       <c r="H32" t="n">
-        <v>11.96500000000001</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
+      <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="inlineStr"/>
-      <c r="N32" t="n">
+      <c r="M32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1670,36 +1536,33 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C33" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D33" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E33" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F33" t="n">
-        <v>6147.6229</v>
+        <v>37869.7999</v>
       </c>
       <c r="G33" t="n">
-        <v>12.18666666666666</v>
+        <v>-344803.15824358</v>
       </c>
       <c r="H33" t="n">
-        <v>11.97166666666668</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="inlineStr"/>
-      <c r="N33" t="n">
+      <c r="M33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,36 +1571,33 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C34" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D34" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E34" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F34" t="n">
-        <v>91124.0831</v>
+        <v>12</v>
       </c>
       <c r="G34" t="n">
-        <v>12.17999999999999</v>
+        <v>-344791.15824358</v>
       </c>
       <c r="H34" t="n">
-        <v>11.97833333333335</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr"/>
-      <c r="N34" t="n">
+      <c r="M34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1746,36 +1606,33 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C35" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D35" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E35" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F35" t="n">
-        <v>810</v>
+        <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>12.17333333333332</v>
+        <v>-344801.15824358</v>
       </c>
       <c r="H35" t="n">
-        <v>11.98166666666668</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
+      <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="inlineStr"/>
-      <c r="N35" t="n">
+      <c r="M35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1784,36 +1641,33 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C36" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D36" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E36" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F36" t="n">
-        <v>10</v>
+        <v>68607.5107</v>
       </c>
       <c r="G36" t="n">
-        <v>12.15999999999999</v>
+        <v>-344801.15824358</v>
       </c>
       <c r="H36" t="n">
-        <v>11.98666666666668</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="inlineStr"/>
-      <c r="N36" t="n">
+      <c r="M36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1822,36 +1676,33 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C37" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D37" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E37" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F37" t="n">
-        <v>63891.157</v>
+        <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>12.15333333333333</v>
+        <v>-344811.15824358</v>
       </c>
       <c r="H37" t="n">
-        <v>11.99333333333335</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="n">
+      <c r="M37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1860,36 +1711,33 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C38" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D38" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E38" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F38" t="n">
-        <v>10</v>
+        <v>165232.1497</v>
       </c>
       <c r="G38" t="n">
-        <v>12.13999999999999</v>
+        <v>-179579.00854358</v>
       </c>
       <c r="H38" t="n">
-        <v>11.99500000000002</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="n">
+      <c r="M38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1898,7 +1746,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C39" t="n">
         <v>12.1</v>
@@ -1907,27 +1755,24 @@
         <v>12.1</v>
       </c>
       <c r="E39" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F39" t="n">
-        <v>2783.6387</v>
+        <v>164695.2194</v>
       </c>
       <c r="G39" t="n">
-        <v>12.13333333333333</v>
+        <v>-14883.78914357995</v>
       </c>
       <c r="H39" t="n">
-        <v>12.00166666666668</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="inlineStr"/>
-      <c r="N39" t="n">
+      <c r="M39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1936,36 +1781,33 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C40" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D40" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E40" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F40" t="n">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>12.13333333333333</v>
+        <v>-14893.78914357995</v>
       </c>
       <c r="H40" t="n">
-        <v>12.00833333333335</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr"/>
-      <c r="N40" t="n">
+      <c r="M40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1974,36 +1816,33 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C41" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D41" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E41" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F41" t="n">
-        <v>4658.5901</v>
+        <v>8437.2474</v>
       </c>
       <c r="G41" t="n">
-        <v>12.13999999999999</v>
+        <v>-14893.78914357995</v>
       </c>
       <c r="H41" t="n">
-        <v>12.01500000000002</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr"/>
-      <c r="N41" t="n">
+      <c r="M41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2012,36 +1851,33 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C42" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D42" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E42" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F42" t="n">
-        <v>16393.4426</v>
+        <v>15127.2509</v>
       </c>
       <c r="G42" t="n">
-        <v>12.12666666666666</v>
+        <v>233.4617564200453</v>
       </c>
       <c r="H42" t="n">
-        <v>12.02333333333335</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="inlineStr"/>
-      <c r="N42" t="n">
+      <c r="M42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2050,36 +1886,33 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C43" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D43" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E43" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F43" t="n">
-        <v>10</v>
+        <v>225953.1906</v>
       </c>
       <c r="G43" t="n">
-        <v>12.12666666666666</v>
+        <v>226186.6523564201</v>
       </c>
       <c r="H43" t="n">
-        <v>12.03000000000002</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="inlineStr"/>
-      <c r="N43" t="n">
+      <c r="M43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2088,36 +1921,33 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C44" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D44" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E44" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F44" t="n">
-        <v>11</v>
+        <v>1421.5574</v>
       </c>
       <c r="G44" t="n">
-        <v>12.13999999999999</v>
+        <v>226186.6523564201</v>
       </c>
       <c r="H44" t="n">
-        <v>12.03666666666668</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
+      <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr"/>
-      <c r="N44" t="n">
+      <c r="M44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2126,36 +1956,33 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C45" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D45" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E45" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F45" t="n">
-        <v>29440.4918</v>
+        <v>35583.8808</v>
       </c>
       <c r="G45" t="n">
-        <v>12.13333333333332</v>
+        <v>190602.7715564201</v>
       </c>
       <c r="H45" t="n">
-        <v>12.04333333333335</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="n">
+      <c r="M45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2164,36 +1991,33 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C46" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D46" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E46" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F46" t="n">
-        <v>10</v>
+        <v>40983.6065</v>
       </c>
       <c r="G46" t="n">
-        <v>12.13333333333332</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H46" t="n">
-        <v>12.05000000000002</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="inlineStr"/>
-      <c r="N46" t="n">
+      <c r="M46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2214,24 +2038,21 @@
         <v>12.2</v>
       </c>
       <c r="F47" t="n">
-        <v>11</v>
+        <v>7883.1252</v>
       </c>
       <c r="G47" t="n">
-        <v>12.13999999999999</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H47" t="n">
-        <v>12.05500000000002</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
+      <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr"/>
-      <c r="N47" t="n">
+      <c r="M47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2252,24 +2073,21 @@
         <v>12.2</v>
       </c>
       <c r="F48" t="n">
-        <v>49175.4019</v>
+        <v>50</v>
       </c>
       <c r="G48" t="n">
-        <v>12.13999999999999</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H48" t="n">
-        <v>12.06166666666669</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
+      <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr"/>
-      <c r="N48" t="n">
+      <c r="M48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2281,33 +2099,30 @@
         <v>12.3</v>
       </c>
       <c r="C49" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D49" t="n">
         <v>12.3</v>
       </c>
       <c r="E49" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F49" t="n">
-        <v>3889.2804</v>
+        <v>22</v>
       </c>
       <c r="G49" t="n">
-        <v>12.15333333333333</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H49" t="n">
-        <v>12.06833333333335</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="n">
+      <c r="M49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2316,36 +2131,33 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C50" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D50" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E50" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F50" t="n">
-        <v>23626.275</v>
+        <v>2600</v>
       </c>
       <c r="G50" t="n">
-        <v>12.16666666666666</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H50" t="n">
-        <v>12.07500000000002</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
+      <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="inlineStr"/>
-      <c r="N50" t="n">
+      <c r="M50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2354,36 +2166,33 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C51" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D51" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E51" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F51" t="n">
-        <v>121224.7617</v>
+        <v>10</v>
       </c>
       <c r="G51" t="n">
-        <v>12.18666666666666</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H51" t="n">
-        <v>12.08333333333335</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>0</v>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="inlineStr"/>
-      <c r="N51" t="n">
+      <c r="M51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2392,36 +2201,33 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C52" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D52" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E52" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F52" t="n">
-        <v>8064.516</v>
+        <v>3361.3444</v>
       </c>
       <c r="G52" t="n">
-        <v>12.20666666666666</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H52" t="n">
-        <v>12.09166666666669</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>0</v>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="n">
+      <c r="M52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2430,36 +2236,33 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C53" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D53" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E53" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F53" t="n">
-        <v>102419.3549</v>
+        <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>12.23333333333333</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H53" t="n">
-        <v>12.10166666666669</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>0</v>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="inlineStr"/>
-      <c r="N53" t="n">
+      <c r="M53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2468,36 +2271,33 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C54" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D54" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E54" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F54" t="n">
-        <v>4400</v>
+        <v>30000</v>
       </c>
       <c r="G54" t="n">
-        <v>12.25999999999999</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H54" t="n">
-        <v>12.11000000000002</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>0</v>
-      </c>
+      <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="inlineStr"/>
-      <c r="N54" t="n">
+      <c r="M54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2506,36 +2306,33 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C55" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D55" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E55" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F55" t="n">
-        <v>6290.3225</v>
+        <v>45995.1533</v>
       </c>
       <c r="G55" t="n">
-        <v>12.27333333333333</v>
+        <v>185591.2247564201</v>
       </c>
       <c r="H55" t="n">
-        <v>12.12000000000002</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>0</v>
-      </c>
+      <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr"/>
-      <c r="N55" t="n">
+      <c r="M55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2556,24 +2353,21 @@
         <v>12.4</v>
       </c>
       <c r="F56" t="n">
-        <v>14395.1806</v>
+        <v>241.9354</v>
       </c>
       <c r="G56" t="n">
-        <v>12.28666666666666</v>
+        <v>185833.1601564201</v>
       </c>
       <c r="H56" t="n">
-        <v>12.12833333333336</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>0</v>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="inlineStr"/>
-      <c r="N56" t="n">
+      <c r="M56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2582,36 +2376,33 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C57" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D57" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E57" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F57" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G57" t="n">
-        <v>12.29333333333333</v>
+        <v>185813.1601564201</v>
       </c>
       <c r="H57" t="n">
-        <v>12.13333333333335</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>0</v>
-      </c>
+      <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="inlineStr"/>
-      <c r="N57" t="n">
+      <c r="M57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2620,36 +2411,33 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C58" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D58" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E58" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F58" t="n">
-        <v>16129.0321</v>
+        <v>174518.1842</v>
       </c>
       <c r="G58" t="n">
-        <v>12.31333333333333</v>
+        <v>185813.1601564201</v>
       </c>
       <c r="H58" t="n">
-        <v>12.14000000000002</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>0</v>
-      </c>
+      <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="inlineStr"/>
-      <c r="N58" t="n">
+      <c r="M58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2670,24 +2458,21 @@
         <v>12.3</v>
       </c>
       <c r="F59" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G59" t="n">
-        <v>12.31333333333333</v>
+        <v>185824.1601564201</v>
       </c>
       <c r="H59" t="n">
-        <v>12.14833333333335</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>0</v>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="inlineStr"/>
-      <c r="N59" t="n">
+      <c r="M59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2696,36 +2481,33 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="C60" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="D60" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E60" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="F60" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G60" t="n">
-        <v>12.33333333333333</v>
+        <v>185814.1601564201</v>
       </c>
       <c r="H60" t="n">
-        <v>12.16000000000002</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>0</v>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="inlineStr"/>
-      <c r="N60" t="n">
+      <c r="M60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2734,36 +2516,33 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C61" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D61" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E61" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F61" t="n">
-        <v>10</v>
+        <v>40890.395</v>
       </c>
       <c r="G61" t="n">
-        <v>12.34666666666667</v>
+        <v>185814.1601564201</v>
       </c>
       <c r="H61" t="n">
-        <v>12.16833333333335</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>0</v>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="inlineStr"/>
-      <c r="N61" t="n">
+      <c r="M61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,36 +2551,33 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C62" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D62" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E62" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F62" t="n">
-        <v>316301.1625</v>
+        <v>6147.6229</v>
       </c>
       <c r="G62" t="n">
-        <v>12.35333333333334</v>
+        <v>191961.78305642</v>
       </c>
       <c r="H62" t="n">
-        <v>12.17333333333335</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>0</v>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="inlineStr"/>
-      <c r="N62" t="n">
+      <c r="M62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2810,36 +2586,33 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C63" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D63" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E63" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F63" t="n">
-        <v>800.0232</v>
+        <v>91124.0831</v>
       </c>
       <c r="G63" t="n">
-        <v>12.36</v>
+        <v>100837.69995642</v>
       </c>
       <c r="H63" t="n">
-        <v>12.18000000000002</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>0</v>
-      </c>
+      <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="n">
+      <c r="M63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2848,36 +2621,33 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C64" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D64" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E64" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F64" t="n">
-        <v>152904.5253</v>
+        <v>810</v>
       </c>
       <c r="G64" t="n">
-        <v>12.36666666666667</v>
+        <v>100837.69995642</v>
       </c>
       <c r="H64" t="n">
-        <v>12.18833333333335</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>0</v>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="inlineStr"/>
-      <c r="N64" t="n">
+      <c r="M64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2886,36 +2656,33 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C65" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D65" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E65" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F65" t="n">
-        <v>4370</v>
+        <v>10</v>
       </c>
       <c r="G65" t="n">
-        <v>12.36</v>
+        <v>100827.69995642</v>
       </c>
       <c r="H65" t="n">
-        <v>12.19166666666669</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>0</v>
-      </c>
+      <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="n">
+      <c r="M65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2924,36 +2691,33 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C66" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D66" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E66" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F66" t="n">
-        <v>40650.40650406504</v>
+        <v>63891.157</v>
       </c>
       <c r="G66" t="n">
-        <v>12.36</v>
+        <v>164718.85695642</v>
       </c>
       <c r="H66" t="n">
-        <v>12.19833333333335</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>0</v>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="inlineStr"/>
-      <c r="N66" t="n">
+      <c r="M66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2962,36 +2726,33 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="C67" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D67" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="E67" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="F67" t="n">
-        <v>242229.8577</v>
+        <v>10</v>
       </c>
       <c r="G67" t="n">
-        <v>12.35333333333334</v>
+        <v>164708.85695642</v>
       </c>
       <c r="H67" t="n">
-        <v>12.20500000000002</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>0</v>
-      </c>
+      <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="n">
+      <c r="M67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3000,36 +2761,33 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C68" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D68" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E68" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F68" t="n">
-        <v>17600</v>
+        <v>2783.6387</v>
       </c>
       <c r="G68" t="n">
-        <v>12.34666666666667</v>
+        <v>167492.49565642</v>
       </c>
       <c r="H68" t="n">
-        <v>12.21333333333335</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>0</v>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="inlineStr"/>
-      <c r="N68" t="n">
+      <c r="M68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,36 +2796,33 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C69" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D69" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E69" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F69" t="n">
-        <v>8180.0813</v>
+        <v>118</v>
       </c>
       <c r="G69" t="n">
-        <v>12.33333333333334</v>
+        <v>167610.49565642</v>
       </c>
       <c r="H69" t="n">
-        <v>12.22000000000002</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>0</v>
-      </c>
+      <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="inlineStr"/>
-      <c r="N69" t="n">
+      <c r="M69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3076,36 +2831,33 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C70" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D70" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E70" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F70" t="n">
-        <v>10500</v>
+        <v>4658.5901</v>
       </c>
       <c r="G70" t="n">
-        <v>12.32666666666667</v>
+        <v>167610.49565642</v>
       </c>
       <c r="H70" t="n">
-        <v>12.22333333333335</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>0</v>
-      </c>
+      <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="inlineStr"/>
-      <c r="N70" t="n">
+      <c r="M70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3114,36 +2866,33 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C71" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D71" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E71" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F71" t="n">
-        <v>609.5934</v>
+        <v>16393.4426</v>
       </c>
       <c r="G71" t="n">
-        <v>12.32</v>
+        <v>167610.49565642</v>
       </c>
       <c r="H71" t="n">
-        <v>12.22833333333335</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>0</v>
-      </c>
+      <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="n">
+      <c r="M71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3152,36 +2901,33 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C72" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D72" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E72" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F72" t="n">
-        <v>771172.48</v>
+        <v>10</v>
       </c>
       <c r="G72" t="n">
-        <v>12.32666666666667</v>
+        <v>167600.49565642</v>
       </c>
       <c r="H72" t="n">
-        <v>12.23500000000002</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>0</v>
-      </c>
+      <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="n">
+      <c r="M72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3190,36 +2936,33 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C73" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D73" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E73" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F73" t="n">
-        <v>4400</v>
+        <v>11</v>
       </c>
       <c r="G73" t="n">
-        <v>12.32666666666667</v>
+        <v>167611.49565642</v>
       </c>
       <c r="H73" t="n">
-        <v>12.24000000000002</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>0</v>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="n">
+      <c r="M73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3228,36 +2971,33 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C74" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D74" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E74" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F74" t="n">
-        <v>188919.5574</v>
+        <v>29440.4918</v>
       </c>
       <c r="G74" t="n">
-        <v>12.34</v>
+        <v>138171.0038564201</v>
       </c>
       <c r="H74" t="n">
-        <v>12.24500000000002</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>0</v>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="n">
+      <c r="M74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3266,36 +3006,33 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="C75" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="D75" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="E75" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="F75" t="n">
-        <v>73849.8412</v>
+        <v>10</v>
       </c>
       <c r="G75" t="n">
-        <v>12.34666666666667</v>
+        <v>138161.0038564201</v>
       </c>
       <c r="H75" t="n">
-        <v>12.25166666666668</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>0</v>
-      </c>
+      <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="n">
+      <c r="M75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3304,36 +3041,33 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C76" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D76" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E76" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F76" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G76" t="n">
-        <v>12.36</v>
+        <v>138172.0038564201</v>
       </c>
       <c r="H76" t="n">
-        <v>12.25833333333335</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>0</v>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="n">
+      <c r="M76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3342,36 +3076,33 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C77" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D77" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E77" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F77" t="n">
-        <v>54414.189</v>
+        <v>49175.4019</v>
       </c>
       <c r="G77" t="n">
-        <v>12.37333333333333</v>
+        <v>138172.0038564201</v>
       </c>
       <c r="H77" t="n">
-        <v>12.26333333333335</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="n">
+      <c r="M77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3380,36 +3111,33 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="C78" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D78" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E78" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="F78" t="n">
-        <v>40983.6064</v>
+        <v>3889.2804</v>
       </c>
       <c r="G78" t="n">
-        <v>12.39333333333333</v>
+        <v>142061.28425642</v>
       </c>
       <c r="H78" t="n">
-        <v>12.27000000000001</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>0</v>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="n">
+      <c r="M78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3418,36 +3146,33 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C79" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D79" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E79" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F79" t="n">
-        <v>10</v>
+        <v>23626.275</v>
       </c>
       <c r="G79" t="n">
-        <v>12.4</v>
+        <v>142061.28425642</v>
       </c>
       <c r="H79" t="n">
-        <v>12.27500000000001</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>0</v>
-      </c>
+      <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="n">
+      <c r="M79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3456,36 +3181,33 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C80" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D80" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E80" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F80" t="n">
-        <v>5598.6407</v>
+        <v>121224.7617</v>
       </c>
       <c r="G80" t="n">
-        <v>12.42</v>
+        <v>142061.28425642</v>
       </c>
       <c r="H80" t="n">
-        <v>12.28000000000001</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>0</v>
-      </c>
+      <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="n">
+      <c r="M80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3494,36 +3216,33 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C81" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D81" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E81" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F81" t="n">
-        <v>2459.336</v>
+        <v>8064.516</v>
       </c>
       <c r="G81" t="n">
-        <v>12.43333333333333</v>
+        <v>150125.80025642</v>
       </c>
       <c r="H81" t="n">
-        <v>12.28500000000001</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>0</v>
-      </c>
+      <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="n">
+      <c r="M81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3532,36 +3251,33 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E82" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F82" t="n">
-        <v>4215.9262</v>
+        <v>102419.3549</v>
       </c>
       <c r="G82" t="n">
-        <v>12.44666666666667</v>
+        <v>150125.80025642</v>
       </c>
       <c r="H82" t="n">
-        <v>12.29000000000001</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>0</v>
-      </c>
+      <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="n">
+      <c r="M82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3582,24 +3298,21 @@
         <v>12.5</v>
       </c>
       <c r="F83" t="n">
-        <v>16220.1729</v>
+        <v>4400</v>
       </c>
       <c r="G83" t="n">
-        <v>12.46</v>
+        <v>154525.80025642</v>
       </c>
       <c r="H83" t="n">
-        <v>12.29500000000001</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>0</v>
-      </c>
+      <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="n">
+      <c r="M83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,36 +3321,33 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C84" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D84" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E84" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F84" t="n">
-        <v>6014.524</v>
+        <v>6290.3225</v>
       </c>
       <c r="G84" t="n">
-        <v>12.47333333333333</v>
+        <v>148235.47775642</v>
       </c>
       <c r="H84" t="n">
-        <v>12.30000000000001</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>0</v>
-      </c>
+      <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="n">
+      <c r="M84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3646,36 +3356,33 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C85" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D85" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E85" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F85" t="n">
-        <v>2500</v>
+        <v>14395.1806</v>
       </c>
       <c r="G85" t="n">
-        <v>12.48666666666666</v>
+        <v>148235.47775642</v>
       </c>
       <c r="H85" t="n">
-        <v>12.30500000000001</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>1</v>
-      </c>
+      <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="n">
+      <c r="M85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3684,36 +3391,33 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C86" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D86" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E86" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F86" t="n">
-        <v>44332.7434</v>
+        <v>10</v>
       </c>
       <c r="G86" t="n">
-        <v>12.5</v>
+        <v>148225.47775642</v>
       </c>
       <c r="H86" t="n">
-        <v>12.31166666666667</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>1</v>
-      </c>
+      <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="n">
+      <c r="M86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3722,36 +3426,33 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C87" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D87" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E87" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F87" t="n">
-        <v>19989.0263</v>
+        <v>16129.0321</v>
       </c>
       <c r="G87" t="n">
-        <v>12.50666666666666</v>
+        <v>164354.50985642</v>
       </c>
       <c r="H87" t="n">
-        <v>12.31333333333334</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>1</v>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="n">
+      <c r="M87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3760,36 +3461,33 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C88" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D88" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E88" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F88" t="n">
         <v>10</v>
       </c>
       <c r="G88" t="n">
-        <v>12.50666666666666</v>
+        <v>164344.50985642</v>
       </c>
       <c r="H88" t="n">
-        <v>12.31833333333334</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>1</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="n">
+      <c r="M88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3810,24 +3508,21 @@
         <v>12.5</v>
       </c>
       <c r="F89" t="n">
-        <v>8790</v>
+        <v>100</v>
       </c>
       <c r="G89" t="n">
-        <v>12.50666666666666</v>
+        <v>164444.50985642</v>
       </c>
       <c r="H89" t="n">
-        <v>12.32500000000001</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>1</v>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="n">
+      <c r="M89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3836,36 +3531,33 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C90" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D90" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E90" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F90" t="n">
-        <v>9717.7557</v>
+        <v>10</v>
       </c>
       <c r="G90" t="n">
-        <v>12.5</v>
+        <v>164434.50985642</v>
       </c>
       <c r="H90" t="n">
-        <v>12.32833333333334</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>1</v>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="inlineStr"/>
-      <c r="N90" t="n">
+      <c r="M90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3874,36 +3566,33 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="C91" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D91" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E91" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="F91" t="n">
-        <v>212.5444</v>
+        <v>316301.1625</v>
       </c>
       <c r="G91" t="n">
-        <v>12.50666666666666</v>
+        <v>164434.50985642</v>
       </c>
       <c r="H91" t="n">
-        <v>12.33666666666667</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>1</v>
-      </c>
+      <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="inlineStr"/>
-      <c r="N91" t="n">
+      <c r="M91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3912,36 +3601,33 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C92" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D92" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E92" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F92" t="n">
-        <v>8330</v>
+        <v>800.0232</v>
       </c>
       <c r="G92" t="n">
-        <v>12.50666666666666</v>
+        <v>164434.50985642</v>
       </c>
       <c r="H92" t="n">
-        <v>12.34333333333334</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>1</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="inlineStr"/>
-      <c r="N92" t="n">
+      <c r="M92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3950,36 +3636,33 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C93" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D93" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E93" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F93" t="n">
-        <v>8330</v>
+        <v>152904.5253</v>
       </c>
       <c r="G93" t="n">
-        <v>12.5</v>
+        <v>317339.0351564201</v>
       </c>
       <c r="H93" t="n">
-        <v>12.34833333333334</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>1</v>
-      </c>
+      <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr"/>
-      <c r="N93" t="n">
+      <c r="M93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3988,36 +3671,33 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C94" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D94" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E94" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F94" t="n">
-        <v>8330</v>
+        <v>4370</v>
       </c>
       <c r="G94" t="n">
-        <v>12.5</v>
+        <v>312969.0351564201</v>
       </c>
       <c r="H94" t="n">
-        <v>12.35500000000001</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>1</v>
-      </c>
+      <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr"/>
-      <c r="N94" t="n">
+      <c r="M94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4026,36 +3706,33 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C95" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D95" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E95" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F95" t="n">
-        <v>10</v>
+        <v>40650.40650406504</v>
       </c>
       <c r="G95" t="n">
-        <v>12.49333333333333</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H95" t="n">
-        <v>12.36000000000001</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>1</v>
-      </c>
+      <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr"/>
-      <c r="N95" t="n">
+      <c r="M95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4064,36 +3741,33 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="C96" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D96" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E96" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="F96" t="n">
-        <v>48.3333</v>
+        <v>242229.8577</v>
       </c>
       <c r="G96" t="n">
-        <v>12.5</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H96" t="n">
-        <v>12.37000000000001</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>1</v>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="inlineStr"/>
-      <c r="N96" t="n">
+      <c r="M96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4102,36 +3776,33 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="C97" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D97" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E97" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="F97" t="n">
-        <v>207</v>
+        <v>17600</v>
       </c>
       <c r="G97" t="n">
-        <v>12.50666666666666</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H97" t="n">
-        <v>12.37833333333334</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>1</v>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="inlineStr"/>
-      <c r="N97" t="n">
+      <c r="M97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4140,36 +3811,33 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="C98" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D98" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E98" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="F98" t="n">
-        <v>74.6825</v>
+        <v>8180.0813</v>
       </c>
       <c r="G98" t="n">
-        <v>12.51333333333333</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H98" t="n">
-        <v>12.38833333333334</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>1</v>
-      </c>
+      <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="inlineStr"/>
-      <c r="N98" t="n">
+      <c r="M98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4178,36 +3846,33 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C99" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D99" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E99" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F99" t="n">
-        <v>10</v>
+        <v>10500</v>
       </c>
       <c r="G99" t="n">
-        <v>12.51333333333333</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H99" t="n">
-        <v>12.39500000000001</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>1</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="inlineStr"/>
-      <c r="N99" t="n">
+      <c r="M99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4216,36 +3881,33 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C100" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D100" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E100" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F100" t="n">
-        <v>10019</v>
+        <v>609.5934</v>
       </c>
       <c r="G100" t="n">
-        <v>12.51333333333333</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H100" t="n">
-        <v>12.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>1</v>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="inlineStr"/>
-      <c r="N100" t="n">
+      <c r="M100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4254,36 +3916,33 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C101" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D101" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E101" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F101" t="n">
-        <v>17590</v>
+        <v>771172.48</v>
       </c>
       <c r="G101" t="n">
-        <v>12.51333333333333</v>
+        <v>1124791.921660485</v>
       </c>
       <c r="H101" t="n">
-        <v>12.405</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>1</v>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="inlineStr"/>
-      <c r="N101" t="n">
+      <c r="M101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4292,36 +3951,33 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C102" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D102" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E102" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F102" t="n">
-        <v>4170</v>
+        <v>4400</v>
       </c>
       <c r="G102" t="n">
-        <v>12.51333333333333</v>
+        <v>1124791.921660485</v>
       </c>
       <c r="H102" t="n">
-        <v>12.41</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>1</v>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="inlineStr"/>
-      <c r="N102" t="n">
+      <c r="M102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4342,24 +3998,21 @@
         <v>12.5</v>
       </c>
       <c r="F103" t="n">
-        <v>4170</v>
+        <v>188919.5574</v>
       </c>
       <c r="G103" t="n">
-        <v>12.51999999999999</v>
+        <v>1313711.479060485</v>
       </c>
       <c r="H103" t="n">
-        <v>12.41666666666667</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>1</v>
-      </c>
+      <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="inlineStr"/>
-      <c r="N103" t="n">
+      <c r="M103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,36 +4021,33 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C104" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D104" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E104" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F104" t="n">
-        <v>4180</v>
+        <v>73849.8412</v>
       </c>
       <c r="G104" t="n">
-        <v>12.51999999999999</v>
+        <v>1387561.320260485</v>
       </c>
       <c r="H104" t="n">
-        <v>12.42000000000001</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>1</v>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="inlineStr"/>
-      <c r="N104" t="n">
+      <c r="M104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4406,36 +4056,33 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C105" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D105" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E105" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F105" t="n">
         <v>10</v>
       </c>
       <c r="G105" t="n">
-        <v>12.51333333333333</v>
+        <v>1387551.320260485</v>
       </c>
       <c r="H105" t="n">
-        <v>12.42333333333334</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>1</v>
-      </c>
+      <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="inlineStr"/>
-      <c r="N105" t="n">
+      <c r="M105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4456,24 +4103,21 @@
         <v>12.5</v>
       </c>
       <c r="F106" t="n">
-        <v>4170</v>
+        <v>54414.189</v>
       </c>
       <c r="G106" t="n">
-        <v>12.50666666666666</v>
+        <v>1387551.320260485</v>
       </c>
       <c r="H106" t="n">
-        <v>12.43</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="inlineStr"/>
-      <c r="N106" t="n">
+      <c r="M106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4482,36 +4126,33 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C107" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D107" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E107" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F107" t="n">
-        <v>4180</v>
+        <v>40983.6064</v>
       </c>
       <c r="G107" t="n">
-        <v>12.50666666666666</v>
+        <v>1428534.926660485</v>
       </c>
       <c r="H107" t="n">
-        <v>12.435</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>1</v>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="inlineStr"/>
-      <c r="N107" t="n">
+      <c r="M107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4520,36 +4161,33 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E108" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F108" t="n">
         <v>10</v>
       </c>
       <c r="G108" t="n">
-        <v>12.5</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H108" t="n">
-        <v>12.43833333333333</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>1</v>
-      </c>
+      <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="inlineStr"/>
-      <c r="N108" t="n">
+      <c r="M108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4570,24 +4208,21 @@
         <v>12.5</v>
       </c>
       <c r="F109" t="n">
-        <v>4170</v>
+        <v>5598.6407</v>
       </c>
       <c r="G109" t="n">
-        <v>12.5</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H109" t="n">
-        <v>12.44166666666667</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>1</v>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="inlineStr"/>
-      <c r="N109" t="n">
+      <c r="M109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4596,36 +4231,33 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C110" t="n">
         <v>12.5</v>
       </c>
       <c r="D110" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E110" t="n">
         <v>12.5</v>
       </c>
       <c r="F110" t="n">
-        <v>4270</v>
+        <v>2459.336</v>
       </c>
       <c r="G110" t="n">
-        <v>12.50666666666666</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H110" t="n">
-        <v>12.445</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>1</v>
-      </c>
+      <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="inlineStr"/>
-      <c r="N110" t="n">
+      <c r="M110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4646,24 +4278,21 @@
         <v>12.5</v>
       </c>
       <c r="F111" t="n">
-        <v>4170</v>
+        <v>4215.9262</v>
       </c>
       <c r="G111" t="n">
-        <v>12.5</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H111" t="n">
-        <v>12.44833333333334</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>1</v>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="inlineStr"/>
-      <c r="N111" t="n">
+      <c r="M111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4684,24 +4313,21 @@
         <v>12.5</v>
       </c>
       <c r="F112" t="n">
-        <v>4170</v>
+        <v>16220.1729</v>
       </c>
       <c r="G112" t="n">
-        <v>12.49333333333333</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H112" t="n">
-        <v>12.45</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>1</v>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="n">
+      <c r="M112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4710,36 +4336,33 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C113" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D113" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E113" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F113" t="n">
-        <v>20</v>
+        <v>6014.524</v>
       </c>
       <c r="G113" t="n">
-        <v>12.48</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H113" t="n">
-        <v>12.45</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>1</v>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="n">
+      <c r="M113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4760,24 +4383,1036 @@
         <v>12.5</v>
       </c>
       <c r="F114" t="n">
-        <v>4170</v>
+        <v>2500</v>
       </c>
       <c r="G114" t="n">
-        <v>12.48</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H114" t="n">
-        <v>12.45</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>1</v>
-      </c>
+      <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="n">
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C115" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D115" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E115" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F115" t="n">
+        <v>44332.7434</v>
+      </c>
+      <c r="G115" t="n">
+        <v>1428524.926660485</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E116" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F116" t="n">
+        <v>19989.0263</v>
+      </c>
+      <c r="G116" t="n">
+        <v>1428524.926660485</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C117" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D117" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E117" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F117" t="n">
+        <v>10</v>
+      </c>
+      <c r="G117" t="n">
+        <v>1428514.926660485</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E118" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F118" t="n">
+        <v>8790</v>
+      </c>
+      <c r="G118" t="n">
+        <v>1437304.926660485</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C119" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D119" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E119" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F119" t="n">
+        <v>9717.7557</v>
+      </c>
+      <c r="G119" t="n">
+        <v>1437304.926660485</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C120" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D120" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E120" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F120" t="n">
+        <v>212.5444</v>
+      </c>
+      <c r="G120" t="n">
+        <v>1437517.471060485</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E121" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F121" t="n">
+        <v>8330</v>
+      </c>
+      <c r="G121" t="n">
+        <v>1429187.471060485</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>1</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E122" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F122" t="n">
+        <v>8330</v>
+      </c>
+      <c r="G122" t="n">
+        <v>1429187.471060485</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E123" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F123" t="n">
+        <v>8330</v>
+      </c>
+      <c r="G123" t="n">
+        <v>1429187.471060485</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>1</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E124" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F124" t="n">
+        <v>10</v>
+      </c>
+      <c r="G124" t="n">
+        <v>1429177.471060485</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>1</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C125" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D125" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E125" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F125" t="n">
+        <v>48.3333</v>
+      </c>
+      <c r="G125" t="n">
+        <v>1429225.804360485</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E126" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F126" t="n">
+        <v>207</v>
+      </c>
+      <c r="G126" t="n">
+        <v>1429225.804360485</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>1</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E127" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F127" t="n">
+        <v>74.6825</v>
+      </c>
+      <c r="G127" t="n">
+        <v>1429225.804360485</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>1</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E128" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F128" t="n">
+        <v>10</v>
+      </c>
+      <c r="G128" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E129" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F129" t="n">
+        <v>10019</v>
+      </c>
+      <c r="G129" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E130" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F130" t="n">
+        <v>17590</v>
+      </c>
+      <c r="G130" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E131" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F131" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G131" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C132" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D132" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E132" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F132" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C133" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D133" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E133" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F133" t="n">
+        <v>4180</v>
+      </c>
+      <c r="G133" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C134" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D134" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E134" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F134" t="n">
+        <v>10</v>
+      </c>
+      <c r="G134" t="n">
+        <v>1429205.804360485</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E135" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F135" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G135" t="n">
+        <v>1433375.804360485</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C136" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D136" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E136" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F136" t="n">
+        <v>4180</v>
+      </c>
+      <c r="G136" t="n">
+        <v>1433375.804360485</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C137" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D137" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E137" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F137" t="n">
+        <v>10</v>
+      </c>
+      <c r="G137" t="n">
+        <v>1433365.804360485</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C138" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D138" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E138" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F138" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G138" t="n">
+        <v>1437535.804360485</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C139" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D139" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E139" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F139" t="n">
+        <v>4270</v>
+      </c>
+      <c r="G139" t="n">
+        <v>1437535.804360485</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E140" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F140" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G140" t="n">
+        <v>1437535.804360485</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C141" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D141" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E141" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F141" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G141" t="n">
+        <v>1437535.804360485</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C142" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D142" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E142" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F142" t="n">
+        <v>20</v>
+      </c>
+      <c r="G142" t="n">
+        <v>1437515.804360485</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C143" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D143" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E143" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F143" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G143" t="n">
+        <v>1441685.804360485</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:N143"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -427,6 +427,11 @@
           <t>Profits</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Price_gap</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -462,6 +467,7 @@
       <c r="M2" t="n">
         <v>1</v>
       </c>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -501,6 +507,7 @@
       <c r="M3" t="n">
         <v>1</v>
       </c>
+      <c r="N3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -544,6 +551,7 @@
       <c r="M4" t="n">
         <v>1</v>
       </c>
+      <c r="N4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -585,6 +593,7 @@
       <c r="M5" t="n">
         <v>1</v>
       </c>
+      <c r="N5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -620,6 +629,7 @@
       <c r="M6" t="n">
         <v>1</v>
       </c>
+      <c r="N6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -655,6 +665,7 @@
       <c r="M7" t="n">
         <v>1</v>
       </c>
+      <c r="N7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,6 +701,7 @@
       <c r="M8" t="n">
         <v>1</v>
       </c>
+      <c r="N8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -725,6 +737,7 @@
       <c r="M9" t="n">
         <v>1</v>
       </c>
+      <c r="N9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -760,6 +773,7 @@
       <c r="M10" t="n">
         <v>1</v>
       </c>
+      <c r="N10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -795,6 +809,7 @@
       <c r="M11" t="n">
         <v>1</v>
       </c>
+      <c r="N11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -830,6 +845,7 @@
       <c r="M12" t="n">
         <v>1</v>
       </c>
+      <c r="N12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -865,6 +881,7 @@
       <c r="M13" t="n">
         <v>1</v>
       </c>
+      <c r="N13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -900,6 +917,7 @@
       <c r="M14" t="n">
         <v>1</v>
       </c>
+      <c r="N14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -935,6 +953,7 @@
       <c r="M15" t="n">
         <v>1</v>
       </c>
+      <c r="N15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -970,6 +989,7 @@
       <c r="M16" t="n">
         <v>1</v>
       </c>
+      <c r="N16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1005,6 +1025,7 @@
       <c r="M17" t="n">
         <v>1</v>
       </c>
+      <c r="N17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1040,6 +1061,7 @@
       <c r="M18" t="n">
         <v>1</v>
       </c>
+      <c r="N18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1075,6 +1097,7 @@
       <c r="M19" t="n">
         <v>1</v>
       </c>
+      <c r="N19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1110,6 +1133,7 @@
       <c r="M20" t="n">
         <v>1</v>
       </c>
+      <c r="N20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1145,6 +1169,7 @@
       <c r="M21" t="n">
         <v>1</v>
       </c>
+      <c r="N21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1180,6 +1205,7 @@
       <c r="M22" t="n">
         <v>1</v>
       </c>
+      <c r="N22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1215,6 +1241,7 @@
       <c r="M23" t="n">
         <v>1</v>
       </c>
+      <c r="N23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,6 +1277,7 @@
       <c r="M24" t="n">
         <v>1</v>
       </c>
+      <c r="N24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1285,6 +1313,7 @@
       <c r="M25" t="n">
         <v>1</v>
       </c>
+      <c r="N25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1320,6 +1349,7 @@
       <c r="M26" t="n">
         <v>1</v>
       </c>
+      <c r="N26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1355,6 +1385,7 @@
       <c r="M27" t="n">
         <v>1</v>
       </c>
+      <c r="N27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1390,6 +1421,7 @@
       <c r="M28" t="n">
         <v>1</v>
       </c>
+      <c r="N28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1425,6 +1457,7 @@
       <c r="M29" t="n">
         <v>1</v>
       </c>
+      <c r="N29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1460,6 +1493,7 @@
       <c r="M30" t="n">
         <v>1</v>
       </c>
+      <c r="N30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1495,6 +1529,7 @@
       <c r="M31" t="n">
         <v>1</v>
       </c>
+      <c r="N31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1530,6 +1565,7 @@
       <c r="M32" t="n">
         <v>1</v>
       </c>
+      <c r="N32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1565,6 +1601,7 @@
       <c r="M33" t="n">
         <v>1</v>
       </c>
+      <c r="N33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1600,6 +1637,7 @@
       <c r="M34" t="n">
         <v>1</v>
       </c>
+      <c r="N34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1635,6 +1673,7 @@
       <c r="M35" t="n">
         <v>1</v>
       </c>
+      <c r="N35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1670,6 +1709,7 @@
       <c r="M36" t="n">
         <v>1</v>
       </c>
+      <c r="N36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1705,6 +1745,7 @@
       <c r="M37" t="n">
         <v>1</v>
       </c>
+      <c r="N37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1740,6 +1781,7 @@
       <c r="M38" t="n">
         <v>1</v>
       </c>
+      <c r="N38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1775,6 +1817,7 @@
       <c r="M39" t="n">
         <v>1</v>
       </c>
+      <c r="N39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1810,6 +1853,7 @@
       <c r="M40" t="n">
         <v>1</v>
       </c>
+      <c r="N40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1845,6 +1889,7 @@
       <c r="M41" t="n">
         <v>1</v>
       </c>
+      <c r="N41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1880,6 +1925,7 @@
       <c r="M42" t="n">
         <v>1</v>
       </c>
+      <c r="N42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1915,6 +1961,7 @@
       <c r="M43" t="n">
         <v>1</v>
       </c>
+      <c r="N43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1950,6 +1997,7 @@
       <c r="M44" t="n">
         <v>1</v>
       </c>
+      <c r="N44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1985,6 +2033,7 @@
       <c r="M45" t="n">
         <v>1</v>
       </c>
+      <c r="N45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2020,6 +2069,7 @@
       <c r="M46" t="n">
         <v>1</v>
       </c>
+      <c r="N46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2055,6 +2105,7 @@
       <c r="M47" t="n">
         <v>1</v>
       </c>
+      <c r="N47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2090,6 +2141,7 @@
       <c r="M48" t="n">
         <v>1</v>
       </c>
+      <c r="N48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2125,6 +2177,7 @@
       <c r="M49" t="n">
         <v>1</v>
       </c>
+      <c r="N49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2160,6 +2213,7 @@
       <c r="M50" t="n">
         <v>1</v>
       </c>
+      <c r="N50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2195,6 +2249,7 @@
       <c r="M51" t="n">
         <v>1</v>
       </c>
+      <c r="N51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2230,6 +2285,7 @@
       <c r="M52" t="n">
         <v>1</v>
       </c>
+      <c r="N52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2265,6 +2321,7 @@
       <c r="M53" t="n">
         <v>1</v>
       </c>
+      <c r="N53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2300,6 +2357,7 @@
       <c r="M54" t="n">
         <v>1</v>
       </c>
+      <c r="N54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2335,6 +2393,7 @@
       <c r="M55" t="n">
         <v>1</v>
       </c>
+      <c r="N55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2370,6 +2429,7 @@
       <c r="M56" t="n">
         <v>1</v>
       </c>
+      <c r="N56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2405,6 +2465,7 @@
       <c r="M57" t="n">
         <v>1</v>
       </c>
+      <c r="N57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2440,6 +2501,7 @@
       <c r="M58" t="n">
         <v>1</v>
       </c>
+      <c r="N58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2475,6 +2537,7 @@
       <c r="M59" t="n">
         <v>1</v>
       </c>
+      <c r="N59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2510,6 +2573,7 @@
       <c r="M60" t="n">
         <v>1</v>
       </c>
+      <c r="N60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2545,6 +2609,7 @@
       <c r="M61" t="n">
         <v>1</v>
       </c>
+      <c r="N61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2580,6 +2645,7 @@
       <c r="M62" t="n">
         <v>1</v>
       </c>
+      <c r="N62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2615,6 +2681,7 @@
       <c r="M63" t="n">
         <v>1</v>
       </c>
+      <c r="N63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2650,6 +2717,7 @@
       <c r="M64" t="n">
         <v>1</v>
       </c>
+      <c r="N64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2685,6 +2753,7 @@
       <c r="M65" t="n">
         <v>1</v>
       </c>
+      <c r="N65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2720,6 +2789,7 @@
       <c r="M66" t="n">
         <v>1</v>
       </c>
+      <c r="N66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2755,6 +2825,7 @@
       <c r="M67" t="n">
         <v>1</v>
       </c>
+      <c r="N67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2790,6 +2861,7 @@
       <c r="M68" t="n">
         <v>1</v>
       </c>
+      <c r="N68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2825,6 +2897,7 @@
       <c r="M69" t="n">
         <v>1</v>
       </c>
+      <c r="N69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2860,6 +2933,7 @@
       <c r="M70" t="n">
         <v>1</v>
       </c>
+      <c r="N70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2895,6 +2969,7 @@
       <c r="M71" t="n">
         <v>1</v>
       </c>
+      <c r="N71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2930,6 +3005,7 @@
       <c r="M72" t="n">
         <v>1</v>
       </c>
+      <c r="N72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2965,6 +3041,7 @@
       <c r="M73" t="n">
         <v>1</v>
       </c>
+      <c r="N73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3000,6 +3077,7 @@
       <c r="M74" t="n">
         <v>1</v>
       </c>
+      <c r="N74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3035,6 +3113,7 @@
       <c r="M75" t="n">
         <v>1</v>
       </c>
+      <c r="N75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3070,6 +3149,7 @@
       <c r="M76" t="n">
         <v>1</v>
       </c>
+      <c r="N76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3105,6 +3185,7 @@
       <c r="M77" t="n">
         <v>1</v>
       </c>
+      <c r="N77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3140,6 +3221,7 @@
       <c r="M78" t="n">
         <v>1</v>
       </c>
+      <c r="N78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3175,6 +3257,7 @@
       <c r="M79" t="n">
         <v>1</v>
       </c>
+      <c r="N79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3210,6 +3293,7 @@
       <c r="M80" t="n">
         <v>1</v>
       </c>
+      <c r="N80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3245,6 +3329,7 @@
       <c r="M81" t="n">
         <v>1</v>
       </c>
+      <c r="N81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3280,6 +3365,7 @@
       <c r="M82" t="n">
         <v>1</v>
       </c>
+      <c r="N82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3315,6 +3401,7 @@
       <c r="M83" t="n">
         <v>1</v>
       </c>
+      <c r="N83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3350,6 +3437,7 @@
       <c r="M84" t="n">
         <v>1</v>
       </c>
+      <c r="N84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3385,6 +3473,7 @@
       <c r="M85" t="n">
         <v>1</v>
       </c>
+      <c r="N85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3420,6 +3509,7 @@
       <c r="M86" t="n">
         <v>1</v>
       </c>
+      <c r="N86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3455,6 +3545,7 @@
       <c r="M87" t="n">
         <v>1</v>
       </c>
+      <c r="N87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3490,6 +3581,7 @@
       <c r="M88" t="n">
         <v>1</v>
       </c>
+      <c r="N88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3525,6 +3617,7 @@
       <c r="M89" t="n">
         <v>1</v>
       </c>
+      <c r="N89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3560,6 +3653,7 @@
       <c r="M90" t="n">
         <v>1</v>
       </c>
+      <c r="N90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3595,6 +3689,7 @@
       <c r="M91" t="n">
         <v>1</v>
       </c>
+      <c r="N91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3630,6 +3725,7 @@
       <c r="M92" t="n">
         <v>1</v>
       </c>
+      <c r="N92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3665,6 +3761,7 @@
       <c r="M93" t="n">
         <v>1</v>
       </c>
+      <c r="N93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3700,6 +3797,7 @@
       <c r="M94" t="n">
         <v>1</v>
       </c>
+      <c r="N94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3735,6 +3833,7 @@
       <c r="M95" t="n">
         <v>1</v>
       </c>
+      <c r="N95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3770,6 +3869,7 @@
       <c r="M96" t="n">
         <v>1</v>
       </c>
+      <c r="N96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3805,6 +3905,7 @@
       <c r="M97" t="n">
         <v>1</v>
       </c>
+      <c r="N97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3840,6 +3941,7 @@
       <c r="M98" t="n">
         <v>1</v>
       </c>
+      <c r="N98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3875,6 +3977,7 @@
       <c r="M99" t="n">
         <v>1</v>
       </c>
+      <c r="N99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3910,6 +4013,7 @@
       <c r="M100" t="n">
         <v>1</v>
       </c>
+      <c r="N100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3945,6 +4049,7 @@
       <c r="M101" t="n">
         <v>1</v>
       </c>
+      <c r="N101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -3980,6 +4085,7 @@
       <c r="M102" t="n">
         <v>1</v>
       </c>
+      <c r="N102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4015,6 +4121,7 @@
       <c r="M103" t="n">
         <v>1</v>
       </c>
+      <c r="N103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4050,6 +4157,7 @@
       <c r="M104" t="n">
         <v>1</v>
       </c>
+      <c r="N104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4085,6 +4193,7 @@
       <c r="M105" t="n">
         <v>1</v>
       </c>
+      <c r="N105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4120,6 +4229,7 @@
       <c r="M106" t="n">
         <v>1</v>
       </c>
+      <c r="N106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4155,6 +4265,7 @@
       <c r="M107" t="n">
         <v>1</v>
       </c>
+      <c r="N107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4182,7 +4293,7 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
@@ -4190,6 +4301,7 @@
       <c r="M108" t="n">
         <v>1</v>
       </c>
+      <c r="N108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4225,6 +4337,7 @@
       <c r="M109" t="n">
         <v>1</v>
       </c>
+      <c r="N109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4260,6 +4373,7 @@
       <c r="M110" t="n">
         <v>1</v>
       </c>
+      <c r="N110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4295,6 +4409,7 @@
       <c r="M111" t="n">
         <v>1</v>
       </c>
+      <c r="N111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4330,6 +4445,7 @@
       <c r="M112" t="n">
         <v>1</v>
       </c>
+      <c r="N112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4365,6 +4481,7 @@
       <c r="M113" t="n">
         <v>1</v>
       </c>
+      <c r="N113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4400,6 +4517,7 @@
       <c r="M114" t="n">
         <v>1</v>
       </c>
+      <c r="N114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4435,6 +4553,7 @@
       <c r="M115" t="n">
         <v>1</v>
       </c>
+      <c r="N115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4470,6 +4589,7 @@
       <c r="M116" t="n">
         <v>1</v>
       </c>
+      <c r="N116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4497,7 +4617,7 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
@@ -4505,6 +4625,7 @@
       <c r="M117" t="n">
         <v>1</v>
       </c>
+      <c r="N117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4540,6 +4661,7 @@
       <c r="M118" t="n">
         <v>1</v>
       </c>
+      <c r="N118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4575,6 +4697,7 @@
       <c r="M119" t="n">
         <v>1</v>
       </c>
+      <c r="N119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4602,7 +4725,7 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
@@ -4610,6 +4733,7 @@
       <c r="M120" t="n">
         <v>1</v>
       </c>
+      <c r="N120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4645,6 +4769,7 @@
       <c r="M121" t="n">
         <v>1</v>
       </c>
+      <c r="N121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4672,7 +4797,7 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
@@ -4680,6 +4805,7 @@
       <c r="M122" t="n">
         <v>1</v>
       </c>
+      <c r="N122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4715,6 +4841,7 @@
       <c r="M123" t="n">
         <v>1</v>
       </c>
+      <c r="N123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4750,6 +4877,7 @@
       <c r="M124" t="n">
         <v>1</v>
       </c>
+      <c r="N124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4777,7 +4905,7 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
@@ -4785,6 +4913,7 @@
       <c r="M125" t="n">
         <v>1</v>
       </c>
+      <c r="N125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4820,6 +4949,7 @@
       <c r="M126" t="n">
         <v>1</v>
       </c>
+      <c r="N126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4855,6 +4985,7 @@
       <c r="M127" t="n">
         <v>1</v>
       </c>
+      <c r="N127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4890,6 +5021,7 @@
       <c r="M128" t="n">
         <v>1</v>
       </c>
+      <c r="N128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4917,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
@@ -4925,6 +5057,7 @@
       <c r="M129" t="n">
         <v>1</v>
       </c>
+      <c r="N129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4952,7 +5085,7 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
@@ -4960,6 +5093,7 @@
       <c r="M130" t="n">
         <v>1</v>
       </c>
+      <c r="N130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4987,7 +5121,7 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
@@ -4995,6 +5129,7 @@
       <c r="M131" t="n">
         <v>1</v>
       </c>
+      <c r="N131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5022,7 +5157,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
@@ -5030,6 +5165,7 @@
       <c r="M132" t="n">
         <v>1</v>
       </c>
+      <c r="N132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5057,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -5065,6 +5201,7 @@
       <c r="M133" t="n">
         <v>1</v>
       </c>
+      <c r="N133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5092,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
@@ -5100,6 +5237,7 @@
       <c r="M134" t="n">
         <v>1</v>
       </c>
+      <c r="N134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5127,7 +5265,7 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
@@ -5135,6 +5273,7 @@
       <c r="M135" t="n">
         <v>1</v>
       </c>
+      <c r="N135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5162,7 +5301,7 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
@@ -5170,6 +5309,7 @@
       <c r="M136" t="n">
         <v>1</v>
       </c>
+      <c r="N136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5197,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
@@ -5205,6 +5345,7 @@
       <c r="M137" t="n">
         <v>1</v>
       </c>
+      <c r="N137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5240,6 +5381,7 @@
       <c r="M138" t="n">
         <v>1</v>
       </c>
+      <c r="N138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5267,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
@@ -5275,6 +5417,7 @@
       <c r="M139" t="n">
         <v>1</v>
       </c>
+      <c r="N139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5302,7 +5445,7 @@
         <v>0</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
@@ -5310,6 +5453,7 @@
       <c r="M140" t="n">
         <v>1</v>
       </c>
+      <c r="N140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5337,7 +5481,7 @@
         <v>0</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
@@ -5345,6 +5489,7 @@
       <c r="M141" t="n">
         <v>1</v>
       </c>
+      <c r="N141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5380,6 +5525,7 @@
       <c r="M142" t="n">
         <v>1</v>
       </c>
+      <c r="N142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5415,6 +5561,7 @@
       <c r="M143" t="n">
         <v>1</v>
       </c>
+      <c r="N143" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N143"/>
+  <dimension ref="A1:N172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,7 +429,7 @@
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>Price_gap</t>
+          <t>Price_point</t>
         </is>
       </c>
     </row>
@@ -438,25 +438,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C2" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D2" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E2" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F2" t="n">
-        <v>702.1494</v>
+        <v>22380</v>
       </c>
       <c r="G2" t="n">
-        <v>-467740.5337435799</v>
+        <v>-187165.7364634146</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -474,35 +474,31 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C3" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="D3" t="n">
-        <v>11.7</v>
+        <v>12.2</v>
       </c>
       <c r="E3" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F3" t="n">
-        <v>1297.8506</v>
+        <v>32050.1639</v>
       </c>
       <c r="G3" t="n">
-        <v>-469038.3843435799</v>
+        <v>-155115.5725634146</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.8</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
@@ -514,40 +510,32 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="C4" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="D4" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="E4" t="n">
-        <v>11.9</v>
+        <v>12.1</v>
       </c>
       <c r="F4" t="n">
-        <v>1379.5126</v>
+        <v>7460</v>
       </c>
       <c r="G4" t="n">
-        <v>-467658.8717435799</v>
+        <v>-162575.5725634146</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -558,22 +546,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C5" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D5" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E5" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F5" t="n">
-        <v>43011.5571</v>
+        <v>10000</v>
       </c>
       <c r="G5" t="n">
-        <v>-510670.4288435799</v>
+        <v>-162575.5725634146</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -582,14 +570,8 @@
         <v>0</v>
       </c>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
       </c>
@@ -600,22 +582,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="C6" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="D6" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="E6" t="n">
-        <v>11.7</v>
+        <v>12.1</v>
       </c>
       <c r="F6" t="n">
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>-510670.4288435799</v>
+        <v>-162575.5725634146</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -636,22 +618,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>11.9</v>
+        <v>12</v>
       </c>
       <c r="F7" t="n">
-        <v>2500</v>
+        <v>17743.2151</v>
       </c>
       <c r="G7" t="n">
-        <v>-508170.4288435799</v>
+        <v>-180318.7876634146</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -672,22 +654,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D8" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E8" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F8" t="n">
-        <v>10</v>
+        <v>134290.2003</v>
       </c>
       <c r="G8" t="n">
-        <v>-508180.4288435799</v>
+        <v>-180318.7876634146</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -708,22 +690,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="D9" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="E9" t="n">
-        <v>11.8</v>
+        <v>12</v>
       </c>
       <c r="F9" t="n">
-        <v>61135.5683</v>
+        <v>16067.6852</v>
       </c>
       <c r="G9" t="n">
-        <v>-447044.8605435799</v>
+        <v>-180318.7876634146</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -744,22 +726,22 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="C10" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D10" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E10" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="F10" t="n">
-        <v>6345.7876</v>
+        <v>7862.2314</v>
       </c>
       <c r="G10" t="n">
-        <v>-447044.8605435799</v>
+        <v>-172456.5562634146</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -780,22 +762,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C11" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E11" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F11" t="n">
-        <v>10</v>
+        <v>16220.9999</v>
       </c>
       <c r="G11" t="n">
-        <v>-447054.8605435799</v>
+        <v>-188677.5561634146</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -816,22 +798,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>11.7</v>
+        <v>12</v>
       </c>
       <c r="F12" t="n">
-        <v>1368.6728</v>
+        <v>710.2800999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-447054.8605435799</v>
+        <v>-188677.5561634146</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -864,10 +846,10 @@
         <v>11.9</v>
       </c>
       <c r="F13" t="n">
-        <v>4705.3781</v>
+        <v>68694.39870000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-442349.4824435799</v>
+        <v>-257371.9548634146</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -888,22 +870,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C14" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D14" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E14" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F14" t="n">
-        <v>3140</v>
+        <v>278533.4683</v>
       </c>
       <c r="G14" t="n">
-        <v>-445489.4824435799</v>
+        <v>-257371.9548634146</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -924,22 +906,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="C15" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="D15" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="E15" t="n">
-        <v>11.7</v>
+        <v>11.9</v>
       </c>
       <c r="F15" t="n">
-        <v>10</v>
+        <v>3847.7764</v>
       </c>
       <c r="G15" t="n">
-        <v>-445499.4824435799</v>
+        <v>-257371.9548634146</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -972,10 +954,10 @@
         <v>11.9</v>
       </c>
       <c r="F16" t="n">
-        <v>11</v>
+        <v>42925.9996</v>
       </c>
       <c r="G16" t="n">
-        <v>-445488.4824435799</v>
+        <v>-257371.9548634146</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -996,22 +978,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C17" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D17" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E17" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F17" t="n">
-        <v>10</v>
+        <v>2970</v>
       </c>
       <c r="G17" t="n">
-        <v>-445498.4824435799</v>
+        <v>-257371.9548634146</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1035,19 +1017,19 @@
         <v>11.8</v>
       </c>
       <c r="C18" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D18" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E18" t="n">
         <v>11.8</v>
       </c>
       <c r="F18" t="n">
-        <v>6569.8065</v>
+        <v>135481.0847</v>
       </c>
       <c r="G18" t="n">
-        <v>-438928.6759435799</v>
+        <v>-392853.0395634146</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1068,22 +1050,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C19" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D19" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E19" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F19" t="n">
-        <v>29569.1604</v>
+        <v>64518</v>
       </c>
       <c r="G19" t="n">
-        <v>-438928.6759435799</v>
+        <v>-457371.0395634146</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1104,22 +1086,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C20" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D20" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E20" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>-438938.6759435799</v>
+        <v>-457360.0395634146</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1143,28 +1125,32 @@
         <v>11.8</v>
       </c>
       <c r="C21" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D21" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E21" t="n">
         <v>11.8</v>
       </c>
       <c r="F21" t="n">
-        <v>48146.8396</v>
+        <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-390791.8363435799</v>
+        <v>-457370.0395634146</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K21" t="n">
+        <v>11.9</v>
+      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
@@ -1176,32 +1162,40 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C22" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="D22" t="n">
-        <v>11.8</v>
+        <v>12.1</v>
       </c>
       <c r="E22" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F22" t="n">
-        <v>3367.5764</v>
+        <v>24985.97771983471</v>
       </c>
       <c r="G22" t="n">
-        <v>-394159.4127435799</v>
+        <v>-432384.0618435799</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1212,22 +1206,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C23" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E23" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F23" t="n">
-        <v>7098.375</v>
+        <v>9390</v>
       </c>
       <c r="G23" t="n">
-        <v>-387061.0377435799</v>
+        <v>-441774.0618435799</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1236,8 +1230,14 @@
         <v>0</v>
       </c>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C24" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D24" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E24" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F24" t="n">
-        <v>10</v>
+        <v>9390</v>
       </c>
       <c r="G24" t="n">
-        <v>-387071.0377435799</v>
+        <v>-441774.0618435799</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1272,8 +1272,14 @@
         <v>0</v>
       </c>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1296,10 +1302,10 @@
         <v>11.9</v>
       </c>
       <c r="F25" t="n">
-        <v>50000</v>
+        <v>3070</v>
       </c>
       <c r="G25" t="n">
-        <v>-337071.0377435799</v>
+        <v>-441774.0618435799</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1308,8 +1314,14 @@
         <v>0</v>
       </c>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1320,22 +1332,22 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E26" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F26" t="n">
-        <v>168.175</v>
+        <v>1285.9663</v>
       </c>
       <c r="G26" t="n">
-        <v>-336902.86274358</v>
+        <v>-441774.0618435799</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1344,8 +1356,14 @@
         <v>0</v>
       </c>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1356,22 +1374,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D27" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E27" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F27" t="n">
-        <v>34468.4708</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-336902.86274358</v>
+        <v>-441774.0618435799</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1380,8 +1398,14 @@
         <v>0</v>
       </c>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1392,22 +1416,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E28" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F28" t="n">
-        <v>8143.7121</v>
+        <v>60</v>
       </c>
       <c r="G28" t="n">
-        <v>-345046.57484358</v>
+        <v>-441774.0618435799</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1416,8 +1440,14 @@
         <v>0</v>
       </c>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1428,22 +1458,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="C29" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="D29" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="E29" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="F29" t="n">
-        <v>5000.0001</v>
+        <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>-345046.57484358</v>
+        <v>-441774.0618435799</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1452,8 +1482,14 @@
         <v>0</v>
       </c>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1476,10 +1512,10 @@
         <v>11.8</v>
       </c>
       <c r="F30" t="n">
-        <v>4500</v>
+        <v>25966.4719</v>
       </c>
       <c r="G30" t="n">
-        <v>-345046.57484358</v>
+        <v>-467740.5337435799</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1488,8 +1524,14 @@
         <v>0</v>
       </c>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1500,32 +1542,40 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C31" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="E31" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F31" t="n">
-        <v>253.4166</v>
+        <v>702.1494</v>
       </c>
       <c r="G31" t="n">
-        <v>-344793.15824358</v>
+        <v>-467740.5337435799</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K31" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1536,32 +1586,40 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C32" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D32" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E32" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F32" t="n">
-        <v>10</v>
+        <v>1297.8506</v>
       </c>
       <c r="G32" t="n">
-        <v>-344803.15824358</v>
+        <v>-469038.3843435799</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K32" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1584,20 +1642,28 @@
         <v>11.9</v>
       </c>
       <c r="F33" t="n">
-        <v>37869.7999</v>
+        <v>1379.5126</v>
       </c>
       <c r="G33" t="n">
-        <v>-344803.15824358</v>
+        <v>-467658.8717435799</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K33" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1608,32 +1674,40 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C34" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D34" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E34" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F34" t="n">
-        <v>12</v>
+        <v>43011.5571</v>
       </c>
       <c r="G34" t="n">
-        <v>-344791.15824358</v>
+        <v>-510670.4288435799</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K34" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1644,32 +1718,40 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="C35" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="D35" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="E35" t="n">
-        <v>11.9</v>
+        <v>11.7</v>
       </c>
       <c r="F35" t="n">
         <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>-344801.15824358</v>
+        <v>-510670.4288435799</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K35" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1692,20 +1774,28 @@
         <v>11.9</v>
       </c>
       <c r="F36" t="n">
-        <v>68607.5107</v>
+        <v>2500</v>
       </c>
       <c r="G36" t="n">
-        <v>-344801.15824358</v>
+        <v>-508170.4288435799</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K36" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1716,32 +1806,40 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="C37" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="D37" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="E37" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="F37" t="n">
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-344811.15824358</v>
+        <v>-508180.4288435799</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K37" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1752,32 +1850,40 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="C38" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="D38" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="E38" t="n">
-        <v>11.9</v>
+        <v>11.8</v>
       </c>
       <c r="F38" t="n">
-        <v>165232.1497</v>
+        <v>61135.5683</v>
       </c>
       <c r="G38" t="n">
-        <v>-179579.00854358</v>
+        <v>-447044.8605435799</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K38" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -1788,22 +1894,22 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="C39" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D39" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E39" t="n">
-        <v>12</v>
+        <v>11.8</v>
       </c>
       <c r="F39" t="n">
-        <v>164695.2194</v>
+        <v>6345.7876</v>
       </c>
       <c r="G39" t="n">
-        <v>-14883.78914357995</v>
+        <v>-447044.8605435799</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1812,8 +1918,14 @@
         <v>0</v>
       </c>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -1824,22 +1936,22 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C40" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D40" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E40" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F40" t="n">
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>-14893.78914357995</v>
+        <v>-447054.8605435799</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1848,8 +1960,14 @@
         <v>0</v>
       </c>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -1860,32 +1978,40 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="C41" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="D41" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="E41" t="n">
-        <v>12</v>
+        <v>11.7</v>
       </c>
       <c r="F41" t="n">
-        <v>8437.2474</v>
+        <v>1368.6728</v>
       </c>
       <c r="G41" t="n">
-        <v>-14893.78914357995</v>
+        <v>-447054.8605435799</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K41" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -1896,32 +2022,40 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C42" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D42" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E42" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F42" t="n">
-        <v>15127.2509</v>
+        <v>4705.3781</v>
       </c>
       <c r="G42" t="n">
-        <v>233.4617564200453</v>
+        <v>-442349.4824435799</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K42" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -1932,32 +2066,40 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C43" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D43" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E43" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F43" t="n">
-        <v>225953.1906</v>
+        <v>3140</v>
       </c>
       <c r="G43" t="n">
-        <v>226186.6523564201</v>
+        <v>-445489.4824435799</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K43" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -1968,32 +2110,40 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="C44" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="D44" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="E44" t="n">
-        <v>12.2</v>
+        <v>11.7</v>
       </c>
       <c r="F44" t="n">
-        <v>1421.5574</v>
+        <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>226186.6523564201</v>
+        <v>-445499.4824435799</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K44" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2004,32 +2154,40 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C45" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D45" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E45" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F45" t="n">
-        <v>35583.8808</v>
+        <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>190602.7715564201</v>
+        <v>-445488.4824435799</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K45" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2040,32 +2198,40 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C46" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D46" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E46" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F46" t="n">
-        <v>40983.6065</v>
+        <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>231586.3780564201</v>
+        <v>-445498.4824435799</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K46" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2076,32 +2242,40 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C47" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D47" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E47" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F47" t="n">
-        <v>7883.1252</v>
+        <v>6569.8065</v>
       </c>
       <c r="G47" t="n">
-        <v>231586.3780564201</v>
+        <v>-438928.6759435799</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K47" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2112,32 +2286,40 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C48" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D48" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E48" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F48" t="n">
-        <v>50</v>
+        <v>29569.1604</v>
       </c>
       <c r="G48" t="n">
-        <v>231586.3780564201</v>
+        <v>-438928.6759435799</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K48" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2148,32 +2330,40 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="C49" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D49" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E49" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F49" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>231586.3780564201</v>
+        <v>-438938.6759435799</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K49" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2184,32 +2374,40 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C50" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D50" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E50" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F50" t="n">
-        <v>2600</v>
+        <v>48146.8396</v>
       </c>
       <c r="G50" t="n">
-        <v>231586.3780564201</v>
+        <v>-390791.8363435799</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K50" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2220,32 +2418,40 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C51" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D51" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E51" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F51" t="n">
-        <v>10</v>
+        <v>3367.5764</v>
       </c>
       <c r="G51" t="n">
-        <v>231586.3780564201</v>
+        <v>-394159.4127435799</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K51" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2256,32 +2462,40 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C52" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D52" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E52" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F52" t="n">
-        <v>3361.3444</v>
+        <v>7098.375</v>
       </c>
       <c r="G52" t="n">
-        <v>231586.3780564201</v>
+        <v>-387061.0377435799</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K52" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2292,22 +2506,22 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C53" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="D53" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E53" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="F53" t="n">
         <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>231586.3780564201</v>
+        <v>-387071.0377435799</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -2316,8 +2530,14 @@
         <v>0</v>
       </c>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
+      <c r="K53" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2328,22 +2548,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C54" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D54" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E54" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F54" t="n">
-        <v>30000</v>
+        <v>50000</v>
       </c>
       <c r="G54" t="n">
-        <v>231586.3780564201</v>
+        <v>-337071.0377435799</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2352,8 +2572,14 @@
         <v>0</v>
       </c>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
+      <c r="K54" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2364,32 +2590,40 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C55" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D55" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E55" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F55" t="n">
-        <v>45995.1533</v>
+        <v>168.175</v>
       </c>
       <c r="G55" t="n">
-        <v>185591.2247564201</v>
+        <v>-336902.86274358</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K55" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2400,22 +2634,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="C56" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="D56" t="n">
-        <v>12.4</v>
+        <v>12</v>
       </c>
       <c r="E56" t="n">
-        <v>12.4</v>
+        <v>11.8</v>
       </c>
       <c r="F56" t="n">
-        <v>241.9354</v>
+        <v>34468.4708</v>
       </c>
       <c r="G56" t="n">
-        <v>185833.1601564201</v>
+        <v>-336902.86274358</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2424,8 +2658,14 @@
         <v>0</v>
       </c>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
+      <c r="K56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2436,22 +2676,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C57" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D57" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E57" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F57" t="n">
-        <v>20</v>
+        <v>8143.7121</v>
       </c>
       <c r="G57" t="n">
-        <v>185813.1601564201</v>
+        <v>-345046.57484358</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2460,8 +2700,14 @@
         <v>0</v>
       </c>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
+      <c r="K57" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2472,22 +2718,22 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="C58" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D58" t="n">
-        <v>12.2</v>
+        <v>11.8</v>
       </c>
       <c r="E58" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F58" t="n">
-        <v>174518.1842</v>
+        <v>5000.0001</v>
       </c>
       <c r="G58" t="n">
-        <v>185813.1601564201</v>
+        <v>-345046.57484358</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2496,8 +2742,14 @@
         <v>0</v>
       </c>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
+      <c r="K58" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2508,22 +2760,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="C59" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="D59" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="E59" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="F59" t="n">
-        <v>11</v>
+        <v>4500</v>
       </c>
       <c r="G59" t="n">
-        <v>185824.1601564201</v>
+        <v>-345046.57484358</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2532,8 +2784,14 @@
         <v>0</v>
       </c>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
+      <c r="K59" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2544,32 +2802,40 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C60" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D60" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E60" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F60" t="n">
-        <v>10</v>
+        <v>253.4166</v>
       </c>
       <c r="G60" t="n">
-        <v>185814.1601564201</v>
+        <v>-344793.15824358</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K60" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2580,22 +2846,22 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C61" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D61" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E61" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F61" t="n">
-        <v>40890.395</v>
+        <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>185814.1601564201</v>
+        <v>-344803.15824358</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2604,8 +2870,14 @@
         <v>0</v>
       </c>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
+      <c r="K61" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -2616,22 +2888,22 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="C62" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="D62" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="E62" t="n">
-        <v>12.2</v>
+        <v>11.9</v>
       </c>
       <c r="F62" t="n">
-        <v>6147.6229</v>
+        <v>37869.7999</v>
       </c>
       <c r="G62" t="n">
-        <v>191961.78305642</v>
+        <v>-344803.15824358</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2640,8 +2912,14 @@
         <v>0</v>
       </c>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
+      <c r="K62" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -2652,22 +2930,22 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C63" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="D63" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="E63" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F63" t="n">
-        <v>91124.0831</v>
+        <v>12</v>
       </c>
       <c r="G63" t="n">
-        <v>100837.69995642</v>
+        <v>-344791.15824358</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2676,8 +2954,14 @@
         <v>0</v>
       </c>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
+      <c r="K63" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -2688,22 +2972,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="C64" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="D64" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="E64" t="n">
-        <v>12.1</v>
+        <v>11.9</v>
       </c>
       <c r="F64" t="n">
-        <v>810</v>
+        <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>100837.69995642</v>
+        <v>-344801.15824358</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2712,8 +2996,14 @@
         <v>0</v>
       </c>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
+      <c r="K64" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -2724,22 +3014,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E65" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F65" t="n">
-        <v>10</v>
+        <v>68607.5107</v>
       </c>
       <c r="G65" t="n">
-        <v>100827.69995642</v>
+        <v>-344801.15824358</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2748,8 +3038,14 @@
         <v>0</v>
       </c>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
+      <c r="K65" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -2760,22 +3056,22 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="C66" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="D66" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="E66" t="n">
-        <v>12.1</v>
+        <v>11.8</v>
       </c>
       <c r="F66" t="n">
-        <v>63891.157</v>
+        <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>164718.85695642</v>
+        <v>-344811.15824358</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2784,8 +3080,14 @@
         <v>0</v>
       </c>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
+      <c r="K66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -2796,32 +3098,40 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="C67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="D67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="E67" t="n">
-        <v>12</v>
+        <v>11.9</v>
       </c>
       <c r="F67" t="n">
-        <v>10</v>
+        <v>165232.1497</v>
       </c>
       <c r="G67" t="n">
-        <v>164708.85695642</v>
+        <v>-179579.00854358</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K67" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -2832,7 +3142,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="C68" t="n">
         <v>12.1</v>
@@ -2841,13 +3151,13 @@
         <v>12.1</v>
       </c>
       <c r="E68" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="F68" t="n">
-        <v>2783.6387</v>
+        <v>164695.2194</v>
       </c>
       <c r="G68" t="n">
-        <v>167492.49565642</v>
+        <v>-14883.78914357995</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2856,8 +3166,14 @@
         <v>0</v>
       </c>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
+      <c r="K68" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -2868,22 +3184,22 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C69" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D69" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E69" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F69" t="n">
-        <v>118</v>
+        <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>167610.49565642</v>
+        <v>-14893.78914357995</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2892,8 +3208,14 @@
         <v>0</v>
       </c>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
+      <c r="K69" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -2904,22 +3226,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C70" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D70" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E70" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F70" t="n">
-        <v>4658.5901</v>
+        <v>8437.2474</v>
       </c>
       <c r="G70" t="n">
-        <v>167610.49565642</v>
+        <v>-14893.78914357995</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2928,8 +3250,14 @@
         <v>0</v>
       </c>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
+      <c r="K70" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -2940,22 +3268,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C71" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D71" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E71" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F71" t="n">
-        <v>16393.4426</v>
+        <v>15127.2509</v>
       </c>
       <c r="G71" t="n">
-        <v>167610.49565642</v>
+        <v>233.4617564200453</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2964,8 +3292,14 @@
         <v>0</v>
       </c>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
+      <c r="K71" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -2976,22 +3310,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C72" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D72" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E72" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F72" t="n">
-        <v>10</v>
+        <v>225953.1906</v>
       </c>
       <c r="G72" t="n">
-        <v>167600.49565642</v>
+        <v>226186.6523564201</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -3000,8 +3334,14 @@
         <v>0</v>
       </c>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
+      <c r="K72" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3012,22 +3352,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C73" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D73" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E73" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F73" t="n">
-        <v>11</v>
+        <v>1421.5574</v>
       </c>
       <c r="G73" t="n">
-        <v>167611.49565642</v>
+        <v>226186.6523564201</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -3036,8 +3376,14 @@
         <v>0</v>
       </c>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
+      <c r="K73" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3048,22 +3394,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="C74" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="D74" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="E74" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="F74" t="n">
-        <v>29440.4918</v>
+        <v>35583.8808</v>
       </c>
       <c r="G74" t="n">
-        <v>138171.0038564201</v>
+        <v>190602.7715564201</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3072,8 +3418,14 @@
         <v>0</v>
       </c>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
+      <c r="K74" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3084,22 +3436,22 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="C75" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="D75" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="E75" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="F75" t="n">
-        <v>10</v>
+        <v>40983.6065</v>
       </c>
       <c r="G75" t="n">
-        <v>138161.0038564201</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -3108,8 +3460,14 @@
         <v>0</v>
       </c>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
+      <c r="K75" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3132,10 +3490,10 @@
         <v>12.2</v>
       </c>
       <c r="F76" t="n">
-        <v>11</v>
+        <v>7883.1252</v>
       </c>
       <c r="G76" t="n">
-        <v>138172.0038564201</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3144,8 +3502,14 @@
         <v>0</v>
       </c>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
+      <c r="K76" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3168,10 +3532,10 @@
         <v>12.2</v>
       </c>
       <c r="F77" t="n">
-        <v>49175.4019</v>
+        <v>50</v>
       </c>
       <c r="G77" t="n">
-        <v>138172.0038564201</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3180,8 +3544,14 @@
         <v>0</v>
       </c>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
+      <c r="K77" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3195,19 +3565,19 @@
         <v>12.3</v>
       </c>
       <c r="C78" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D78" t="n">
         <v>12.3</v>
       </c>
       <c r="E78" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F78" t="n">
-        <v>3889.2804</v>
+        <v>22</v>
       </c>
       <c r="G78" t="n">
-        <v>142061.28425642</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3216,8 +3586,14 @@
         <v>0</v>
       </c>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
+      <c r="K78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3228,22 +3604,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C79" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D79" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E79" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F79" t="n">
-        <v>23626.275</v>
+        <v>2600</v>
       </c>
       <c r="G79" t="n">
-        <v>142061.28425642</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3252,8 +3628,14 @@
         <v>0</v>
       </c>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
+      <c r="K79" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3264,22 +3646,22 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C80" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D80" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E80" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F80" t="n">
-        <v>121224.7617</v>
+        <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>142061.28425642</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3288,8 +3670,14 @@
         <v>0</v>
       </c>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
+      <c r="K80" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3300,22 +3688,22 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C81" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D81" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E81" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F81" t="n">
-        <v>8064.516</v>
+        <v>3361.3444</v>
       </c>
       <c r="G81" t="n">
-        <v>150125.80025642</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3324,8 +3712,14 @@
         <v>0</v>
       </c>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
+      <c r="K81" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3336,22 +3730,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C82" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="D82" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E82" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="F82" t="n">
-        <v>102419.3549</v>
+        <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>150125.80025642</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3360,8 +3754,14 @@
         <v>0</v>
       </c>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
+      <c r="K82" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3372,22 +3772,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C83" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D83" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E83" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F83" t="n">
-        <v>4400</v>
+        <v>30000</v>
       </c>
       <c r="G83" t="n">
-        <v>154525.80025642</v>
+        <v>231586.3780564201</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3396,8 +3796,14 @@
         <v>0</v>
       </c>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
+      <c r="K83" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3408,22 +3814,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C84" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D84" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E84" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F84" t="n">
-        <v>6290.3225</v>
+        <v>45995.1533</v>
       </c>
       <c r="G84" t="n">
-        <v>148235.47775642</v>
+        <v>185591.2247564201</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3432,8 +3838,14 @@
         <v>0</v>
       </c>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
+      <c r="K84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -3456,10 +3868,10 @@
         <v>12.4</v>
       </c>
       <c r="F85" t="n">
-        <v>14395.1806</v>
+        <v>241.9354</v>
       </c>
       <c r="G85" t="n">
-        <v>148235.47775642</v>
+        <v>185833.1601564201</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3468,8 +3880,14 @@
         <v>0</v>
       </c>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
+      <c r="K85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -3480,22 +3898,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C86" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D86" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E86" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F86" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G86" t="n">
-        <v>148225.47775642</v>
+        <v>185813.1601564201</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3504,8 +3922,14 @@
         <v>0</v>
       </c>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
+      <c r="K86" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -3516,22 +3940,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="C87" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D87" t="n">
-        <v>12.4</v>
+        <v>12.2</v>
       </c>
       <c r="E87" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="F87" t="n">
-        <v>16129.0321</v>
+        <v>174518.1842</v>
       </c>
       <c r="G87" t="n">
-        <v>164354.50985642</v>
+        <v>185813.1601564201</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3540,8 +3964,14 @@
         <v>0</v>
       </c>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
+      <c r="K87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -3564,10 +3994,10 @@
         <v>12.3</v>
       </c>
       <c r="F88" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>164344.50985642</v>
+        <v>185824.1601564201</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3576,8 +4006,14 @@
         <v>0</v>
       </c>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
+      <c r="K88" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -3588,22 +4024,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="C89" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="D89" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="E89" t="n">
-        <v>12.5</v>
+        <v>12.1</v>
       </c>
       <c r="F89" t="n">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>164444.50985642</v>
+        <v>185814.1601564201</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3612,8 +4048,14 @@
         <v>0</v>
       </c>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
+      <c r="K89" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -3624,22 +4066,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C90" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D90" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E90" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F90" t="n">
-        <v>10</v>
+        <v>40890.395</v>
       </c>
       <c r="G90" t="n">
-        <v>164434.50985642</v>
+        <v>185814.1601564201</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3648,8 +4090,14 @@
         <v>0</v>
       </c>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
+      <c r="K90" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -3660,22 +4108,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C91" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D91" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E91" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F91" t="n">
-        <v>316301.1625</v>
+        <v>6147.6229</v>
       </c>
       <c r="G91" t="n">
-        <v>164434.50985642</v>
+        <v>191961.78305642</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3684,8 +4132,14 @@
         <v>0</v>
       </c>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
+      <c r="K91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -3696,22 +4150,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C92" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D92" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E92" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F92" t="n">
-        <v>800.0232</v>
+        <v>91124.0831</v>
       </c>
       <c r="G92" t="n">
-        <v>164434.50985642</v>
+        <v>100837.69995642</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3720,8 +4174,14 @@
         <v>0</v>
       </c>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
+      <c r="K92" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -3732,22 +4192,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C93" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D93" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E93" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F93" t="n">
-        <v>152904.5253</v>
+        <v>810</v>
       </c>
       <c r="G93" t="n">
-        <v>317339.0351564201</v>
+        <v>100837.69995642</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3756,8 +4216,14 @@
         <v>0</v>
       </c>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
+      <c r="K93" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -3768,22 +4234,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="C94" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="D94" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="E94" t="n">
-        <v>12.2</v>
+        <v>12</v>
       </c>
       <c r="F94" t="n">
-        <v>4370</v>
+        <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>312969.0351564201</v>
+        <v>100827.69995642</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3792,8 +4258,14 @@
         <v>0</v>
       </c>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
+      <c r="K94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -3804,22 +4276,22 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C95" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D95" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E95" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F95" t="n">
-        <v>40650.40650406504</v>
+        <v>63891.157</v>
       </c>
       <c r="G95" t="n">
-        <v>353619.4416604851</v>
+        <v>164718.85695642</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -3828,8 +4300,14 @@
         <v>0</v>
       </c>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
+      <c r="K95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -3840,22 +4318,22 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="C96" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="D96" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="E96" t="n">
-        <v>12.3</v>
+        <v>12</v>
       </c>
       <c r="F96" t="n">
-        <v>242229.8577</v>
+        <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>353619.4416604851</v>
+        <v>164708.85695642</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -3864,8 +4342,14 @@
         <v>0</v>
       </c>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
+      <c r="K96" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -3876,22 +4360,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C97" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="D97" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="E97" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F97" t="n">
-        <v>17600</v>
+        <v>2783.6387</v>
       </c>
       <c r="G97" t="n">
-        <v>353619.4416604851</v>
+        <v>167492.49565642</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3900,8 +4384,14 @@
         <v>0</v>
       </c>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
+      <c r="K97" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -3912,22 +4402,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C98" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D98" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E98" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F98" t="n">
-        <v>8180.0813</v>
+        <v>118</v>
       </c>
       <c r="G98" t="n">
-        <v>353619.4416604851</v>
+        <v>167610.49565642</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3936,8 +4426,14 @@
         <v>0</v>
       </c>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
+      <c r="K98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -3948,22 +4444,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C99" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D99" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E99" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F99" t="n">
-        <v>10500</v>
+        <v>4658.5901</v>
       </c>
       <c r="G99" t="n">
-        <v>353619.4416604851</v>
+        <v>167610.49565642</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3972,8 +4468,14 @@
         <v>0</v>
       </c>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
+      <c r="K99" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -3984,22 +4486,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="C100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="D100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="E100" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="F100" t="n">
-        <v>609.5934</v>
+        <v>16393.4426</v>
       </c>
       <c r="G100" t="n">
-        <v>353619.4416604851</v>
+        <v>167610.49565642</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -4008,8 +4510,14 @@
         <v>0</v>
       </c>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
+      <c r="K100" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4020,22 +4528,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="C101" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="D101" t="n">
-        <v>12.4</v>
+        <v>12.1</v>
       </c>
       <c r="E101" t="n">
-        <v>12.3</v>
+        <v>12.1</v>
       </c>
       <c r="F101" t="n">
-        <v>771172.48</v>
+        <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>1124791.921660485</v>
+        <v>167600.49565642</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -4044,8 +4552,14 @@
         <v>0</v>
       </c>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
+      <c r="K101" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4056,22 +4570,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C102" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D102" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E102" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F102" t="n">
-        <v>4400</v>
+        <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>1124791.921660485</v>
+        <v>167611.49565642</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -4080,8 +4594,14 @@
         <v>0</v>
       </c>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
+      <c r="K102" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4092,22 +4612,22 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C103" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D103" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E103" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F103" t="n">
-        <v>188919.5574</v>
+        <v>29440.4918</v>
       </c>
       <c r="G103" t="n">
-        <v>1313711.479060485</v>
+        <v>138171.0038564201</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -4116,8 +4636,14 @@
         <v>0</v>
       </c>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="K103" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4128,22 +4654,22 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="C104" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="D104" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="E104" t="n">
-        <v>12.6</v>
+        <v>12.1</v>
       </c>
       <c r="F104" t="n">
-        <v>73849.8412</v>
+        <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>1387561.320260485</v>
+        <v>138161.0038564201</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -4152,8 +4678,14 @@
         <v>0</v>
       </c>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="K104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4164,22 +4696,22 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C105" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D105" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E105" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F105" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>1387551.320260485</v>
+        <v>138172.0038564201</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -4188,8 +4720,14 @@
         <v>0</v>
       </c>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="K105" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4200,22 +4738,22 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C106" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D106" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E106" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F106" t="n">
-        <v>54414.189</v>
+        <v>49175.4019</v>
       </c>
       <c r="G106" t="n">
-        <v>1387551.320260485</v>
+        <v>138172.0038564201</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -4224,8 +4762,14 @@
         <v>0</v>
       </c>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="K106" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4236,22 +4780,22 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="C107" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D107" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E107" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="F107" t="n">
-        <v>40983.6064</v>
+        <v>3889.2804</v>
       </c>
       <c r="G107" t="n">
-        <v>1428534.926660485</v>
+        <v>142061.28425642</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -4260,8 +4804,14 @@
         <v>0</v>
       </c>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="K107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4272,32 +4822,38 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C108" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D108" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E108" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F108" t="n">
-        <v>10</v>
+        <v>23626.275</v>
       </c>
       <c r="G108" t="n">
-        <v>1428524.926660485</v>
+        <v>142061.28425642</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="K108" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4308,22 +4864,22 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C109" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D109" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E109" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F109" t="n">
-        <v>5598.6407</v>
+        <v>121224.7617</v>
       </c>
       <c r="G109" t="n">
-        <v>1428524.926660485</v>
+        <v>142061.28425642</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -4332,8 +4888,14 @@
         <v>0</v>
       </c>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="K109" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4344,22 +4906,22 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C110" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D110" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E110" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F110" t="n">
-        <v>2459.336</v>
+        <v>8064.516</v>
       </c>
       <c r="G110" t="n">
-        <v>1428524.926660485</v>
+        <v>150125.80025642</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -4368,8 +4930,14 @@
         <v>0</v>
       </c>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="K110" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4380,22 +4948,22 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C111" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D111" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E111" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F111" t="n">
-        <v>4215.9262</v>
+        <v>102419.3549</v>
       </c>
       <c r="G111" t="n">
-        <v>1428524.926660485</v>
+        <v>150125.80025642</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -4404,8 +4972,14 @@
         <v>0</v>
       </c>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="K111" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4428,10 +5002,10 @@
         <v>12.5</v>
       </c>
       <c r="F112" t="n">
-        <v>16220.1729</v>
+        <v>4400</v>
       </c>
       <c r="G112" t="n">
-        <v>1428524.926660485</v>
+        <v>154525.80025642</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -4440,8 +5014,14 @@
         <v>0</v>
       </c>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="K112" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4452,22 +5032,22 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C113" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D113" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E113" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F113" t="n">
-        <v>6014.524</v>
+        <v>6290.3225</v>
       </c>
       <c r="G113" t="n">
-        <v>1428524.926660485</v>
+        <v>148235.47775642</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -4476,8 +5056,14 @@
         <v>0</v>
       </c>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="K113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4488,22 +5074,22 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C114" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D114" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E114" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F114" t="n">
-        <v>2500</v>
+        <v>14395.1806</v>
       </c>
       <c r="G114" t="n">
-        <v>1428524.926660485</v>
+        <v>148235.47775642</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -4512,8 +5098,14 @@
         <v>0</v>
       </c>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="K114" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4524,22 +5116,22 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C115" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D115" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E115" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F115" t="n">
-        <v>44332.7434</v>
+        <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>1428524.926660485</v>
+        <v>148225.47775642</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -4548,8 +5140,14 @@
         <v>0</v>
       </c>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="K115" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4560,22 +5158,22 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C116" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D116" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E116" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F116" t="n">
-        <v>19989.0263</v>
+        <v>16129.0321</v>
       </c>
       <c r="G116" t="n">
-        <v>1428524.926660485</v>
+        <v>164354.50985642</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -4584,8 +5182,14 @@
         <v>0</v>
       </c>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="K116" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4596,32 +5200,38 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C117" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D117" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E117" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F117" t="n">
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>1428514.926660485</v>
+        <v>164344.50985642</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="K117" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4644,10 +5254,10 @@
         <v>12.5</v>
       </c>
       <c r="F118" t="n">
-        <v>8790</v>
+        <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>1437304.926660485</v>
+        <v>164444.50985642</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -4656,8 +5266,14 @@
         <v>0</v>
       </c>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="K118" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4668,22 +5284,22 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C119" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D119" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E119" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F119" t="n">
-        <v>9717.7557</v>
+        <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>1437304.926660485</v>
+        <v>164434.50985642</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4692,8 +5308,14 @@
         <v>0</v>
       </c>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="K119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4704,32 +5326,38 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="C120" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D120" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E120" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="F120" t="n">
-        <v>212.5444</v>
+        <v>316301.1625</v>
       </c>
       <c r="G120" t="n">
-        <v>1437517.471060485</v>
+        <v>164434.50985642</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="K120" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4740,32 +5368,38 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C121" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D121" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E121" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F121" t="n">
-        <v>8330</v>
+        <v>800.0232</v>
       </c>
       <c r="G121" t="n">
-        <v>1429187.471060485</v>
+        <v>164434.50985642</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="K121" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4776,32 +5410,38 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C122" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D122" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E122" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F122" t="n">
-        <v>8330</v>
+        <v>152904.5253</v>
       </c>
       <c r="G122" t="n">
-        <v>1429187.471060485</v>
+        <v>317339.0351564201</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="K122" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4812,32 +5452,38 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="C123" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="D123" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="E123" t="n">
-        <v>12.5</v>
+        <v>12.2</v>
       </c>
       <c r="F123" t="n">
-        <v>8330</v>
+        <v>4370</v>
       </c>
       <c r="G123" t="n">
-        <v>1429187.471060485</v>
+        <v>312969.0351564201</v>
       </c>
       <c r="H123" t="n">
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="K123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4848,32 +5494,38 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="C124" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="D124" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="E124" t="n">
-        <v>12.4</v>
+        <v>12.3</v>
       </c>
       <c r="F124" t="n">
-        <v>10</v>
+        <v>40650.40650406504</v>
       </c>
       <c r="G124" t="n">
-        <v>1429177.471060485</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H124" t="n">
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="K124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4884,32 +5536,38 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="C125" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D125" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E125" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="F125" t="n">
-        <v>48.3333</v>
+        <v>242229.8577</v>
       </c>
       <c r="G125" t="n">
-        <v>1429225.804360485</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="K125" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4920,32 +5578,38 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="C126" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D126" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E126" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="F126" t="n">
-        <v>207</v>
+        <v>17600</v>
       </c>
       <c r="G126" t="n">
-        <v>1429225.804360485</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H126" t="n">
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="K126" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4956,32 +5620,38 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="C127" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="D127" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="E127" t="n">
-        <v>12.6</v>
+        <v>12.3</v>
       </c>
       <c r="F127" t="n">
-        <v>74.6825</v>
+        <v>8180.0813</v>
       </c>
       <c r="G127" t="n">
-        <v>1429225.804360485</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H127" t="n">
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="K127" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4992,32 +5662,38 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C128" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D128" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E128" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F128" t="n">
-        <v>10</v>
+        <v>10500</v>
       </c>
       <c r="G128" t="n">
-        <v>1429215.804360485</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="K128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5028,32 +5704,38 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C129" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="D129" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="E129" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F129" t="n">
-        <v>10019</v>
+        <v>609.5934</v>
       </c>
       <c r="G129" t="n">
-        <v>1429215.804360485</v>
+        <v>353619.4416604851</v>
       </c>
       <c r="H129" t="n">
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="K129" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5064,32 +5746,38 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="C130" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D130" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E130" t="n">
-        <v>12.5</v>
+        <v>12.3</v>
       </c>
       <c r="F130" t="n">
-        <v>17590</v>
+        <v>771172.48</v>
       </c>
       <c r="G130" t="n">
-        <v>1429215.804360485</v>
+        <v>1124791.921660485</v>
       </c>
       <c r="H130" t="n">
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="K130" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5100,32 +5788,38 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="C131" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="D131" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="E131" t="n">
-        <v>12.5</v>
+        <v>12.4</v>
       </c>
       <c r="F131" t="n">
-        <v>4170</v>
+        <v>4400</v>
       </c>
       <c r="G131" t="n">
-        <v>1429215.804360485</v>
+        <v>1124791.921660485</v>
       </c>
       <c r="H131" t="n">
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="K131" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5148,20 +5842,26 @@
         <v>12.5</v>
       </c>
       <c r="F132" t="n">
-        <v>4170</v>
+        <v>188919.5574</v>
       </c>
       <c r="G132" t="n">
-        <v>1429215.804360485</v>
+        <v>1313711.479060485</v>
       </c>
       <c r="H132" t="n">
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="K132" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5172,32 +5872,38 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C133" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D133" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E133" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F133" t="n">
-        <v>4180</v>
+        <v>73849.8412</v>
       </c>
       <c r="G133" t="n">
-        <v>1429215.804360485</v>
+        <v>1387561.320260485</v>
       </c>
       <c r="H133" t="n">
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="K133" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5208,32 +5914,38 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C134" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D134" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E134" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F134" t="n">
         <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>1429205.804360485</v>
+        <v>1387551.320260485</v>
       </c>
       <c r="H134" t="n">
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="K134" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5256,20 +5968,26 @@
         <v>12.5</v>
       </c>
       <c r="F135" t="n">
-        <v>4170</v>
+        <v>54414.189</v>
       </c>
       <c r="G135" t="n">
-        <v>1433375.804360485</v>
+        <v>1387551.320260485</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="K135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5280,32 +5998,38 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="C136" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="D136" t="n">
-        <v>12.5</v>
+        <v>12.6</v>
       </c>
       <c r="E136" t="n">
-        <v>12.4</v>
+        <v>12.6</v>
       </c>
       <c r="F136" t="n">
-        <v>4180</v>
+        <v>40983.6064</v>
       </c>
       <c r="G136" t="n">
-        <v>1433375.804360485</v>
+        <v>1428534.926660485</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="K136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5316,32 +6040,38 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C137" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D137" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E137" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F137" t="n">
         <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>1433365.804360485</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H137" t="n">
         <v>0</v>
       </c>
       <c r="I137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
+      <c r="K137" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -5364,10 +6094,10 @@
         <v>12.5</v>
       </c>
       <c r="F138" t="n">
-        <v>4170</v>
+        <v>5598.6407</v>
       </c>
       <c r="G138" t="n">
-        <v>1437535.804360485</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H138" t="n">
         <v>0</v>
@@ -5376,8 +6106,14 @@
         <v>0</v>
       </c>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
+      <c r="K138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -5388,32 +6124,38 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="C139" t="n">
         <v>12.5</v>
       </c>
       <c r="D139" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="E139" t="n">
         <v>12.5</v>
       </c>
       <c r="F139" t="n">
-        <v>4270</v>
+        <v>2459.336</v>
       </c>
       <c r="G139" t="n">
-        <v>1437535.804360485</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H139" t="n">
         <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
+      <c r="K139" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -5436,10 +6178,10 @@
         <v>12.5</v>
       </c>
       <c r="F140" t="n">
-        <v>4170</v>
+        <v>4215.9262</v>
       </c>
       <c r="G140" t="n">
-        <v>1437535.804360485</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -5448,10 +6190,16 @@
         <v>1</v>
       </c>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
+      <c r="K140" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="M140" t="n">
-        <v>1</v>
+        <v>1.045420168067227</v>
       </c>
       <c r="N140" t="inlineStr"/>
     </row>
@@ -5472,10 +6220,10 @@
         <v>12.5</v>
       </c>
       <c r="F141" t="n">
-        <v>4170</v>
+        <v>16220.1729</v>
       </c>
       <c r="G141" t="n">
-        <v>1437535.804360485</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H141" t="n">
         <v>0</v>
@@ -5496,28 +6244,28 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="C142" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="D142" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="E142" t="n">
-        <v>12.4</v>
+        <v>12.5</v>
       </c>
       <c r="F142" t="n">
-        <v>20</v>
+        <v>6014.524</v>
       </c>
       <c r="G142" t="n">
-        <v>1437515.804360485</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H142" t="n">
         <v>0</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
@@ -5544,16 +6292,16 @@
         <v>12.5</v>
       </c>
       <c r="F143" t="n">
-        <v>4170</v>
+        <v>2500</v>
       </c>
       <c r="G143" t="n">
-        <v>1441685.804360485</v>
+        <v>1428524.926660485</v>
       </c>
       <c r="H143" t="n">
         <v>0</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
@@ -5563,6 +6311,1050 @@
       </c>
       <c r="N143" t="inlineStr"/>
     </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E144" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F144" t="n">
+        <v>44332.7434</v>
+      </c>
+      <c r="G144" t="n">
+        <v>1428524.926660485</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+      <c r="N144" t="inlineStr"/>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C145" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D145" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E145" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F145" t="n">
+        <v>19989.0263</v>
+      </c>
+      <c r="G145" t="n">
+        <v>1428524.926660485</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+      <c r="N145" t="inlineStr"/>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C146" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D146" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E146" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F146" t="n">
+        <v>10</v>
+      </c>
+      <c r="G146" t="n">
+        <v>1428514.926660485</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+      <c r="N146" t="inlineStr"/>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E147" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F147" t="n">
+        <v>8790</v>
+      </c>
+      <c r="G147" t="n">
+        <v>1437304.926660485</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
+      <c r="M147" t="n">
+        <v>1</v>
+      </c>
+      <c r="N147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C148" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D148" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E148" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F148" t="n">
+        <v>9717.7557</v>
+      </c>
+      <c r="G148" t="n">
+        <v>1437304.926660485</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
+      <c r="M148" t="n">
+        <v>1</v>
+      </c>
+      <c r="N148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C149" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D149" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E149" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F149" t="n">
+        <v>212.5444</v>
+      </c>
+      <c r="G149" t="n">
+        <v>1437517.471060485</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0</v>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C150" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D150" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E150" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F150" t="n">
+        <v>8330</v>
+      </c>
+      <c r="G150" t="n">
+        <v>1429187.471060485</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>1</v>
+      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
+      <c r="M150" t="n">
+        <v>1</v>
+      </c>
+      <c r="N150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C151" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D151" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E151" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F151" t="n">
+        <v>8330</v>
+      </c>
+      <c r="G151" t="n">
+        <v>1429187.471060485</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>1</v>
+      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="inlineStr"/>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C152" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D152" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E152" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F152" t="n">
+        <v>8330</v>
+      </c>
+      <c r="G152" t="n">
+        <v>1429187.471060485</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1</v>
+      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C153" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D153" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E153" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F153" t="n">
+        <v>10</v>
+      </c>
+      <c r="G153" t="n">
+        <v>1429177.471060485</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="n">
+        <v>1</v>
+      </c>
+      <c r="N153" t="inlineStr"/>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C154" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D154" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E154" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F154" t="n">
+        <v>48.3333</v>
+      </c>
+      <c r="G154" t="n">
+        <v>1429225.804360485</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0</v>
+      </c>
+      <c r="I154" t="n">
+        <v>1</v>
+      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="n">
+        <v>1</v>
+      </c>
+      <c r="N154" t="inlineStr"/>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C155" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D155" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E155" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F155" t="n">
+        <v>207</v>
+      </c>
+      <c r="G155" t="n">
+        <v>1429225.804360485</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0</v>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="n">
+        <v>1</v>
+      </c>
+      <c r="N155" t="inlineStr"/>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C156" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="D156" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E156" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="F156" t="n">
+        <v>74.6825</v>
+      </c>
+      <c r="G156" t="n">
+        <v>1429225.804360485</v>
+      </c>
+      <c r="H156" t="n">
+        <v>0</v>
+      </c>
+      <c r="I156" t="n">
+        <v>1</v>
+      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="inlineStr"/>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C157" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D157" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E157" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F157" t="n">
+        <v>10</v>
+      </c>
+      <c r="G157" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H157" t="n">
+        <v>0</v>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
+      <c r="M157" t="n">
+        <v>1</v>
+      </c>
+      <c r="N157" t="inlineStr"/>
+    </row>
+    <row r="158">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C158" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D158" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E158" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F158" t="n">
+        <v>10019</v>
+      </c>
+      <c r="G158" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H158" t="n">
+        <v>0</v>
+      </c>
+      <c r="I158" t="n">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
+      <c r="M158" t="n">
+        <v>1</v>
+      </c>
+      <c r="N158" t="inlineStr"/>
+    </row>
+    <row r="159">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C159" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D159" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E159" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F159" t="n">
+        <v>17590</v>
+      </c>
+      <c r="G159" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H159" t="n">
+        <v>0</v>
+      </c>
+      <c r="I159" t="n">
+        <v>0</v>
+      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
+      <c r="M159" t="n">
+        <v>1</v>
+      </c>
+      <c r="N159" t="inlineStr"/>
+    </row>
+    <row r="160">
+      <c r="A160" s="1" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C160" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D160" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E160" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F160" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G160" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H160" t="n">
+        <v>0</v>
+      </c>
+      <c r="I160" t="n">
+        <v>0</v>
+      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
+      <c r="M160" t="n">
+        <v>1</v>
+      </c>
+      <c r="N160" t="inlineStr"/>
+    </row>
+    <row r="161">
+      <c r="A161" s="1" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C161" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D161" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E161" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F161" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G161" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H161" t="n">
+        <v>0</v>
+      </c>
+      <c r="I161" t="n">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
+      <c r="M161" t="n">
+        <v>1</v>
+      </c>
+      <c r="N161" t="inlineStr"/>
+    </row>
+    <row r="162">
+      <c r="A162" s="1" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C162" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D162" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E162" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F162" t="n">
+        <v>4180</v>
+      </c>
+      <c r="G162" t="n">
+        <v>1429215.804360485</v>
+      </c>
+      <c r="H162" t="n">
+        <v>0</v>
+      </c>
+      <c r="I162" t="n">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
+      <c r="M162" t="n">
+        <v>1</v>
+      </c>
+      <c r="N162" t="inlineStr"/>
+    </row>
+    <row r="163">
+      <c r="A163" s="1" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C163" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D163" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E163" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F163" t="n">
+        <v>10</v>
+      </c>
+      <c r="G163" t="n">
+        <v>1429205.804360485</v>
+      </c>
+      <c r="H163" t="n">
+        <v>0</v>
+      </c>
+      <c r="I163" t="n">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
+      <c r="M163" t="n">
+        <v>1</v>
+      </c>
+      <c r="N163" t="inlineStr"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="1" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C164" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D164" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E164" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F164" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G164" t="n">
+        <v>1433375.804360485</v>
+      </c>
+      <c r="H164" t="n">
+        <v>0</v>
+      </c>
+      <c r="I164" t="n">
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
+      <c r="M164" t="n">
+        <v>1</v>
+      </c>
+      <c r="N164" t="inlineStr"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="1" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C165" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D165" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E165" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F165" t="n">
+        <v>4180</v>
+      </c>
+      <c r="G165" t="n">
+        <v>1433375.804360485</v>
+      </c>
+      <c r="H165" t="n">
+        <v>0</v>
+      </c>
+      <c r="I165" t="n">
+        <v>1</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
+      <c r="M165" t="n">
+        <v>1</v>
+      </c>
+      <c r="N165" t="inlineStr"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="1" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C166" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D166" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E166" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F166" t="n">
+        <v>10</v>
+      </c>
+      <c r="G166" t="n">
+        <v>1433365.804360485</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>1</v>
+      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
+      <c r="M166" t="n">
+        <v>1</v>
+      </c>
+      <c r="N166" t="inlineStr"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="1" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C167" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D167" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E167" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F167" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G167" t="n">
+        <v>1437535.804360485</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>1</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
+      <c r="M167" t="n">
+        <v>1</v>
+      </c>
+      <c r="N167" t="inlineStr"/>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="C168" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D168" t="n">
+        <v>12.6</v>
+      </c>
+      <c r="E168" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F168" t="n">
+        <v>4270</v>
+      </c>
+      <c r="G168" t="n">
+        <v>1437535.804360485</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
+      <c r="M168" t="n">
+        <v>1</v>
+      </c>
+      <c r="N168" t="inlineStr"/>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C169" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D169" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E169" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F169" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G169" t="n">
+        <v>1437535.804360485</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
+      <c r="M169" t="n">
+        <v>1</v>
+      </c>
+      <c r="N169" t="inlineStr"/>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C170" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D170" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E170" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F170" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G170" t="n">
+        <v>1437535.804360485</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0</v>
+      </c>
+      <c r="I170" t="n">
+        <v>1</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
+      <c r="M170" t="n">
+        <v>1</v>
+      </c>
+      <c r="N170" t="inlineStr"/>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C171" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="D171" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="E171" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="F171" t="n">
+        <v>20</v>
+      </c>
+      <c r="G171" t="n">
+        <v>1437515.804360485</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>1</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
+      <c r="M171" t="n">
+        <v>1</v>
+      </c>
+      <c r="N171" t="inlineStr"/>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="C172" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="D172" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E172" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="F172" t="n">
+        <v>4170</v>
+      </c>
+      <c r="G172" t="n">
+        <v>1441685.804360485</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0</v>
+      </c>
+      <c r="I172" t="n">
+        <v>1</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
+      <c r="M172" t="n">
+        <v>1</v>
+      </c>
+      <c r="N172" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N172"/>
+  <dimension ref="A1:M172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -636,18 +616,19 @@
         <v>-180318.7876634146</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr"/>
+        <v>12.1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>12.1</v>
+      </c>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -672,18 +653,23 @@
         <v>-180318.7876634146</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
-      </c>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -708,18 +694,23 @@
         <v>-180318.7876634146</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J9" t="n">
+        <v>12.1</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +737,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +770,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -816,18 +801,19 @@
         <v>-188677.5561634146</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J12" t="n">
+        <v>12</v>
+      </c>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -852,18 +838,23 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+        <v>12</v>
+      </c>
+      <c r="J13" t="n">
+        <v>12</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -888,18 +879,23 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="J14" t="n">
+        <v>12</v>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +922,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +955,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +988,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +1021,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1054,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1087,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1140,22 +1118,15 @@
         <v>-457370.0395634146</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K21" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1180,26 +1151,15 @@
         <v>-432384.0618435799</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K22" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1226,22 +1186,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1268,22 +1219,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1310,22 +1252,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1352,22 +1285,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1394,22 +1318,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1436,22 +1351,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1478,22 +1384,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1520,22 +1417,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1560,26 +1448,15 @@
         <v>-467740.5337435799</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K31" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1604,26 +1481,15 @@
         <v>-469038.3843435799</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K32" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1648,26 +1514,19 @@
         <v>-467658.8717435799</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>11.7</v>
       </c>
       <c r="J33" t="n">
         <v>11.7</v>
       </c>
-      <c r="K33" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1692,26 +1551,21 @@
         <v>-510670.4288435799</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K34" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L34" t="inlineStr">
+        <v>11.7</v>
+      </c>
+      <c r="K34" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1736,26 +1590,21 @@
         <v>-510670.4288435799</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
         <v>11.7</v>
       </c>
-      <c r="K35" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매수 대기</t>
         </is>
       </c>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1780,26 +1629,15 @@
         <v>-508170.4288435799</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K36" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1824,26 +1662,15 @@
         <v>-508180.4288435799</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K37" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1868,26 +1695,15 @@
         <v>-447044.8605435799</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K38" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1914,22 +1730,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1956,22 +1763,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1996,26 +1794,15 @@
         <v>-447054.8605435799</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K41" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2040,26 +1827,15 @@
         <v>-442349.4824435799</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K42" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2084,26 +1860,15 @@
         <v>-445489.4824435799</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K43" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2128,26 +1893,15 @@
         <v>-445499.4824435799</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K44" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2172,26 +1926,15 @@
         <v>-445488.4824435799</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2216,26 +1959,15 @@
         <v>-445498.4824435799</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
-      <c r="J46" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K46" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2260,26 +1992,15 @@
         <v>-438928.6759435799</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K47" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2304,26 +2025,15 @@
         <v>-438928.6759435799</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K48" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2348,26 +2058,15 @@
         <v>-438938.6759435799</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2392,26 +2091,15 @@
         <v>-390791.8363435799</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
-      <c r="J50" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K50" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2436,26 +2124,15 @@
         <v>-394159.4127435799</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K51" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2480,26 +2157,15 @@
         <v>-387061.0377435799</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
-      <c r="J52" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K52" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2526,22 +2192,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
-      <c r="K53" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2568,22 +2225,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
-      <c r="K54" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2608,26 +2256,15 @@
         <v>-336902.86274358</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
-      <c r="J55" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K55" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2654,22 +2291,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
-      <c r="K56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2696,22 +2324,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
-      <c r="K57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2738,22 +2357,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
-      <c r="K58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2780,22 +2390,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
-      <c r="K59" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2820,26 +2421,15 @@
         <v>-344793.15824358</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
-      <c r="J60" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K60" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2866,22 +2456,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
-      <c r="K61" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2908,22 +2489,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
-      <c r="K62" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2950,22 +2522,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
-      <c r="K63" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2992,22 +2555,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
-      <c r="K64" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3034,22 +2588,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
-      <c r="K65" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3076,22 +2621,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
-      <c r="K66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3116,26 +2652,15 @@
         <v>-179579.00854358</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
-      <c r="J67" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K67" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3162,22 +2687,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
-      <c r="K68" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -3204,22 +2720,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
-      <c r="K69" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -3246,22 +2753,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
-      <c r="K70" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -3288,22 +2786,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
-      <c r="K71" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3330,22 +2819,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
-      <c r="K72" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3372,22 +2852,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
-      <c r="K73" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3414,22 +2885,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
-      <c r="K74" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3456,22 +2918,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
-      <c r="K75" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3498,22 +2951,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
-      <c r="K76" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3540,22 +2984,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
-      <c r="K77" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3582,22 +3017,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
-      <c r="K78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3624,22 +3050,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
-      <c r="K79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3666,22 +3083,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
-      <c r="K80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3708,22 +3116,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
-      <c r="K81" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3750,22 +3149,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
-      <c r="K82" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3792,22 +3182,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
-      <c r="K83" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3834,22 +3215,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
-      <c r="K84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3876,22 +3248,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
-      <c r="K85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3918,22 +3281,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
-      <c r="K86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3960,22 +3314,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
-      <c r="K87" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -4002,22 +3347,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
-      <c r="K88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -4044,22 +3380,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
-      <c r="K89" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -4086,22 +3413,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
-      <c r="K90" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -4128,22 +3446,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
-      <c r="K91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -4170,22 +3479,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
-      <c r="K92" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -4212,22 +3512,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
-      <c r="K93" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -4254,22 +3545,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
-      <c r="K94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -4296,22 +3578,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
-      <c r="K95" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -4338,22 +3611,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
-      <c r="K96" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -4380,22 +3644,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
-      <c r="K97" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -4422,22 +3677,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
-      <c r="K98" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4464,22 +3710,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
-      <c r="K99" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4506,22 +3743,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
-      <c r="K100" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4548,22 +3776,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
-      <c r="K101" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4590,22 +3809,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
-      <c r="K102" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4632,22 +3842,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
-      <c r="K103" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4674,22 +3875,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
-      <c r="K104" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4716,22 +3908,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
-      <c r="K105" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4758,22 +3941,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
-      <c r="K106" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4800,22 +3974,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
-      <c r="K107" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4842,22 +4007,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
-      <c r="K108" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4884,22 +4040,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
-      <c r="K109" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4926,22 +4073,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
-      <c r="K110" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4968,22 +4106,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
-      <c r="K111" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5010,22 +4139,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
-      <c r="K112" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -5052,22 +4172,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
-      <c r="K113" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -5094,22 +4205,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
-      <c r="K114" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -5136,22 +4238,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
-      <c r="K115" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -5176,24 +4269,15 @@
         <v>164354.50985642</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
-      <c r="K116" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -5220,22 +4304,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
-      <c r="K117" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -5262,22 +4337,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
-      <c r="K118" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -5302,24 +4368,15 @@
         <v>164434.50985642</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
-      <c r="K119" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -5344,24 +4401,15 @@
         <v>164434.50985642</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
-      <c r="K120" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -5386,24 +4434,15 @@
         <v>164434.50985642</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
-      <c r="K121" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5428,24 +4467,15 @@
         <v>317339.0351564201</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
-      <c r="K122" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -5470,24 +4500,15 @@
         <v>312969.0351564201</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
-      <c r="K123" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5512,24 +4533,15 @@
         <v>353619.4416604851</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
-      <c r="K124" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5554,24 +4566,15 @@
         <v>353619.4416604851</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
-      <c r="K125" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5596,24 +4599,15 @@
         <v>353619.4416604851</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
-      <c r="K126" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5640,22 +4634,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
-      <c r="K127" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5682,22 +4667,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
-      <c r="K128" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5724,22 +4700,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
-      <c r="K129" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5766,22 +4733,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
-      <c r="K130" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5808,22 +4766,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
-      <c r="K131" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5848,24 +4797,15 @@
         <v>1313711.479060485</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
-      <c r="K132" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5890,24 +4830,15 @@
         <v>1387561.320260485</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
-      <c r="K133" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5932,24 +4863,15 @@
         <v>1387551.320260485</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
-      <c r="K134" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5974,24 +4896,15 @@
         <v>1387551.320260485</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
-      <c r="K135" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -6016,24 +4929,15 @@
         <v>1428534.926660485</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
-      <c r="K136" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -6058,24 +4962,15 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
-      <c r="K137" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -6102,22 +4997,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
-      <c r="K138" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -6144,22 +5030,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
-      <c r="K139" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -6186,22 +5063,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>1</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
-      <c r="K140" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1.045420168067227</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -6228,16 +5096,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>1</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -6262,18 +5127,15 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -6298,18 +5160,15 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -6334,18 +5193,15 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -6372,16 +5228,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>1</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -6408,16 +5261,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>1</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -6444,16 +5294,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -6480,16 +5327,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>1</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -6514,18 +5358,15 @@
         <v>1437517.471060485</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
-      </c>
-      <c r="I149" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -6552,16 +5393,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>1</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6586,18 +5424,15 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
-      </c>
-      <c r="I151" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6622,18 +5457,15 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
-      </c>
-      <c r="I152" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6658,18 +5490,15 @@
         <v>1429177.471060485</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
-      </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6696,16 +5525,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>1</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6730,18 +5556,15 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
-      </c>
-      <c r="I155" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6766,18 +5589,15 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
-      </c>
-      <c r="I156" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6802,18 +5622,15 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
-      </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6838,18 +5655,15 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
-      </c>
-      <c r="I158" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6874,18 +5688,15 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
-      </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6912,16 +5723,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6948,16 +5756,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>1</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6984,16 +5789,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>1</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -7018,18 +5820,15 @@
         <v>1429205.804360485</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
-      </c>
-      <c r="I163" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -7054,18 +5853,15 @@
         <v>1433375.804360485</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
-      </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -7092,16 +5888,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>1</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -7128,16 +5921,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>1</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -7164,16 +5954,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>1</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -7200,16 +5987,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>1</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -7236,16 +6020,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>1</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -7272,16 +6053,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>1</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -7306,18 +6084,15 @@
         <v>1437515.804360485</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
-      </c>
-      <c r="I171" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -7344,18 +6119,15 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>1</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -616,14 +616,10 @@
         <v>-180318.7876634146</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>12.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="n">
         <v>1</v>
@@ -653,19 +649,11 @@
         <v>-180318.7876634146</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
-      </c>
-      <c r="I8" t="n">
-        <v>12</v>
-      </c>
-      <c r="J8" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="n">
         <v>1</v>
       </c>
@@ -694,19 +682,11 @@
         <v>-180318.7876634146</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" t="n">
-        <v>12.1</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
       <c r="L9" t="n">
         <v>1</v>
       </c>
@@ -801,14 +781,10 @@
         <v>-188677.5561634146</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
-      </c>
-      <c r="I12" t="n">
-        <v>12</v>
-      </c>
-      <c r="J12" t="n">
-        <v>12</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="n">
         <v>1</v>
@@ -838,19 +814,11 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>12</v>
-      </c>
-      <c r="J13" t="n">
-        <v>12</v>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
       <c r="L13" t="n">
         <v>1</v>
       </c>
@@ -879,19 +847,11 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
-      </c>
-      <c r="I14" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J14" t="n">
-        <v>12</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="n">
         <v>1</v>
       </c>
@@ -1514,7 +1474,7 @@
         <v>-467658.8717435799</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>11.7</v>
@@ -1590,9 +1550,11 @@
         <v>-510670.4288435799</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
+        <v>11.7</v>
+      </c>
       <c r="J35" t="n">
         <v>11.7</v>
       </c>
@@ -1629,10 +1591,14 @@
         <v>-508170.4288435799</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1665,8 +1631,14 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1695,11 +1667,19 @@
         <v>-447044.8605435799</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J38" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1761,10 +1741,14 @@
         <v>-447054.8605435799</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I40" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J40" t="n">
+        <v>11.8</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1794,11 +1778,19 @@
         <v>-447054.8605435799</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J41" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1827,11 +1819,19 @@
         <v>-442349.4824435799</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
-      </c>
-      <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J42" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1860,10 +1860,14 @@
         <v>-445489.4824435799</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J43" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="n">
         <v>1</v>
@@ -1893,11 +1897,19 @@
         <v>-445499.4824435799</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1926,11 +1938,19 @@
         <v>-445488.4824435799</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
-      </c>
-      <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1959,10 +1979,14 @@
         <v>-445498.4824435799</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J46" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="n">
         <v>1</v>
@@ -1992,11 +2016,19 @@
         <v>-438928.6759435799</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J47" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2025,11 +2057,19 @@
         <v>-438928.6759435799</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J48" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2058,11 +2098,19 @@
         <v>-438938.6759435799</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2091,11 +2139,19 @@
         <v>-390791.8363435799</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2124,11 +2180,19 @@
         <v>-394159.4127435799</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J51" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2157,11 +2221,19 @@
         <v>-387061.0377435799</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2193,8 +2265,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2226,8 +2304,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2259,8 +2343,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2292,8 +2382,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2325,8 +2421,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2358,8 +2460,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2391,8 +2499,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2424,8 +2538,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2457,8 +2577,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2490,8 +2616,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2523,8 +2655,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2556,8 +2694,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2589,8 +2733,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2622,8 +2772,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2655,8 +2811,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2688,8 +2850,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2721,8 +2889,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2754,8 +2928,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2787,8 +2967,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2820,8 +3006,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2853,8 +3045,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2886,8 +3084,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2919,8 +3123,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2952,8 +3162,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2985,8 +3201,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3018,8 +3240,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3051,8 +3279,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3084,8 +3318,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3117,8 +3357,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3150,8 +3396,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3183,8 +3435,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3216,8 +3474,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3249,8 +3513,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3282,8 +3552,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3315,8 +3591,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3348,8 +3630,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3381,8 +3669,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3414,8 +3708,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3447,8 +3747,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3480,8 +3786,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3513,8 +3825,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3546,8 +3864,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3579,8 +3903,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3612,8 +3942,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3645,8 +3981,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3678,8 +4020,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3711,8 +4059,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3744,8 +4098,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3777,8 +4137,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3810,8 +4176,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3843,8 +4215,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3876,8 +4254,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3909,8 +4293,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3942,8 +4332,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3975,8 +4371,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4008,8 +4410,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4041,8 +4449,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4074,8 +4488,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4107,8 +4527,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4140,8 +4566,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4173,8 +4605,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4206,8 +4644,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4239,8 +4683,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4269,11 +4719,17 @@
         <v>164354.50985642</v>
       </c>
       <c r="H116" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4305,8 +4761,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4338,8 +4800,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4368,11 +4836,17 @@
         <v>164434.50985642</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4401,11 +4875,17 @@
         <v>164434.50985642</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4434,11 +4914,17 @@
         <v>164434.50985642</v>
       </c>
       <c r="H121" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4467,11 +4953,17 @@
         <v>317339.0351564201</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4500,11 +4992,17 @@
         <v>312969.0351564201</v>
       </c>
       <c r="H123" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4533,11 +5031,17 @@
         <v>353619.4416604851</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4566,11 +5070,17 @@
         <v>353619.4416604851</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4599,11 +5109,17 @@
         <v>353619.4416604851</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4635,8 +5151,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4668,8 +5190,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4701,8 +5229,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4734,8 +5268,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4767,8 +5307,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4797,11 +5343,17 @@
         <v>1313711.479060485</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4830,11 +5382,17 @@
         <v>1387561.320260485</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4863,11 +5421,17 @@
         <v>1387551.320260485</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4896,11 +5460,17 @@
         <v>1387551.320260485</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4929,11 +5499,17 @@
         <v>1428534.926660485</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4962,11 +5538,17 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4998,8 +5580,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5031,8 +5619,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5064,8 +5658,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5097,8 +5697,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5127,11 +5733,17 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5160,11 +5772,17 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5193,11 +5811,17 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5229,8 +5853,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5262,8 +5892,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5292,13 +5928,19 @@
         <v>1437304.926660485</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L147" t="n">
-        <v>1</v>
+        <v>1.045420168067227</v>
       </c>
       <c r="M147" t="inlineStr"/>
     </row>
@@ -5325,7 +5967,7 @@
         <v>1437304.926660485</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5358,7 +6000,7 @@
         <v>1437517.471060485</v>
       </c>
       <c r="H149" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5391,7 +6033,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5424,7 +6066,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H151" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5457,7 +6099,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5490,7 +6132,7 @@
         <v>1429177.471060485</v>
       </c>
       <c r="H153" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5523,7 +6165,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -5556,7 +6198,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H155" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5589,7 +6231,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H156" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5622,7 +6264,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H157" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5655,7 +6297,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5688,7 +6330,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H159" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5721,7 +6363,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5754,7 +6396,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5787,7 +6429,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5820,7 +6462,7 @@
         <v>1429205.804360485</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5853,7 +6495,7 @@
         <v>1433375.804360485</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -6084,7 +6726,7 @@
         <v>1437515.804360485</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6117,7 +6759,7 @@
         <v>1441685.804360485</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6128,6 +6770,6 @@
       <c r="M172" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -484,7 +484,7 @@
         <v>-155115.5725634146</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-162575.5725634146</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-188677.5561634146</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-188677.5561634146</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1474,14 +1474,10 @@
         <v>-467658.8717435799</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1514,14 +1510,8 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1550,19 +1540,11 @@
         <v>-510670.4288435799</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
-      </c>
-      <c r="I35" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J35" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1591,14 +1573,10 @@
         <v>-508170.4288435799</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1631,14 +1609,8 @@
         <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1667,19 +1639,11 @@
         <v>-447044.8605435799</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
-      </c>
-      <c r="I38" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J38" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1741,14 +1705,10 @@
         <v>-447054.8605435799</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
-      </c>
-      <c r="I40" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J40" t="n">
-        <v>11.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
         <v>1</v>
@@ -1784,13 +1744,9 @@
         <v>11.7</v>
       </c>
       <c r="J41" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>11.7</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1825,7 +1781,7 @@
         <v>11.7</v>
       </c>
       <c r="J42" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="K42" t="inlineStr">
         <is>
@@ -1860,15 +1816,17 @@
         <v>-445489.4824435799</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>11.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K43" t="inlineStr"/>
+        <v>11.7</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1897,138 +1855,126 @@
         <v>-445499.4824435799</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
-      </c>
-      <c r="I44" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J44" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K44" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="C45" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D45" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E45" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="F45" t="n">
+        <v>11</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-445488.4824435799</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J45" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C46" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="E46" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-445498.4824435799</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K46" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="C45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="F45" t="n">
-        <v>11</v>
-      </c>
-      <c r="G45" t="n">
-        <v>-445488.4824435799</v>
-      </c>
-      <c r="H45" t="n">
-        <v>1</v>
-      </c>
-      <c r="I45" t="n">
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="C47" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D47" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="E47" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="F47" t="n">
+        <v>6569.8065</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-438928.6759435799</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
         <v>11.7</v>
       </c>
-      <c r="J45" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K45" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C46" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="D46" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="E46" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F46" t="n">
-        <v>10</v>
-      </c>
-      <c r="G46" t="n">
-        <v>-445498.4824435799</v>
-      </c>
-      <c r="H46" t="n">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J46" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K46" t="inlineStr"/>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="C47" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="D47" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="E47" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F47" t="n">
-        <v>6569.8065</v>
-      </c>
-      <c r="G47" t="n">
-        <v>-438928.6759435799</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J47" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -2057,19 +2003,11 @@
         <v>-438928.6759435799</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J48" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2098,19 +2036,11 @@
         <v>-438938.6759435799</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
-      </c>
-      <c r="I49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2139,19 +2069,11 @@
         <v>-390791.8363435799</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2180,19 +2102,11 @@
         <v>-394159.4127435799</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
-      </c>
-      <c r="I51" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2221,19 +2135,11 @@
         <v>-387061.0377435799</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2265,14 +2171,8 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2304,14 +2204,8 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2343,14 +2237,8 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2382,14 +2270,8 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2421,14 +2303,8 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2460,14 +2336,8 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2499,14 +2369,8 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2538,14 +2402,8 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2577,14 +2435,8 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2616,14 +2468,8 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2655,14 +2501,8 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2694,14 +2534,8 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2733,14 +2567,8 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2772,14 +2600,8 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2811,14 +2633,8 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2850,14 +2666,8 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2889,14 +2699,8 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2928,14 +2732,8 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2967,14 +2765,8 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -3006,14 +2798,8 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -3045,14 +2831,8 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -3084,14 +2864,8 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -3123,14 +2897,8 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -3159,17 +2927,11 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -3198,17 +2960,11 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -3237,17 +2993,11 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3276,17 +3026,11 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3315,17 +3059,11 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3354,17 +3092,11 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3393,17 +3125,11 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3432,17 +3158,11 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3471,17 +3191,11 @@
         <v>185591.2247564201</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3510,17 +3224,11 @@
         <v>185833.1601564201</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3549,17 +3257,11 @@
         <v>185813.1601564201</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3588,17 +3290,11 @@
         <v>185813.1601564201</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3630,14 +3326,8 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3666,17 +3356,11 @@
         <v>185814.1601564201</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3705,17 +3389,11 @@
         <v>185814.1601564201</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3744,17 +3422,11 @@
         <v>191961.78305642</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3783,17 +3455,11 @@
         <v>100837.69995642</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3822,17 +3488,11 @@
         <v>100837.69995642</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3861,17 +3521,11 @@
         <v>100827.69995642</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3900,17 +3554,11 @@
         <v>164718.85695642</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3939,17 +3587,11 @@
         <v>164708.85695642</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3978,17 +3620,11 @@
         <v>167492.49565642</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -4017,17 +3653,11 @@
         <v>167610.49565642</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -4056,17 +3686,11 @@
         <v>167610.49565642</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -4095,17 +3719,11 @@
         <v>167610.49565642</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -4134,17 +3752,11 @@
         <v>167600.49565642</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -4173,17 +3785,11 @@
         <v>167611.49565642</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -4212,17 +3818,11 @@
         <v>138171.0038564201</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -4251,17 +3851,11 @@
         <v>138161.0038564201</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -4293,14 +3887,8 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -4329,17 +3917,11 @@
         <v>138172.0038564201</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -4368,17 +3950,11 @@
         <v>142061.28425642</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -4410,14 +3986,8 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4446,17 +4016,11 @@
         <v>142061.28425642</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4485,17 +4049,11 @@
         <v>150125.80025642</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4524,17 +4082,11 @@
         <v>150125.80025642</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4566,14 +4118,8 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4602,17 +4148,11 @@
         <v>148235.47775642</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4641,17 +4181,11 @@
         <v>148235.47775642</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4683,14 +4217,8 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4722,14 +4250,8 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4761,14 +4283,8 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4800,14 +4316,8 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4839,14 +4349,8 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4878,14 +4382,8 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4917,14 +4415,8 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4956,14 +4448,8 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4995,14 +4481,8 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -5034,14 +4514,8 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -5073,14 +4547,8 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -5112,14 +4580,8 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -5151,14 +4613,8 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -5190,14 +4646,8 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -5229,14 +4679,8 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -5268,14 +4712,8 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -5307,14 +4745,8 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -5346,14 +4778,8 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -5385,14 +4811,8 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -5424,14 +4844,8 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -5463,14 +4877,8 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -5502,14 +4910,8 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -5541,14 +4943,8 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -5580,14 +4976,8 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5619,14 +5009,8 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5658,14 +5042,8 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5697,14 +5075,8 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5736,14 +5108,8 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5775,14 +5141,8 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5814,14 +5174,8 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5853,14 +5207,8 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5892,14 +5240,8 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5928,19 +5270,13 @@
         <v>1437304.926660485</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
       <c r="L147" t="n">
-        <v>1.045420168067227</v>
+        <v>1</v>
       </c>
       <c r="M147" t="inlineStr"/>
     </row>
@@ -5967,7 +5303,7 @@
         <v>1437304.926660485</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -6000,7 +5336,7 @@
         <v>1437517.471060485</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -6033,7 +5369,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -6066,7 +5402,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -6099,7 +5435,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -6132,7 +5468,7 @@
         <v>1429177.471060485</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -6165,7 +5501,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
@@ -6198,7 +5534,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6231,7 +5567,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -6264,7 +5600,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -6297,7 +5633,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -6330,7 +5666,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -6363,7 +5699,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -6396,7 +5732,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -6429,7 +5765,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -6462,7 +5798,7 @@
         <v>1429205.804360485</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -6759,7 +6095,7 @@
         <v>1441685.804360485</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6770,6 +6106,6 @@
       <c r="M172" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -484,7 +484,7 @@
         <v>-155115.5725634146</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>-162575.5725634146</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>-188677.5561634146</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>-188677.5561634146</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-257371.9548634146</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -1474,10 +1474,14 @@
         <v>-467658.8717435799</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
-      </c>
-      <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J33" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="n">
         <v>1</v>
@@ -1510,8 +1514,14 @@
         <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L34" t="n">
         <v>1</v>
       </c>
@@ -1543,8 +1553,14 @@
         <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L35" t="n">
         <v>1</v>
       </c>
@@ -1573,10 +1589,14 @@
         <v>-508170.4288435799</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
-      </c>
-      <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I36" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="J36" t="n">
+        <v>11.7</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
         <v>1</v>
@@ -1606,11 +1626,19 @@
         <v>-508180.4288435799</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
-      <c r="K37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J37" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L37" t="n">
         <v>1</v>
       </c>
@@ -1642,8 +1670,14 @@
         <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1738,14 +1772,10 @@
         <v>-447054.8605435799</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J41" t="n">
-        <v>11.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
         <v>1</v>
@@ -1783,11 +1813,7 @@
       <c r="J42" t="n">
         <v>11.7</v>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K42" t="inlineStr"/>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1855,11 +1881,19 @@
         <v>-445499.4824435799</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J44" t="n">
+        <v>11.7</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1964,9 +1998,11 @@
         <v>-438928.6759435799</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
-      </c>
-      <c r="I47" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>11.8</v>
+      </c>
       <c r="J47" t="n">
         <v>11.7</v>
       </c>
@@ -2036,10 +2072,14 @@
         <v>-438938.6759435799</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
-      </c>
-      <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I49" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J49" t="n">
+        <v>11.9</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="n">
         <v>1</v>
@@ -2069,11 +2109,19 @@
         <v>-390791.8363435799</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
-      </c>
-      <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J50" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2102,11 +2150,19 @@
         <v>-394159.4127435799</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
-      </c>
-      <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I51" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J51" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2135,11 +2191,19 @@
         <v>-387061.0377435799</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
-      </c>
-      <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J52" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2171,8 +2235,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2204,8 +2274,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2237,8 +2313,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2270,8 +2352,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2303,8 +2391,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2336,8 +2430,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2369,8 +2469,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2402,8 +2508,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2435,8 +2547,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2468,8 +2586,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2501,8 +2625,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2534,8 +2664,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2567,8 +2703,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2600,8 +2742,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2630,11 +2778,19 @@
         <v>-179579.00854358</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
-      </c>
-      <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I67" t="n">
+        <v>11.8</v>
+      </c>
+      <c r="J67" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2666,8 +2822,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2699,8 +2861,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2732,8 +2900,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2765,8 +2939,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2798,8 +2978,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2831,8 +3017,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2864,8 +3056,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2897,8 +3095,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2927,11 +3131,17 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2960,11 +3170,17 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2993,11 +3209,17 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -3026,11 +3248,17 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3059,11 +3287,17 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3092,11 +3326,17 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3125,11 +3365,17 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3158,11 +3404,17 @@
         <v>231586.3780564201</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3191,11 +3443,17 @@
         <v>185591.2247564201</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3224,11 +3482,17 @@
         <v>185833.1601564201</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3257,11 +3521,17 @@
         <v>185813.1601564201</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3290,11 +3560,17 @@
         <v>185813.1601564201</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3326,8 +3602,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3356,11 +3638,17 @@
         <v>185814.1601564201</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3389,11 +3677,17 @@
         <v>185814.1601564201</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3422,11 +3716,17 @@
         <v>191961.78305642</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3455,11 +3755,17 @@
         <v>100837.69995642</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3488,11 +3794,17 @@
         <v>100837.69995642</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3521,11 +3833,17 @@
         <v>100827.69995642</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3554,11 +3872,17 @@
         <v>164718.85695642</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3587,11 +3911,17 @@
         <v>164708.85695642</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3620,11 +3950,17 @@
         <v>167492.49565642</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3653,11 +3989,17 @@
         <v>167610.49565642</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3686,11 +4028,17 @@
         <v>167610.49565642</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3719,11 +4067,17 @@
         <v>167610.49565642</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3752,11 +4106,17 @@
         <v>167600.49565642</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3785,11 +4145,17 @@
         <v>167611.49565642</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3818,11 +4184,17 @@
         <v>138171.0038564201</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3851,11 +4223,17 @@
         <v>138161.0038564201</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3887,8 +4265,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3917,11 +4301,17 @@
         <v>138172.0038564201</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3950,11 +4340,17 @@
         <v>142061.28425642</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3986,8 +4382,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -4016,11 +4418,17 @@
         <v>142061.28425642</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4049,11 +4457,17 @@
         <v>150125.80025642</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4082,11 +4496,17 @@
         <v>150125.80025642</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4118,8 +4538,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4148,11 +4574,17 @@
         <v>148235.47775642</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4181,11 +4613,17 @@
         <v>148235.47775642</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4217,8 +4655,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4250,8 +4694,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4283,8 +4733,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4316,8 +4772,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4349,8 +4811,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4382,8 +4850,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4415,8 +4889,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4448,8 +4928,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4481,8 +4967,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4514,8 +5006,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4547,8 +5045,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4580,8 +5084,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4613,8 +5123,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4646,8 +5162,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4679,8 +5201,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4712,8 +5240,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4745,8 +5279,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4778,8 +5318,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4811,8 +5357,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4844,8 +5396,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4877,8 +5435,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4910,8 +5474,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4943,8 +5513,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4976,8 +5552,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -5009,8 +5591,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5042,8 +5630,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5075,8 +5669,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5108,8 +5708,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5138,13 +5744,19 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>1.045420168067227</v>
       </c>
       <c r="M143" t="inlineStr"/>
     </row>
@@ -5171,7 +5783,7 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5204,7 +5816,7 @@
         <v>1428524.926660485</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5237,7 +5849,7 @@
         <v>1428514.926660485</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5369,7 +5981,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5402,7 +6014,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5435,7 +6047,7 @@
         <v>1429187.471060485</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5468,7 +6080,7 @@
         <v>1429177.471060485</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
@@ -5534,7 +6146,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -5567,7 +6179,7 @@
         <v>1429225.804360485</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
@@ -5600,7 +6212,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
@@ -5633,7 +6245,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5666,7 +6278,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
@@ -5699,7 +6311,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
@@ -5732,7 +6344,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
@@ -5765,7 +6377,7 @@
         <v>1429215.804360485</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
@@ -5798,7 +6410,7 @@
         <v>1429205.804360485</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5864,7 +6476,7 @@
         <v>1433375.804360485</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5897,7 +6509,7 @@
         <v>1433365.804360485</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5930,7 +6542,7 @@
         <v>1437535.804360485</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5963,7 +6575,7 @@
         <v>1437535.804360485</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5996,7 +6608,7 @@
         <v>1437535.804360485</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -6029,7 +6641,7 @@
         <v>1437535.804360485</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>

--- a/BackTest/2019-10-18 BackTest ORBS.xlsx
+++ b/BackTest/2019-10-18 BackTest ORBS.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M172"/>
+  <dimension ref="A1:L172"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -389,40 +389,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>volume</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>trade_state</t>
+          <t>BuyPrice</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>BuyPrice</t>
+          <t>bprelay</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>bprelay</t>
+          <t>Condition</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Condition</t>
+          <t>Profits</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Profits</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -448,18 +443,15 @@
         <v>22380</v>
       </c>
       <c r="G2" t="n">
-        <v>-187165.7364634146</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="n">
-        <v>1</v>
-      </c>
-      <c r="M2" t="inlineStr"/>
+      <c r="K2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -481,18 +473,15 @@
         <v>32050.1639</v>
       </c>
       <c r="G3" t="n">
-        <v>-155115.5725634146</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="n">
-        <v>1</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -514,18 +503,15 @@
         <v>7460</v>
       </c>
       <c r="G4" t="n">
-        <v>-162575.5725634146</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" t="inlineStr"/>
+      <c r="K4" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -547,18 +533,15 @@
         <v>10000</v>
       </c>
       <c r="G5" t="n">
-        <v>-162575.5725634146</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
-      <c r="L5" t="n">
-        <v>1</v>
-      </c>
-      <c r="M5" t="inlineStr"/>
+      <c r="K5" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -580,18 +563,15 @@
         <v>10</v>
       </c>
       <c r="G6" t="n">
-        <v>-162575.5725634146</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
+      <c r="K6" t="n">
+        <v>1</v>
+      </c>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -613,18 +593,15 @@
         <v>17743.2151</v>
       </c>
       <c r="G7" t="n">
-        <v>-180318.7876634146</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
-      <c r="K7" t="inlineStr"/>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
+      <c r="K7" t="n">
+        <v>1</v>
+      </c>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -646,18 +623,15 @@
         <v>134290.2003</v>
       </c>
       <c r="G8" t="n">
-        <v>-180318.7876634146</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="n">
-        <v>1</v>
-      </c>
-      <c r="M8" t="inlineStr"/>
+      <c r="K8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -679,18 +653,15 @@
         <v>16067.6852</v>
       </c>
       <c r="G9" t="n">
-        <v>-180318.7876634146</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="inlineStr"/>
+      <c r="K9" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -712,18 +683,15 @@
         <v>7862.2314</v>
       </c>
       <c r="G10" t="n">
-        <v>-172456.5562634146</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="inlineStr"/>
+      <c r="K10" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -745,18 +713,15 @@
         <v>16220.9999</v>
       </c>
       <c r="G11" t="n">
-        <v>-188677.5561634146</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
+      <c r="K11" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -778,18 +743,15 @@
         <v>710.2800999999999</v>
       </c>
       <c r="G12" t="n">
-        <v>-188677.5561634146</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
-      <c r="L12" t="n">
-        <v>1</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -811,18 +773,15 @@
         <v>68694.39870000001</v>
       </c>
       <c r="G13" t="n">
-        <v>-257371.9548634146</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
-      <c r="K13" t="inlineStr"/>
-      <c r="L13" t="n">
-        <v>1</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -844,18 +803,15 @@
         <v>278533.4683</v>
       </c>
       <c r="G14" t="n">
-        <v>-257371.9548634146</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
+      <c r="K14" t="n">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -877,18 +833,15 @@
         <v>3847.7764</v>
       </c>
       <c r="G15" t="n">
-        <v>-257371.9548634146</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="n">
-        <v>1</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -910,18 +863,15 @@
         <v>42925.9996</v>
       </c>
       <c r="G16" t="n">
-        <v>-257371.9548634146</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
-      <c r="K16" t="inlineStr"/>
-      <c r="L16" t="n">
-        <v>1</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -943,18 +893,15 @@
         <v>2970</v>
       </c>
       <c r="G17" t="n">
-        <v>-257371.9548634146</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="L17" t="n">
-        <v>1</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -976,18 +923,15 @@
         <v>135481.0847</v>
       </c>
       <c r="G18" t="n">
-        <v>-392853.0395634146</v>
-      </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="n">
-        <v>1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,18 +953,15 @@
         <v>64518</v>
       </c>
       <c r="G19" t="n">
-        <v>-457371.0395634146</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="L19" t="n">
-        <v>1</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1042,18 +983,15 @@
         <v>11</v>
       </c>
       <c r="G20" t="n">
-        <v>-457360.0395634146</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
-      <c r="K20" t="inlineStr"/>
-      <c r="L20" t="n">
-        <v>1</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1075,18 +1013,15 @@
         <v>10</v>
       </c>
       <c r="G21" t="n">
-        <v>-457370.0395634146</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
-      <c r="K21" t="inlineStr"/>
-      <c r="L21" t="n">
-        <v>1</v>
-      </c>
-      <c r="M21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1108,18 +1043,15 @@
         <v>24985.97771983471</v>
       </c>
       <c r="G22" t="n">
-        <v>-432384.0618435799</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
-      <c r="K22" t="inlineStr"/>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1141,18 +1073,15 @@
         <v>9390</v>
       </c>
       <c r="G23" t="n">
-        <v>-441774.0618435799</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr"/>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
-      <c r="K23" t="inlineStr"/>
-      <c r="L23" t="n">
-        <v>1</v>
-      </c>
-      <c r="M23" t="inlineStr"/>
+      <c r="K23" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1174,18 +1103,15 @@
         <v>9390</v>
       </c>
       <c r="G24" t="n">
-        <v>-441774.0618435799</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H24" t="inlineStr"/>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="n">
-        <v>1</v>
-      </c>
-      <c r="M24" t="inlineStr"/>
+      <c r="K24" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1207,18 +1133,15 @@
         <v>3070</v>
       </c>
       <c r="G25" t="n">
-        <v>-441774.0618435799</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H25" t="inlineStr"/>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="n">
-        <v>1</v>
-      </c>
-      <c r="M25" t="inlineStr"/>
+      <c r="K25" t="n">
+        <v>1</v>
+      </c>
+      <c r="L25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1240,18 +1163,15 @@
         <v>1285.9663</v>
       </c>
       <c r="G26" t="n">
-        <v>-441774.0618435799</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="L26" t="n">
-        <v>1</v>
-      </c>
-      <c r="M26" t="inlineStr"/>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1273,18 +1193,15 @@
         <v>10</v>
       </c>
       <c r="G27" t="n">
-        <v>-441774.0618435799</v>
-      </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="n">
-        <v>1</v>
-      </c>
-      <c r="M27" t="inlineStr"/>
+      <c r="K27" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1306,18 +1223,15 @@
         <v>60</v>
       </c>
       <c r="G28" t="n">
-        <v>-441774.0618435799</v>
-      </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="n">
-        <v>1</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+      <c r="K28" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1339,18 +1253,15 @@
         <v>50</v>
       </c>
       <c r="G29" t="n">
-        <v>-441774.0618435799</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="n">
-        <v>1</v>
-      </c>
-      <c r="M29" t="inlineStr"/>
+      <c r="K29" t="n">
+        <v>1</v>
+      </c>
+      <c r="L29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1372,18 +1283,15 @@
         <v>25966.4719</v>
       </c>
       <c r="G30" t="n">
-        <v>-467740.5337435799</v>
-      </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="n">
-        <v>1</v>
-      </c>
-      <c r="M30" t="inlineStr"/>
+      <c r="K30" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1405,18 +1313,15 @@
         <v>702.1494</v>
       </c>
       <c r="G31" t="n">
-        <v>-467740.5337435799</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H31" t="inlineStr"/>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
-      <c r="L31" t="n">
-        <v>1</v>
-      </c>
-      <c r="M31" t="inlineStr"/>
+      <c r="K31" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1438,18 +1343,15 @@
         <v>1297.8506</v>
       </c>
       <c r="G32" t="n">
-        <v>-469038.3843435799</v>
-      </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
-      <c r="L32" t="n">
-        <v>1</v>
-      </c>
-      <c r="M32" t="inlineStr"/>
+      <c r="K32" t="n">
+        <v>1</v>
+      </c>
+      <c r="L32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1471,22 +1373,15 @@
         <v>1379.5126</v>
       </c>
       <c r="G33" t="n">
-        <v>-467658.8717435799</v>
-      </c>
-      <c r="H33" t="n">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J33" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K33" t="inlineStr"/>
-      <c r="L33" t="n">
-        <v>1</v>
-      </c>
-      <c r="M33" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1508,24 +1403,15 @@
         <v>43011.5571</v>
       </c>
       <c r="G34" t="n">
-        <v>-510670.4288435799</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H34" t="inlineStr"/>
       <c r="I34" t="inlineStr"/>
-      <c r="J34" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="n">
+        <v>1</v>
+      </c>
+      <c r="L34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1547,24 +1433,15 @@
         <v>10</v>
       </c>
       <c r="G35" t="n">
-        <v>-510670.4288435799</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L35" t="n">
-        <v>1</v>
-      </c>
-      <c r="M35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="n">
+        <v>1</v>
+      </c>
+      <c r="L35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1586,22 +1463,15 @@
         <v>2500</v>
       </c>
       <c r="G36" t="n">
-        <v>-508170.4288435799</v>
-      </c>
-      <c r="H36" t="n">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="J36" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="n">
-        <v>1</v>
-      </c>
-      <c r="M36" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr"/>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1623,26 +1493,15 @@
         <v>10</v>
       </c>
       <c r="G37" t="n">
-        <v>-508180.4288435799</v>
-      </c>
-      <c r="H37" t="n">
-        <v>1</v>
-      </c>
-      <c r="I37" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="J37" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L37" t="n">
-        <v>1</v>
-      </c>
-      <c r="M37" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1664,24 +1523,15 @@
         <v>61135.5683</v>
       </c>
       <c r="G38" t="n">
-        <v>-447044.8605435799</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L38" t="n">
-        <v>1</v>
-      </c>
-      <c r="M38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1703,18 +1553,15 @@
         <v>6345.7876</v>
       </c>
       <c r="G39" t="n">
-        <v>-447044.8605435799</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
-      <c r="L39" t="n">
-        <v>1</v>
-      </c>
-      <c r="M39" t="inlineStr"/>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1736,18 +1583,15 @@
         <v>10</v>
       </c>
       <c r="G40" t="n">
-        <v>-447054.8605435799</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="n">
-        <v>1</v>
-      </c>
-      <c r="M40" t="inlineStr"/>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1769,18 +1613,15 @@
         <v>1368.6728</v>
       </c>
       <c r="G41" t="n">
-        <v>-447054.8605435799</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="n">
-        <v>1</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1802,22 +1643,19 @@
         <v>4705.3781</v>
       </c>
       <c r="G42" t="n">
-        <v>-442349.4824435799</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="I42" t="n">
         <v>11.7</v>
       </c>
-      <c r="J42" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K42" t="inlineStr"/>
-      <c r="L42" t="n">
-        <v>1</v>
-      </c>
-      <c r="M42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1839,24 +1677,23 @@
         <v>3140</v>
       </c>
       <c r="G43" t="n">
-        <v>-445489.4824435799</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
-      </c>
-      <c r="I43" t="inlineStr"/>
-      <c r="J43" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="I43" t="n">
         <v>11.7</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L43" t="n">
-        <v>1</v>
-      </c>
-      <c r="M43" t="inlineStr"/>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1878,26 +1715,23 @@
         <v>10</v>
       </c>
       <c r="G44" t="n">
-        <v>-445499.4824435799</v>
+        <v>1</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>11.8</v>
       </c>
       <c r="I44" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J44" t="n">
         <v>11.7</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L44" t="n">
-        <v>1</v>
-      </c>
-      <c r="M44" t="inlineStr"/>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1919,22 +1753,19 @@
         <v>11</v>
       </c>
       <c r="G45" t="n">
-        <v>-445488.4824435799</v>
+        <v>1</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>11.7</v>
       </c>
       <c r="I45" t="n">
         <v>11.7</v>
       </c>
-      <c r="J45" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="K45" t="inlineStr"/>
-      <c r="L45" t="n">
-        <v>1</v>
-      </c>
-      <c r="M45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1956,24 +1787,23 @@
         <v>10</v>
       </c>
       <c r="G46" t="n">
-        <v>-445498.4824435799</v>
+        <v>1</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
-      </c>
-      <c r="I46" t="inlineStr"/>
-      <c r="J46" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="I46" t="n">
         <v>11.7</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L46" t="n">
-        <v>1</v>
-      </c>
-      <c r="M46" t="inlineStr"/>
+      <c r="K46" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1995,26 +1825,23 @@
         <v>6569.8065</v>
       </c>
       <c r="G47" t="n">
-        <v>-438928.6759435799</v>
+        <v>1</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>11.8</v>
       </c>
       <c r="I47" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J47" t="n">
         <v>11.7</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L47" t="n">
-        <v>1</v>
-      </c>
-      <c r="M47" t="inlineStr"/>
+      <c r="K47" t="n">
+        <v>1</v>
+      </c>
+      <c r="L47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2036,18 +1863,19 @@
         <v>29569.1604</v>
       </c>
       <c r="G48" t="n">
-        <v>-438928.6759435799</v>
+        <v>1</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
-      </c>
-      <c r="I48" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="I48" t="n">
+        <v>11.9</v>
+      </c>
       <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="n">
-        <v>1</v>
-      </c>
-      <c r="M48" t="inlineStr"/>
+      <c r="K48" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2069,22 +1897,21 @@
         <v>10</v>
       </c>
       <c r="G49" t="n">
-        <v>-438938.6759435799</v>
-      </c>
-      <c r="H49" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr"/>
       <c r="I49" t="n">
         <v>11.9</v>
       </c>
-      <c r="J49" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K49" t="inlineStr"/>
-      <c r="L49" t="n">
-        <v>1</v>
-      </c>
-      <c r="M49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2106,26 +1933,21 @@
         <v>48146.8396</v>
       </c>
       <c r="G50" t="n">
-        <v>-390791.8363435799</v>
-      </c>
-      <c r="H50" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H50" t="inlineStr"/>
       <c r="I50" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K50" t="inlineStr">
+        <v>11.9</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L50" t="n">
-        <v>1</v>
-      </c>
-      <c r="M50" t="inlineStr"/>
+      <c r="K50" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2147,26 +1969,21 @@
         <v>3367.5764</v>
       </c>
       <c r="G51" t="n">
-        <v>-394159.4127435799</v>
-      </c>
-      <c r="H51" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H51" t="inlineStr"/>
       <c r="I51" t="n">
         <v>11.9</v>
       </c>
-      <c r="J51" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L51" t="n">
-        <v>1</v>
-      </c>
-      <c r="M51" t="inlineStr"/>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
+        <v>1</v>
+      </c>
+      <c r="L51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2188,26 +2005,21 @@
         <v>7098.375</v>
       </c>
       <c r="G52" t="n">
-        <v>-387061.0377435799</v>
-      </c>
-      <c r="H52" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H52" t="inlineStr"/>
       <c r="I52" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J52" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L52" t="n">
-        <v>1</v>
-      </c>
-      <c r="M52" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2229,24 +2041,21 @@
         <v>10</v>
       </c>
       <c r="G53" t="n">
-        <v>-387071.0377435799</v>
-      </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
-      <c r="I53" t="inlineStr"/>
-      <c r="J53" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L53" t="n">
-        <v>1</v>
-      </c>
-      <c r="M53" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2268,24 +2077,21 @@
         <v>50000</v>
       </c>
       <c r="G54" t="n">
-        <v>-337071.0377435799</v>
-      </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L54" t="n">
-        <v>1</v>
-      </c>
-      <c r="M54" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H54" t="inlineStr"/>
+      <c r="I54" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2307,24 +2113,21 @@
         <v>168.175</v>
       </c>
       <c r="G55" t="n">
-        <v>-336902.86274358</v>
-      </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
-      <c r="I55" t="inlineStr"/>
-      <c r="J55" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L55" t="n">
-        <v>1</v>
-      </c>
-      <c r="M55" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2346,24 +2149,21 @@
         <v>34468.4708</v>
       </c>
       <c r="G56" t="n">
-        <v>-336902.86274358</v>
-      </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
-      <c r="I56" t="inlineStr"/>
-      <c r="J56" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L56" t="n">
-        <v>1</v>
-      </c>
-      <c r="M56" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2385,24 +2185,21 @@
         <v>8143.7121</v>
       </c>
       <c r="G57" t="n">
-        <v>-345046.57484358</v>
-      </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
-      <c r="J57" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L57" t="n">
-        <v>1</v>
-      </c>
-      <c r="M57" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H57" t="inlineStr"/>
+      <c r="I57" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2424,24 +2221,21 @@
         <v>5000.0001</v>
       </c>
       <c r="G58" t="n">
-        <v>-345046.57484358</v>
-      </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
-      <c r="I58" t="inlineStr"/>
-      <c r="J58" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L58" t="n">
-        <v>1</v>
-      </c>
-      <c r="M58" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H58" t="inlineStr"/>
+      <c r="I58" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2463,24 +2257,21 @@
         <v>4500</v>
       </c>
       <c r="G59" t="n">
-        <v>-345046.57484358</v>
-      </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
-      <c r="I59" t="inlineStr"/>
-      <c r="J59" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L59" t="n">
-        <v>1</v>
-      </c>
-      <c r="M59" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
+        <v>1</v>
+      </c>
+      <c r="L59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2502,24 +2293,21 @@
         <v>253.4166</v>
       </c>
       <c r="G60" t="n">
-        <v>-344793.15824358</v>
-      </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
-      <c r="I60" t="inlineStr"/>
-      <c r="J60" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L60" t="n">
-        <v>1</v>
-      </c>
-      <c r="M60" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H60" t="inlineStr"/>
+      <c r="I60" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
+        <v>1</v>
+      </c>
+      <c r="L60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2541,24 +2329,21 @@
         <v>10</v>
       </c>
       <c r="G61" t="n">
-        <v>-344803.15824358</v>
-      </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
-      <c r="I61" t="inlineStr"/>
-      <c r="J61" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L61" t="n">
-        <v>1</v>
-      </c>
-      <c r="M61" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2580,24 +2365,21 @@
         <v>37869.7999</v>
       </c>
       <c r="G62" t="n">
-        <v>-344803.15824358</v>
-      </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
-      <c r="I62" t="inlineStr"/>
-      <c r="J62" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L62" t="n">
-        <v>1</v>
-      </c>
-      <c r="M62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2619,24 +2401,21 @@
         <v>12</v>
       </c>
       <c r="G63" t="n">
-        <v>-344791.15824358</v>
-      </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
-      <c r="I63" t="inlineStr"/>
-      <c r="J63" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L63" t="n">
-        <v>1</v>
-      </c>
-      <c r="M63" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
+        <v>1</v>
+      </c>
+      <c r="L63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2658,24 +2437,21 @@
         <v>10</v>
       </c>
       <c r="G64" t="n">
-        <v>-344801.15824358</v>
-      </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L64" t="n">
-        <v>1</v>
-      </c>
-      <c r="M64" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H64" t="inlineStr"/>
+      <c r="I64" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2697,24 +2473,21 @@
         <v>68607.5107</v>
       </c>
       <c r="G65" t="n">
-        <v>-344801.15824358</v>
-      </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
-      <c r="I65" t="inlineStr"/>
-      <c r="J65" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L65" t="n">
-        <v>1</v>
-      </c>
-      <c r="M65" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H65" t="inlineStr"/>
+      <c r="I65" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
+        <v>1</v>
+      </c>
+      <c r="L65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2736,24 +2509,21 @@
         <v>10</v>
       </c>
       <c r="G66" t="n">
-        <v>-344811.15824358</v>
-      </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
-      <c r="I66" t="inlineStr"/>
-      <c r="J66" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L66" t="n">
-        <v>1</v>
-      </c>
-      <c r="M66" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H66" t="inlineStr"/>
+      <c r="I66" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
+        <v>1</v>
+      </c>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2775,26 +2545,21 @@
         <v>165232.1497</v>
       </c>
       <c r="G67" t="n">
-        <v>-179579.00854358</v>
-      </c>
-      <c r="H67" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H67" t="inlineStr"/>
       <c r="I67" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="J67" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L67" t="n">
-        <v>1</v>
-      </c>
-      <c r="M67" t="inlineStr"/>
+        <v>11.9</v>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2816,24 +2581,21 @@
         <v>164695.2194</v>
       </c>
       <c r="G68" t="n">
-        <v>-14883.78914357995</v>
-      </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
-      <c r="I68" t="inlineStr"/>
-      <c r="J68" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L68" t="n">
-        <v>1</v>
-      </c>
-      <c r="M68" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H68" t="inlineStr"/>
+      <c r="I68" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2855,24 +2617,21 @@
         <v>10</v>
       </c>
       <c r="G69" t="n">
-        <v>-14893.78914357995</v>
-      </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
-      <c r="I69" t="inlineStr"/>
-      <c r="J69" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L69" t="n">
-        <v>1</v>
-      </c>
-      <c r="M69" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H69" t="inlineStr"/>
+      <c r="I69" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K69" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2894,24 +2653,21 @@
         <v>8437.2474</v>
       </c>
       <c r="G70" t="n">
-        <v>-14893.78914357995</v>
-      </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
-      <c r="I70" t="inlineStr"/>
-      <c r="J70" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L70" t="n">
-        <v>1</v>
-      </c>
-      <c r="M70" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K70" t="n">
+        <v>1</v>
+      </c>
+      <c r="L70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2933,24 +2689,21 @@
         <v>15127.2509</v>
       </c>
       <c r="G71" t="n">
-        <v>233.4617564200453</v>
-      </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L71" t="n">
-        <v>1</v>
-      </c>
-      <c r="M71" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H71" t="inlineStr"/>
+      <c r="I71" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2972,24 +2725,21 @@
         <v>225953.1906</v>
       </c>
       <c r="G72" t="n">
-        <v>226186.6523564201</v>
-      </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L72" t="n">
-        <v>1</v>
-      </c>
-      <c r="M72" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H72" t="inlineStr"/>
+      <c r="I72" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K72" t="n">
+        <v>1</v>
+      </c>
+      <c r="L72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3011,24 +2761,21 @@
         <v>1421.5574</v>
       </c>
       <c r="G73" t="n">
-        <v>226186.6523564201</v>
-      </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L73" t="n">
-        <v>1</v>
-      </c>
-      <c r="M73" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H73" t="inlineStr"/>
+      <c r="I73" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,24 +2797,21 @@
         <v>35583.8808</v>
       </c>
       <c r="G74" t="n">
-        <v>190602.7715564201</v>
-      </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L74" t="n">
-        <v>1</v>
-      </c>
-      <c r="M74" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H74" t="inlineStr"/>
+      <c r="I74" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K74" t="n">
+        <v>1</v>
+      </c>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3089,24 +2833,21 @@
         <v>40983.6065</v>
       </c>
       <c r="G75" t="n">
-        <v>231586.3780564201</v>
-      </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L75" t="n">
-        <v>1</v>
-      </c>
-      <c r="M75" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H75" t="inlineStr"/>
+      <c r="I75" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3128,24 +2869,21 @@
         <v>7883.1252</v>
       </c>
       <c r="G76" t="n">
-        <v>231586.3780564201</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L76" t="n">
-        <v>1</v>
-      </c>
-      <c r="M76" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3167,24 +2905,21 @@
         <v>50</v>
       </c>
       <c r="G77" t="n">
-        <v>231586.3780564201</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L77" t="n">
-        <v>1</v>
-      </c>
-      <c r="M77" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3206,24 +2941,21 @@
         <v>22</v>
       </c>
       <c r="G78" t="n">
-        <v>231586.3780564201</v>
-      </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L78" t="n">
-        <v>1</v>
-      </c>
-      <c r="M78" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H78" t="inlineStr"/>
+      <c r="I78" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K78" t="n">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3245,24 +2977,21 @@
         <v>2600</v>
       </c>
       <c r="G79" t="n">
-        <v>231586.3780564201</v>
-      </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L79" t="n">
-        <v>1</v>
-      </c>
-      <c r="M79" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H79" t="inlineStr"/>
+      <c r="I79" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3284,24 +3013,21 @@
         <v>10</v>
       </c>
       <c r="G80" t="n">
-        <v>231586.3780564201</v>
-      </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L80" t="n">
-        <v>1</v>
-      </c>
-      <c r="M80" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K80" t="n">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3323,24 +3049,21 @@
         <v>3361.3444</v>
       </c>
       <c r="G81" t="n">
-        <v>231586.3780564201</v>
-      </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L81" t="n">
-        <v>1</v>
-      </c>
-      <c r="M81" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H81" t="inlineStr"/>
+      <c r="I81" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3362,24 +3085,21 @@
         <v>10</v>
       </c>
       <c r="G82" t="n">
-        <v>231586.3780564201</v>
-      </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L82" t="n">
-        <v>1</v>
-      </c>
-      <c r="M82" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H82" t="inlineStr"/>
+      <c r="I82" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K82" t="n">
+        <v>1</v>
+      </c>
+      <c r="L82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3401,24 +3121,21 @@
         <v>30000</v>
       </c>
       <c r="G83" t="n">
-        <v>231586.3780564201</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L83" t="n">
-        <v>1</v>
-      </c>
-      <c r="M83" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3440,24 +3157,21 @@
         <v>45995.1533</v>
       </c>
       <c r="G84" t="n">
-        <v>185591.2247564201</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L84" t="n">
-        <v>1</v>
-      </c>
-      <c r="M84" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H84" t="inlineStr"/>
+      <c r="I84" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3479,24 +3193,21 @@
         <v>241.9354</v>
       </c>
       <c r="G85" t="n">
-        <v>185833.1601564201</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L85" t="n">
-        <v>1</v>
-      </c>
-      <c r="M85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K85" t="n">
+        <v>1</v>
+      </c>
+      <c r="L85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3518,24 +3229,21 @@
         <v>20</v>
       </c>
       <c r="G86" t="n">
-        <v>185813.1601564201</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L86" t="n">
-        <v>1</v>
-      </c>
-      <c r="M86" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H86" t="inlineStr"/>
+      <c r="I86" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K86" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3557,24 +3265,21 @@
         <v>174518.1842</v>
       </c>
       <c r="G87" t="n">
-        <v>185813.1601564201</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L87" t="n">
-        <v>1</v>
-      </c>
-      <c r="M87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr"/>
+      <c r="I87" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3596,24 +3301,21 @@
         <v>11</v>
       </c>
       <c r="G88" t="n">
-        <v>185824.1601564201</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L88" t="n">
-        <v>1</v>
-      </c>
-      <c r="M88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr"/>
+      <c r="I88" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3635,24 +3337,21 @@
         <v>10</v>
       </c>
       <c r="G89" t="n">
-        <v>185814.1601564201</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L89" t="n">
-        <v>1</v>
-      </c>
-      <c r="M89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H89" t="inlineStr"/>
+      <c r="I89" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K89" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3674,24 +3373,21 @@
         <v>40890.395</v>
       </c>
       <c r="G90" t="n">
-        <v>185814.1601564201</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-      <c r="I90" t="inlineStr"/>
-      <c r="J90" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L90" t="n">
-        <v>1</v>
-      </c>
-      <c r="M90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H90" t="inlineStr"/>
+      <c r="I90" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3713,24 +3409,21 @@
         <v>6147.6229</v>
       </c>
       <c r="G91" t="n">
-        <v>191961.78305642</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-      <c r="I91" t="inlineStr"/>
-      <c r="J91" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L91" t="n">
-        <v>1</v>
-      </c>
-      <c r="M91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H91" t="inlineStr"/>
+      <c r="I91" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3752,24 +3445,21 @@
         <v>91124.0831</v>
       </c>
       <c r="G92" t="n">
-        <v>100837.69995642</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-      <c r="I92" t="inlineStr"/>
-      <c r="J92" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L92" t="n">
-        <v>1</v>
-      </c>
-      <c r="M92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H92" t="inlineStr"/>
+      <c r="I92" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K92" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3791,24 +3481,21 @@
         <v>810</v>
       </c>
       <c r="G93" t="n">
-        <v>100837.69995642</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-      <c r="I93" t="inlineStr"/>
-      <c r="J93" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L93" t="n">
-        <v>1</v>
-      </c>
-      <c r="M93" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H93" t="inlineStr"/>
+      <c r="I93" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K93" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3830,24 +3517,21 @@
         <v>10</v>
       </c>
       <c r="G94" t="n">
-        <v>100827.69995642</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-      <c r="I94" t="inlineStr"/>
-      <c r="J94" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L94" t="n">
-        <v>1</v>
-      </c>
-      <c r="M94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H94" t="inlineStr"/>
+      <c r="I94" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K94" t="n">
+        <v>1</v>
+      </c>
+      <c r="L94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3869,24 +3553,21 @@
         <v>63891.157</v>
       </c>
       <c r="G95" t="n">
-        <v>164718.85695642</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-      <c r="I95" t="inlineStr"/>
-      <c r="J95" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>1</v>
-      </c>
-      <c r="M95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H95" t="inlineStr"/>
+      <c r="I95" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K95" t="n">
+        <v>1</v>
+      </c>
+      <c r="L95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3908,24 +3589,21 @@
         <v>10</v>
       </c>
       <c r="G96" t="n">
-        <v>164708.85695642</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-      <c r="I96" t="inlineStr"/>
-      <c r="J96" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L96" t="n">
-        <v>1</v>
-      </c>
-      <c r="M96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H96" t="inlineStr"/>
+      <c r="I96" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K96" t="n">
+        <v>1</v>
+      </c>
+      <c r="L96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3947,24 +3625,21 @@
         <v>2783.6387</v>
       </c>
       <c r="G97" t="n">
-        <v>167492.49565642</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-      <c r="I97" t="inlineStr"/>
-      <c r="J97" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L97" t="n">
-        <v>1</v>
-      </c>
-      <c r="M97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr"/>
+      <c r="I97" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K97" t="n">
+        <v>1</v>
+      </c>
+      <c r="L97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3986,24 +3661,21 @@
         <v>118</v>
       </c>
       <c r="G98" t="n">
-        <v>167610.49565642</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-      <c r="I98" t="inlineStr"/>
-      <c r="J98" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L98" t="n">
-        <v>1</v>
-      </c>
-      <c r="M98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr"/>
+      <c r="I98" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -4025,24 +3697,21 @@
         <v>4658.5901</v>
       </c>
       <c r="G99" t="n">
-        <v>167610.49565642</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-      <c r="I99" t="inlineStr"/>
-      <c r="J99" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L99" t="n">
-        <v>1</v>
-      </c>
-      <c r="M99" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H99" t="inlineStr"/>
+      <c r="I99" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K99" t="n">
+        <v>1</v>
+      </c>
+      <c r="L99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -4064,24 +3733,21 @@
         <v>16393.4426</v>
       </c>
       <c r="G100" t="n">
-        <v>167610.49565642</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-      <c r="I100" t="inlineStr"/>
-      <c r="J100" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>1</v>
-      </c>
-      <c r="M100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H100" t="inlineStr"/>
+      <c r="I100" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4103,24 +3769,21 @@
         <v>10</v>
       </c>
       <c r="G101" t="n">
-        <v>167600.49565642</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-      <c r="I101" t="inlineStr"/>
-      <c r="J101" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>1</v>
-      </c>
-      <c r="M101" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H101" t="inlineStr"/>
+      <c r="I101" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K101" t="n">
+        <v>1</v>
+      </c>
+      <c r="L101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4142,24 +3805,21 @@
         <v>11</v>
       </c>
       <c r="G102" t="n">
-        <v>167611.49565642</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-      <c r="I102" t="inlineStr"/>
-      <c r="J102" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L102" t="n">
-        <v>1</v>
-      </c>
-      <c r="M102" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H102" t="inlineStr"/>
+      <c r="I102" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4181,24 +3841,21 @@
         <v>29440.4918</v>
       </c>
       <c r="G103" t="n">
-        <v>138171.0038564201</v>
-      </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
-      <c r="I103" t="inlineStr"/>
-      <c r="J103" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L103" t="n">
-        <v>1</v>
-      </c>
-      <c r="M103" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H103" t="inlineStr"/>
+      <c r="I103" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K103" t="n">
+        <v>1</v>
+      </c>
+      <c r="L103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4220,24 +3877,21 @@
         <v>10</v>
       </c>
       <c r="G104" t="n">
-        <v>138161.0038564201</v>
-      </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
-      <c r="I104" t="inlineStr"/>
-      <c r="J104" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L104" t="n">
-        <v>1</v>
-      </c>
-      <c r="M104" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H104" t="inlineStr"/>
+      <c r="I104" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K104" t="n">
+        <v>1</v>
+      </c>
+      <c r="L104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4259,24 +3913,21 @@
         <v>11</v>
       </c>
       <c r="G105" t="n">
-        <v>138172.0038564201</v>
-      </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L105" t="n">
-        <v>1</v>
-      </c>
-      <c r="M105" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr"/>
+      <c r="I105" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4298,24 +3949,21 @@
         <v>49175.4019</v>
       </c>
       <c r="G106" t="n">
-        <v>138172.0038564201</v>
-      </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L106" t="n">
-        <v>1</v>
-      </c>
-      <c r="M106" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H106" t="inlineStr"/>
+      <c r="I106" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K106" t="n">
+        <v>1</v>
+      </c>
+      <c r="L106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4337,24 +3985,21 @@
         <v>3889.2804</v>
       </c>
       <c r="G107" t="n">
-        <v>142061.28425642</v>
-      </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
-      <c r="I107" t="inlineStr"/>
-      <c r="J107" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L107" t="n">
-        <v>1</v>
-      </c>
-      <c r="M107" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H107" t="inlineStr"/>
+      <c r="I107" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4376,24 +4021,21 @@
         <v>23626.275</v>
       </c>
       <c r="G108" t="n">
-        <v>142061.28425642</v>
-      </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
-      <c r="I108" t="inlineStr"/>
-      <c r="J108" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L108" t="n">
-        <v>1</v>
-      </c>
-      <c r="M108" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr"/>
+      <c r="I108" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K108" t="n">
+        <v>1</v>
+      </c>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4415,24 +4057,21 @@
         <v>121224.7617</v>
       </c>
       <c r="G109" t="n">
-        <v>142061.28425642</v>
-      </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
-      <c r="I109" t="inlineStr"/>
-      <c r="J109" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L109" t="n">
-        <v>1</v>
-      </c>
-      <c r="M109" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H109" t="inlineStr"/>
+      <c r="I109" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4454,24 +4093,21 @@
         <v>8064.516</v>
       </c>
       <c r="G110" t="n">
-        <v>150125.80025642</v>
-      </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
-      <c r="I110" t="inlineStr"/>
-      <c r="J110" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L110" t="n">
-        <v>1</v>
-      </c>
-      <c r="M110" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr"/>
+      <c r="I110" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K110" t="n">
+        <v>1</v>
+      </c>
+      <c r="L110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4493,24 +4129,21 @@
         <v>102419.3549</v>
       </c>
       <c r="G111" t="n">
-        <v>150125.80025642</v>
-      </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
-      <c r="I111" t="inlineStr"/>
-      <c r="J111" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L111" t="n">
-        <v>1</v>
-      </c>
-      <c r="M111" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4532,24 +4165,21 @@
         <v>4400</v>
       </c>
       <c r="G112" t="n">
-        <v>154525.80025642</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L112" t="n">
-        <v>1</v>
-      </c>
-      <c r="M112" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K112" t="n">
+        <v>1</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4571,24 +4201,21 @@
         <v>6290.3225</v>
       </c>
       <c r="G113" t="n">
-        <v>148235.47775642</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L113" t="n">
-        <v>1</v>
-      </c>
-      <c r="M113" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K113" t="n">
+        <v>1</v>
+      </c>
+      <c r="L113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4610,24 +4237,21 @@
         <v>14395.1806</v>
       </c>
       <c r="G114" t="n">
-        <v>148235.47775642</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L114" t="n">
-        <v>1</v>
-      </c>
-      <c r="M114" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr"/>
+      <c r="I114" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K114" t="n">
+        <v>1</v>
+      </c>
+      <c r="L114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4649,24 +4273,21 @@
         <v>10</v>
       </c>
       <c r="G115" t="n">
-        <v>148225.47775642</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="inlineStr"/>
-      <c r="J115" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L115" t="n">
-        <v>1</v>
-      </c>
-      <c r="M115" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H115" t="inlineStr"/>
+      <c r="I115" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K115" t="n">
+        <v>1</v>
+      </c>
+      <c r="L115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4688,24 +4309,21 @@
         <v>16129.0321</v>
       </c>
       <c r="G116" t="n">
-        <v>164354.50985642</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="inlineStr"/>
-      <c r="J116" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L116" t="n">
-        <v>1</v>
-      </c>
-      <c r="M116" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4727,24 +4345,21 @@
         <v>10</v>
       </c>
       <c r="G117" t="n">
-        <v>164344.50985642</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="inlineStr"/>
-      <c r="J117" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L117" t="n">
-        <v>1</v>
-      </c>
-      <c r="M117" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H117" t="inlineStr"/>
+      <c r="I117" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4766,24 +4381,21 @@
         <v>100</v>
       </c>
       <c r="G118" t="n">
-        <v>164444.50985642</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="inlineStr"/>
-      <c r="J118" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L118" t="n">
-        <v>1</v>
-      </c>
-      <c r="M118" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H118" t="inlineStr"/>
+      <c r="I118" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K118" t="n">
+        <v>1</v>
+      </c>
+      <c r="L118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4805,24 +4417,21 @@
         <v>10</v>
       </c>
       <c r="G119" t="n">
-        <v>164434.50985642</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="inlineStr"/>
-      <c r="J119" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L119" t="n">
-        <v>1</v>
-      </c>
-      <c r="M119" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K119" t="n">
+        <v>1</v>
+      </c>
+      <c r="L119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4844,24 +4453,21 @@
         <v>316301.1625</v>
       </c>
       <c r="G120" t="n">
-        <v>164434.50985642</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="inlineStr"/>
-      <c r="J120" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L120" t="n">
-        <v>1</v>
-      </c>
-      <c r="M120" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr"/>
+      <c r="I120" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4883,24 +4489,21 @@
         <v>800.0232</v>
       </c>
       <c r="G121" t="n">
-        <v>164434.50985642</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="inlineStr"/>
-      <c r="J121" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L121" t="n">
-        <v>1</v>
-      </c>
-      <c r="M121" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H121" t="inlineStr"/>
+      <c r="I121" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K121" t="n">
+        <v>1</v>
+      </c>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4922,24 +4525,21 @@
         <v>152904.5253</v>
       </c>
       <c r="G122" t="n">
-        <v>317339.0351564201</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="inlineStr"/>
-      <c r="J122" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L122" t="n">
-        <v>1</v>
-      </c>
-      <c r="M122" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H122" t="inlineStr"/>
+      <c r="I122" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K122" t="n">
+        <v>1</v>
+      </c>
+      <c r="L122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4961,24 +4561,21 @@
         <v>4370</v>
       </c>
       <c r="G123" t="n">
-        <v>312969.0351564201</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="inlineStr"/>
-      <c r="J123" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L123" t="n">
-        <v>1</v>
-      </c>
-      <c r="M123" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H123" t="inlineStr"/>
+      <c r="I123" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K123" t="n">
+        <v>1</v>
+      </c>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5000,24 +4597,21 @@
         <v>40650.40650406504</v>
       </c>
       <c r="G124" t="n">
-        <v>353619.4416604851</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="inlineStr"/>
-      <c r="J124" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L124" t="n">
-        <v>1</v>
-      </c>
-      <c r="M124" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H124" t="inlineStr"/>
+      <c r="I124" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K124" t="n">
+        <v>1</v>
+      </c>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -5039,24 +4633,21 @@
         <v>242229.8577</v>
       </c>
       <c r="G125" t="n">
-        <v>353619.4416604851</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="inlineStr"/>
-      <c r="J125" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L125" t="n">
-        <v>1</v>
-      </c>
-      <c r="M125" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H125" t="inlineStr"/>
+      <c r="I125" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K125" t="n">
+        <v>1</v>
+      </c>
+      <c r="L125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -5078,24 +4669,21 @@
         <v>17600</v>
       </c>
       <c r="G126" t="n">
-        <v>353619.4416604851</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="inlineStr"/>
-      <c r="J126" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L126" t="n">
-        <v>1</v>
-      </c>
-      <c r="M126" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H126" t="inlineStr"/>
+      <c r="I126" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K126" t="n">
+        <v>1</v>
+      </c>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -5117,24 +4705,21 @@
         <v>8180.0813</v>
       </c>
       <c r="G127" t="n">
-        <v>353619.4416604851</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="inlineStr"/>
-      <c r="J127" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L127" t="n">
-        <v>1</v>
-      </c>
-      <c r="M127" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr"/>
+      <c r="I127" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K127" t="n">
+        <v>1</v>
+      </c>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -5156,24 +4741,21 @@
         <v>10500</v>
       </c>
       <c r="G128" t="n">
-        <v>353619.4416604851</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="inlineStr"/>
-      <c r="J128" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L128" t="n">
-        <v>1</v>
-      </c>
-      <c r="M128" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H128" t="inlineStr"/>
+      <c r="I128" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K128" t="n">
+        <v>1</v>
+      </c>
+      <c r="L128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5195,24 +4777,21 @@
         <v>609.5934</v>
       </c>
       <c r="G129" t="n">
-        <v>353619.4416604851</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="inlineStr"/>
-      <c r="J129" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L129" t="n">
-        <v>1</v>
-      </c>
-      <c r="M129" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H129" t="inlineStr"/>
+      <c r="I129" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K129" t="n">
+        <v>1</v>
+      </c>
+      <c r="L129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5234,24 +4813,21 @@
         <v>771172.48</v>
       </c>
       <c r="G130" t="n">
-        <v>1124791.921660485</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="inlineStr"/>
-      <c r="J130" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L130" t="n">
-        <v>1</v>
-      </c>
-      <c r="M130" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr"/>
+      <c r="I130" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K130" t="n">
+        <v>1</v>
+      </c>
+      <c r="L130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5273,24 +4849,21 @@
         <v>4400</v>
       </c>
       <c r="G131" t="n">
-        <v>1124791.921660485</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="inlineStr"/>
-      <c r="J131" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>1</v>
-      </c>
-      <c r="M131" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H131" t="inlineStr"/>
+      <c r="I131" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5312,24 +4885,21 @@
         <v>188919.5574</v>
       </c>
       <c r="G132" t="n">
-        <v>1313711.479060485</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="inlineStr"/>
-      <c r="J132" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>1</v>
-      </c>
-      <c r="M132" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H132" t="inlineStr"/>
+      <c r="I132" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K132" t="n">
+        <v>1</v>
+      </c>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5351,24 +4921,21 @@
         <v>73849.8412</v>
       </c>
       <c r="G133" t="n">
-        <v>1387561.320260485</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="inlineStr"/>
-      <c r="J133" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L133" t="n">
-        <v>1</v>
-      </c>
-      <c r="M133" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H133" t="inlineStr"/>
+      <c r="I133" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K133" t="n">
+        <v>1</v>
+      </c>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5390,24 +4957,21 @@
         <v>10</v>
       </c>
       <c r="G134" t="n">
-        <v>1387551.320260485</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="inlineStr"/>
-      <c r="J134" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L134" t="n">
-        <v>1</v>
-      </c>
-      <c r="M134" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H134" t="inlineStr"/>
+      <c r="I134" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K134" t="n">
+        <v>1</v>
+      </c>
+      <c r="L134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5429,24 +4993,21 @@
         <v>54414.189</v>
       </c>
       <c r="G135" t="n">
-        <v>1387551.320260485</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="inlineStr"/>
-      <c r="J135" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L135" t="n">
-        <v>1</v>
-      </c>
-      <c r="M135" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K135" t="n">
+        <v>1</v>
+      </c>
+      <c r="L135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5468,24 +5029,21 @@
         <v>40983.6064</v>
       </c>
       <c r="G136" t="n">
-        <v>1428534.926660485</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="inlineStr"/>
-      <c r="J136" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L136" t="n">
-        <v>1</v>
-      </c>
-      <c r="M136" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr"/>
+      <c r="I136" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K136" t="n">
+        <v>1</v>
+      </c>
+      <c r="L136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5507,24 +5065,21 @@
         <v>10</v>
       </c>
       <c r="G137" t="n">
-        <v>1428524.926660485</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="inlineStr"/>
-      <c r="J137" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L137" t="n">
-        <v>1</v>
-      </c>
-      <c r="M137" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H137" t="inlineStr"/>
+      <c r="I137" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5546,24 +5101,21 @@
         <v>5598.6407</v>
       </c>
       <c r="G138" t="n">
-        <v>1428524.926660485</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="inlineStr"/>
-      <c r="J138" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L138" t="n">
-        <v>1</v>
-      </c>
-      <c r="M138" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H138" t="inlineStr"/>
+      <c r="I138" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K138" t="n">
+        <v>1</v>
+      </c>
+      <c r="L138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5585,24 +5137,21 @@
         <v>2459.336</v>
       </c>
       <c r="G139" t="n">
-        <v>1428524.926660485</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="inlineStr"/>
-      <c r="J139" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L139" t="n">
-        <v>1</v>
-      </c>
-      <c r="M139" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H139" t="inlineStr"/>
+      <c r="I139" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5624,24 +5173,21 @@
         <v>4215.9262</v>
       </c>
       <c r="G140" t="n">
-        <v>1428524.926660485</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="inlineStr"/>
-      <c r="J140" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L140" t="n">
-        <v>1</v>
-      </c>
-      <c r="M140" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H140" t="inlineStr"/>
+      <c r="I140" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K140" t="n">
+        <v>1</v>
+      </c>
+      <c r="L140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5663,24 +5209,21 @@
         <v>16220.1729</v>
       </c>
       <c r="G141" t="n">
-        <v>1428524.926660485</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="inlineStr"/>
-      <c r="J141" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L141" t="n">
-        <v>1</v>
-      </c>
-      <c r="M141" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H141" t="inlineStr"/>
+      <c r="I141" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K141" t="n">
+        <v>1</v>
+      </c>
+      <c r="L141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5702,24 +5245,21 @@
         <v>6014.524</v>
       </c>
       <c r="G142" t="n">
-        <v>1428524.926660485</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="inlineStr"/>
-      <c r="J142" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L142" t="n">
-        <v>1</v>
-      </c>
-      <c r="M142" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H142" t="inlineStr"/>
+      <c r="I142" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5741,24 +5281,21 @@
         <v>2500</v>
       </c>
       <c r="G143" t="n">
-        <v>1428524.926660485</v>
-      </c>
-      <c r="H143" t="n">
-        <v>2</v>
-      </c>
-      <c r="I143" t="inlineStr"/>
-      <c r="J143" t="n">
-        <v>11.9</v>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L143" t="n">
-        <v>1.045420168067227</v>
-      </c>
-      <c r="M143" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H143" t="inlineStr"/>
+      <c r="I143" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K143" t="n">
+        <v>1</v>
+      </c>
+      <c r="L143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5780,18 +5317,21 @@
         <v>44332.7434</v>
       </c>
       <c r="G144" t="n">
-        <v>1428524.926660485</v>
-      </c>
-      <c r="H144" t="n">
-        <v>2</v>
-      </c>
-      <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="n">
-        <v>1</v>
-      </c>
-      <c r="M144" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H144" t="inlineStr"/>
+      <c r="I144" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K144" t="n">
+        <v>1</v>
+      </c>
+      <c r="L144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5813,18 +5353,21 @@
         <v>19989.0263</v>
       </c>
       <c r="G145" t="n">
-        <v>1428524.926660485</v>
-      </c>
-      <c r="H145" t="n">
-        <v>2</v>
-      </c>
-      <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="n">
-        <v>1</v>
-      </c>
-      <c r="M145" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H145" t="inlineStr"/>
+      <c r="I145" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K145" t="n">
+        <v>1</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5846,18 +5389,21 @@
         <v>10</v>
       </c>
       <c r="G146" t="n">
-        <v>1428514.926660485</v>
-      </c>
-      <c r="H146" t="n">
-        <v>2</v>
-      </c>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="n">
-        <v>1</v>
-      </c>
-      <c r="M146" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="H146" t="inlineStr"/>
+      <c r="I146" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5879,18 +5425,21 @@
         <v>8790</v>
       </c>
       <c r="G147" t="n">
-        <v>1437304.926660485</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="n">
-        <v>1</v>
-      </c>
-      <c r="M147" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="H147" t="inlineStr"/>
+      <c r="I147" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="J147" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="K147" t="n">
+        <v>1.045420168067227</v>
+      </c>
+      <c r="L147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5912,18 +5461,15 @@
         <v>9717.7557</v>
       </c>
       <c r="G148" t="n">
-        <v>1437304.926660485</v>
-      </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H148" t="inlineStr"/>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
-      <c r="L148" t="n">
-        <v>1</v>
-      </c>
-      <c r="M148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5945,18 +5491,15 @@
         <v>212.5444</v>
       </c>
       <c r="G149" t="n">
-        <v>1437517.471060485</v>
-      </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr"/>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
-      <c r="L149" t="n">
-        <v>1</v>
-      </c>
-      <c r="M149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>1</v>
+      </c>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5978,18 +5521,15 @@
         <v>8330</v>
       </c>
       <c r="G150" t="n">
-        <v>1429187.471060485</v>
-      </c>
-      <c r="H150" t="n">
         <v>2</v>
       </c>
+      <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
-      <c r="L150" t="n">
-        <v>1</v>
-      </c>
-      <c r="M150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -6011,18 +5551,15 @@
         <v>8330</v>
       </c>
       <c r="G151" t="n">
-        <v>1429187.471060485</v>
-      </c>
-      <c r="H151" t="n">
         <v>2</v>
       </c>
+      <c r="H151" t="inlineStr"/>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
-      <c r="L151" t="n">
-        <v>1</v>
-      </c>
-      <c r="M151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>1</v>
+      </c>
+      <c r="L151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -6044,18 +5581,15 @@
         <v>8330</v>
       </c>
       <c r="G152" t="n">
-        <v>1429187.471060485</v>
-      </c>
-      <c r="H152" t="n">
         <v>2</v>
       </c>
+      <c r="H152" t="inlineStr"/>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="n">
-        <v>1</v>
-      </c>
-      <c r="M152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>1</v>
+      </c>
+      <c r="L152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -6077,18 +5611,15 @@
         <v>10</v>
       </c>
       <c r="G153" t="n">
-        <v>1429177.471060485</v>
-      </c>
-      <c r="H153" t="n">
         <v>2</v>
       </c>
+      <c r="H153" t="inlineStr"/>
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="n">
-        <v>1</v>
-      </c>
-      <c r="M153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -6110,18 +5641,15 @@
         <v>48.3333</v>
       </c>
       <c r="G154" t="n">
-        <v>1429225.804360485</v>
-      </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H154" t="inlineStr"/>
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="n">
-        <v>1</v>
-      </c>
-      <c r="M154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>1</v>
+      </c>
+      <c r="L154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -6143,18 +5671,15 @@
         <v>207</v>
       </c>
       <c r="G155" t="n">
-        <v>1429225.804360485</v>
-      </c>
-      <c r="H155" t="n">
         <v>2</v>
       </c>
+      <c r="H155" t="inlineStr"/>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="n">
-        <v>1</v>
-      </c>
-      <c r="M155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>1</v>
+      </c>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6176,18 +5701,15 @@
         <v>74.6825</v>
       </c>
       <c r="G156" t="n">
-        <v>1429225.804360485</v>
-      </c>
-      <c r="H156" t="n">
         <v>2</v>
       </c>
+      <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="n">
-        <v>1</v>
-      </c>
-      <c r="M156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>1</v>
+      </c>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6209,18 +5731,15 @@
         <v>10</v>
       </c>
       <c r="G157" t="n">
-        <v>1429215.804360485</v>
-      </c>
-      <c r="H157" t="n">
         <v>2</v>
       </c>
+      <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="n">
-        <v>1</v>
-      </c>
-      <c r="M157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>1</v>
+      </c>
+      <c r="L157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6242,18 +5761,15 @@
         <v>10019</v>
       </c>
       <c r="G158" t="n">
-        <v>1429215.804360485</v>
-      </c>
-      <c r="H158" t="n">
         <v>2</v>
       </c>
+      <c r="H158" t="inlineStr"/>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="n">
-        <v>1</v>
-      </c>
-      <c r="M158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6275,18 +5791,15 @@
         <v>17590</v>
       </c>
       <c r="G159" t="n">
-        <v>1429215.804360485</v>
-      </c>
-      <c r="H159" t="n">
         <v>2</v>
       </c>
+      <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="n">
-        <v>1</v>
-      </c>
-      <c r="M159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6308,18 +5821,15 @@
         <v>4170</v>
       </c>
       <c r="G160" t="n">
-        <v>1429215.804360485</v>
-      </c>
-      <c r="H160" t="n">
         <v>2</v>
       </c>
+      <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="n">
-        <v>1</v>
-      </c>
-      <c r="M160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6341,18 +5851,15 @@
         <v>4170</v>
       </c>
       <c r="G161" t="n">
-        <v>1429215.804360485</v>
-      </c>
-      <c r="H161" t="n">
         <v>2</v>
       </c>
+      <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="n">
-        <v>1</v>
-      </c>
-      <c r="M161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6374,18 +5881,15 @@
         <v>4180</v>
       </c>
       <c r="G162" t="n">
-        <v>1429215.804360485</v>
-      </c>
-      <c r="H162" t="n">
         <v>2</v>
       </c>
+      <c r="H162" t="inlineStr"/>
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="n">
-        <v>1</v>
-      </c>
-      <c r="M162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6407,18 +5911,15 @@
         <v>10</v>
       </c>
       <c r="G163" t="n">
-        <v>1429205.804360485</v>
-      </c>
-      <c r="H163" t="n">
         <v>2</v>
       </c>
+      <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="n">
-        <v>1</v>
-      </c>
-      <c r="M163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6440,18 +5941,15 @@
         <v>4170</v>
       </c>
       <c r="G164" t="n">
-        <v>1433375.804360485</v>
-      </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H164" t="inlineStr"/>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="n">
-        <v>1</v>
-      </c>
-      <c r="M164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>1</v>
+      </c>
+      <c r="L164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6473,18 +5971,15 @@
         <v>4180</v>
       </c>
       <c r="G165" t="n">
-        <v>1433375.804360485</v>
-      </c>
-      <c r="H165" t="n">
         <v>2</v>
       </c>
+      <c r="H165" t="inlineStr"/>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
-      <c r="L165" t="n">
-        <v>1</v>
-      </c>
-      <c r="M165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>1</v>
+      </c>
+      <c r="L165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6506,18 +6001,15 @@
         <v>10</v>
       </c>
       <c r="G166" t="n">
-        <v>1433365.804360485</v>
-      </c>
-      <c r="H166" t="n">
-        <v>2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H166" t="inlineStr"/>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
-      <c r="L166" t="n">
-        <v>1</v>
-      </c>
-      <c r="M166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>1</v>
+      </c>
+      <c r="L166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6539,18 +6031,15 @@
         <v>4170</v>
       </c>
       <c r="G167" t="n">
-        <v>1437535.804360485</v>
-      </c>
-      <c r="H167" t="n">
         <v>2</v>
       </c>
+      <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
-      <c r="L167" t="n">
-        <v>1</v>
-      </c>
-      <c r="M167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>1</v>
+      </c>
+      <c r="L167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6572,18 +6061,15 @@
         <v>4270</v>
       </c>
       <c r="G168" t="n">
-        <v>1437535.804360485</v>
-      </c>
-      <c r="H168" t="n">
         <v>2</v>
       </c>
+      <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
-      <c r="L168" t="n">
-        <v>1</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6605,18 +6091,15 @@
         <v>4170</v>
       </c>
       <c r="G169" t="n">
-        <v>1437535.804360485</v>
-      </c>
-      <c r="H169" t="n">
         <v>2</v>
       </c>
+      <c r="H169" t="inlineStr"/>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
-      <c r="L169" t="n">
-        <v>1</v>
-      </c>
-      <c r="M169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6638,18 +6121,15 @@
         <v>4170</v>
       </c>
       <c r="G170" t="n">
-        <v>1437535.804360485</v>
-      </c>
-      <c r="H170" t="n">
         <v>2</v>
       </c>
+      <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
-      <c r="L170" t="n">
-        <v>1</v>
-      </c>
-      <c r="M170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>1</v>
+      </c>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6671,18 +6151,15 @@
         <v>20</v>
       </c>
       <c r="G171" t="n">
-        <v>1437515.804360485</v>
-      </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H171" t="inlineStr"/>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
-      <c r="L171" t="n">
-        <v>1</v>
-      </c>
-      <c r="M171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>1</v>
+      </c>
+      <c r="L171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6704,18 +6181,15 @@
         <v>4170</v>
       </c>
       <c r="G172" t="n">
-        <v>1441685.804360485</v>
-      </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
-      <c r="L172" t="n">
-        <v>1</v>
-      </c>
-      <c r="M172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>1</v>
+      </c>
+      <c r="L172" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
